--- a/shock_tube_comparison.xlsx
+++ b/shock_tube_comparison.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4d8117c88e687648/MA Maschinenbau/Compressible Flows/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valni\Documents\GIT\compressible_flows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="275" documentId="8_{4A407654-3532-4BA5-8F94-AC53B5ED2CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE868030-FC82-4CCC-8073-A5F958C2622C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12E8CFD-2A1D-4B8B-953F-140B42F1EF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="526" xr2:uid="{C6B05637-B1ED-495D-99F8-C631C78AA6C5}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="502" xr2:uid="{C6B05637-B1ED-495D-99F8-C631C78AA6C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Shock Tube Problem" sheetId="1" r:id="rId1"/>
@@ -256,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -264,17 +264,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8548,8 +8637,8 @@
   </sheetPr>
   <dimension ref="A1:V121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AJ56" sqref="AJ56"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8895,7 +8984,7 @@
       </c>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" ht="14.65" thickBot="1">
       <c r="G18" t="s">
         <v>37</v>
       </c>
@@ -8906,2640 +8995,2651 @@
       <c r="U18" s="2"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="C19" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H19" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K19" t="s">
+      <c r="I19" s="5"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="6"/>
       <c r="U19" s="2"/>
     </row>
     <row r="20" spans="1:21">
-      <c r="B20" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="9" t="s">
         <v>47</v>
       </c>
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" t="s">
+      <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="8">
         <v>-5</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="8">
         <f>K13/100000</f>
         <v>1</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="8">
         <f>K14</f>
         <v>1</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="8">
         <f>B16/B15</f>
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="8">
         <f>C21*POWER((1+(B$11-1)/2*E21*E21),(B$11/(B$11-1)))</f>
         <v>1</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="7">
         <v>-5</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="7">
         <v>1</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="8">
         <v>0</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="9">
         <v>1</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="8">
         <v>1</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="8">
         <v>0</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="9">
         <v>1</v>
       </c>
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" t="s">
+      <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="8">
         <f>B6-K15*B8-5</f>
         <v>-2.7385190413798477</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="8">
         <f>K13/100000</f>
         <v>1</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="8">
         <f>K14</f>
         <v>1</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="8">
         <f>B16/B15</f>
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="8">
         <f>C22*POWER((1+(B$11-1)/2*E22*E22),(B$11/(B$11-1)))</f>
         <v>1</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="7">
         <v>-4.9000000000000004</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="7">
         <v>1</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="8">
         <v>0</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="9">
         <v>1</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="8">
         <v>1</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="8">
         <v>0</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="9">
         <v>1</v>
       </c>
       <c r="U22" s="2"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" t="s">
+      <c r="A23" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="8">
         <f>B6+(H16-H15)*B8-5</f>
         <v>-0.16264438837179895</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="8">
         <f>H13/100000</f>
         <v>0.30313017802270625</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="8">
         <f>H14</f>
         <v>0.42631942815042706</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="8">
         <f>H16/H15</f>
         <v>0.92956698269123617</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="8">
         <f>C23*POWER((1+(B$11-1)/2*E23*E23),(B$11/(B$11-1)))</f>
         <v>0.52958733684838777</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="7">
         <v>-4.8</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="7">
         <v>1</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="8">
         <v>0</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="9">
         <v>1</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="8">
         <v>1</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="8">
         <v>0</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="9">
         <v>1</v>
       </c>
       <c r="U23" s="2"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" t="s">
+      <c r="A24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="8">
         <f>B6+B8*H16-5</f>
         <v>2.14656221084004</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="8">
         <f>H13/100000</f>
         <v>0.30313017802270625</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="8">
         <f>H14</f>
         <v>0.42631942815042706</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="8">
         <f>E23</f>
         <v>0.92956698269123617</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="8">
         <f t="shared" ref="F24:F28" si="0">C24*POWER((1+(B$11-1)/2*E24*E24),(B$11/(B$11-1)))</f>
         <v>0.52958733684838777</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="7">
         <v>-4.7</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="7">
         <v>1</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="8">
         <v>0</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="9">
         <v>1</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="8">
         <v>1</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="8">
         <v>0</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="9">
         <v>1</v>
       </c>
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" t="s">
+      <c r="A25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="8">
         <f>B6+B8*H16-5</f>
         <v>2.14656221084004</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="8">
         <f>E13/100000</f>
         <v>0.30313017802270625</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="8">
         <f>E14</f>
         <v>0.26557371169032012</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="8">
         <f>E26</f>
         <v>0.73367829125555861</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="8">
         <f t="shared" si="0"/>
         <v>0.43355818779988031</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="7">
         <v>-4.5999999999999996</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="7">
         <v>1</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="8">
         <v>0</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="9">
         <v>1</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="8">
         <v>1</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="8">
         <v>0</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="9">
         <v>1</v>
       </c>
       <c r="U25" s="2"/>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" t="s">
+      <c r="A26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="8">
         <f>B6+B8*B12-5</f>
         <v>4.0553136632176141</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="8">
         <f>E13/100000</f>
         <v>0.30313017802270625</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="8">
         <f>E14</f>
         <v>0.26557371169032012</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="8">
         <f>E16/E15</f>
         <v>0.73367829125555861</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="8">
         <f t="shared" si="0"/>
         <v>0.43355818779988031</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="7">
         <v>-4.5</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="7">
         <v>1</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="8">
         <v>0</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="9">
         <v>1</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="8">
         <v>1</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="8">
         <v>0</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="9">
         <v>1</v>
       </c>
       <c r="U26" s="2"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" t="s">
+      <c r="A27" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="8">
         <f>B6+B8*B12-5</f>
         <v>4.0553136632176141</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="8">
         <f>B13/100000</f>
         <v>0.1</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="8">
         <f>B14</f>
         <v>0.125</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="8">
         <f>K16/K15</f>
         <v>0</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="8">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="7">
         <v>-4.4000000000000004</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="7">
         <v>1</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="8">
         <v>0</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="9">
         <v>1</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="8">
         <v>1</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="8">
         <v>0</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="9">
         <v>1</v>
       </c>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21">
-      <c r="A28" t="s">
+    <row r="28" spans="1:21" ht="14.65" thickBot="1">
+      <c r="A28" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="11">
         <f>B5-5</f>
         <v>5</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="11">
         <f>B13/100000</f>
         <v>0.1</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="11">
         <f>B14</f>
         <v>0.125</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="11">
         <f>K16/K15</f>
         <v>0</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="11">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="7">
         <v>-4.3</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="7">
         <v>1</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="8">
         <v>0</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="9">
         <v>1</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="8">
         <v>1</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="8">
         <v>0</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="9">
         <v>1</v>
       </c>
       <c r="U28" s="2"/>
     </row>
     <row r="29" spans="1:21">
-      <c r="G29">
+      <c r="G29" s="7">
         <v>-4.2</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="7">
         <v>1</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="8">
         <v>0</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="9">
         <v>1</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="8">
         <v>1</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="8">
         <v>0</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="9">
         <v>1</v>
       </c>
       <c r="U29" s="2"/>
     </row>
     <row r="30" spans="1:21">
-      <c r="G30">
+      <c r="G30" s="7">
         <v>-4.0999999999999996</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="7">
         <v>1</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="8">
         <v>0</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="9">
         <v>1</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="8">
         <v>1</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="8">
         <v>0</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="9">
         <v>1</v>
       </c>
       <c r="U30" s="2"/>
     </row>
     <row r="31" spans="1:21">
-      <c r="G31">
+      <c r="G31" s="7">
         <v>-4</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="7">
         <v>1</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="8">
         <v>0</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="9">
         <v>1</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="8">
         <v>0.99999899999999997</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="8">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="9">
         <v>0.99999899999999997</v>
       </c>
       <c r="U31" s="2"/>
     </row>
     <row r="32" spans="1:21">
-      <c r="G32">
+      <c r="G32" s="7">
         <v>-3.9</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="7">
         <v>1</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="8">
         <v>0</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="9">
         <v>1</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="8">
         <v>0.99999400000000005</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="8">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="9">
         <v>0.99999400000000005</v>
       </c>
       <c r="U32" s="2"/>
     </row>
     <row r="33" spans="7:21">
-      <c r="G33">
+      <c r="G33" s="7">
         <v>-3.8</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="7">
         <v>1</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="8">
         <v>0</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="9">
         <v>1</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="8">
         <v>0.99997999999999998</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="8">
         <v>1.5E-5</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="9">
         <v>0.99997999999999998</v>
       </c>
       <c r="U33" s="2"/>
     </row>
     <row r="34" spans="7:21">
-      <c r="G34">
+      <c r="G34" s="7">
         <v>-3.7</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="7">
         <v>1</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="8">
         <v>0</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="9">
         <v>1</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="8">
         <v>0.99993500000000002</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="8">
         <v>4.6E-5</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="9">
         <v>0.99993500000000002</v>
       </c>
       <c r="U34" s="2"/>
     </row>
     <row r="35" spans="7:21">
-      <c r="G35">
+      <c r="G35" s="7">
         <v>-3.6</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="7">
         <v>1</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="8">
         <v>0</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="9">
         <v>1</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="8">
         <v>0.99981600000000004</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="8">
         <v>1.3100000000000001E-4</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="9">
         <v>0.99981600000000004</v>
       </c>
       <c r="U35" s="2"/>
     </row>
     <row r="36" spans="7:21">
-      <c r="G36">
+      <c r="G36" s="7">
         <v>-3.5</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="7">
         <v>0.99999800000000005</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="8">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="9">
         <v>0.99999800000000005</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="8">
         <v>0.99952399999999997</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="8">
         <v>3.4000000000000002E-4</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="9">
         <v>0.99952399999999997</v>
       </c>
       <c r="U36" s="2"/>
     </row>
     <row r="37" spans="7:21">
-      <c r="G37">
+      <c r="G37" s="7">
         <v>-3.4</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="7">
         <v>0.99999199999999999</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="8">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="9">
         <v>0.99999199999999999</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="8">
         <v>0.99887700000000001</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="8">
         <v>8.03E-4</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="9">
         <v>0.99887700000000001</v>
       </c>
       <c r="U37" s="2"/>
     </row>
     <row r="38" spans="7:21">
-      <c r="G38">
+      <c r="G38" s="7">
         <v>-3.3</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="7">
         <v>0.999969</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="8">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="9">
         <v>0.999969</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="8">
         <v>0.99757099999999999</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="8">
         <v>1.737E-3</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="9">
         <v>0.99757300000000004</v>
       </c>
       <c r="U38" s="2"/>
     </row>
     <row r="39" spans="7:21">
-      <c r="G39">
+      <c r="G39" s="7">
         <v>-3.2</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="7">
         <v>0.999892</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="8">
         <v>7.7000000000000001E-5</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="9">
         <v>0.999892</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="8">
         <v>0.99516499999999997</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="8">
         <v>3.4619999999999998E-3</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="9">
         <v>0.99517299999999997</v>
       </c>
       <c r="U39" s="2"/>
     </row>
     <row r="40" spans="7:21">
-      <c r="G40">
+      <c r="G40" s="7">
         <v>-3.1</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="7">
         <v>0.99965999999999999</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="8">
         <v>2.43E-4</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="9">
         <v>0.99965999999999999</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="8">
         <v>0.99111899999999997</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="8">
         <v>6.3730000000000002E-3</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="9">
         <v>0.991147</v>
       </c>
       <c r="U40" s="2"/>
     </row>
     <row r="41" spans="7:21">
-      <c r="G41">
+      <c r="G41" s="7">
         <v>-3</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="7">
         <v>0.999031</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="8">
         <v>6.9200000000000002E-4</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="9">
         <v>0.999031</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="8">
         <v>0.98485</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="8">
         <v>1.0907999999999999E-2</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="9">
         <v>0.98493200000000003</v>
       </c>
       <c r="U41" s="2"/>
     </row>
     <row r="42" spans="7:21">
-      <c r="G42">
+      <c r="G42" s="7">
         <v>-2.9</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="7">
         <v>0.99751400000000001</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="8">
         <v>1.779E-3</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="9">
         <v>0.99751599999999996</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="8">
         <v>0.97584700000000002</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="8">
         <v>1.7478E-2</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="9">
         <v>0.97605500000000001</v>
       </c>
       <c r="U42" s="2"/>
     </row>
     <row r="43" spans="7:21">
-      <c r="G43">
+      <c r="G43" s="7">
         <v>-2.8</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="7">
         <v>0.99425200000000002</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="8">
         <v>4.1190000000000003E-3</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="9">
         <v>0.99426400000000004</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="8">
         <v>0.96379800000000004</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="8">
         <v>2.6377999999999999E-2</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="9">
         <v>0.96426699999999999</v>
       </c>
       <c r="U43" s="2"/>
     </row>
     <row r="44" spans="7:21">
-      <c r="G44">
+      <c r="G44" s="7">
         <v>-2.7</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="7">
         <v>0.98802400000000001</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="8">
         <v>8.6130000000000009E-3</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="9">
         <v>0.98807500000000004</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="8">
         <v>0.94856099999999999</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="8">
         <v>3.7815000000000001E-2</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="9">
         <v>0.94951099999999999</v>
       </c>
       <c r="U44" s="2"/>
     </row>
     <row r="45" spans="7:21">
-      <c r="G45">
+      <c r="G45" s="7">
         <v>-2.6</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="7">
         <v>0.97744699999999995</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="8">
         <v>1.6319E-2</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="9">
         <v>0.97762899999999997</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="8">
         <v>0.93031200000000003</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="8">
         <v>5.1791999999999998E-2</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="9">
         <v>0.93206</v>
       </c>
       <c r="U45" s="2"/>
     </row>
     <row r="46" spans="7:21">
-      <c r="G46">
+      <c r="G46" s="7">
         <v>-2.5</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="7">
         <v>0.96140700000000001</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="8">
         <v>2.8188999999999999E-2</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="9">
         <v>0.96194199999999996</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="8">
         <v>0.90936399999999995</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="8">
         <v>6.8225999999999995E-2</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="9">
         <v>0.91232999999999997</v>
       </c>
       <c r="U46" s="2"/>
     </row>
     <row r="47" spans="7:21">
-      <c r="G47">
+      <c r="G47" s="7">
         <v>-2.4</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="7">
         <v>0.93948600000000004</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="8">
         <v>4.4781000000000001E-2</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="9">
         <v>0.940805</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="8">
         <v>0.88611899999999999</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="8">
         <v>8.6974999999999997E-2</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="9">
         <v>0.89081999999999995</v>
       </c>
       <c r="U47" s="2"/>
     </row>
     <row r="48" spans="7:21">
-      <c r="G48">
+      <c r="G48" s="7">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="7">
         <v>0.91214099999999998</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="8">
         <v>6.6110000000000002E-2</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="9">
         <v>0.91493500000000005</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="8">
         <v>0.861043</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="8">
         <v>0.10784100000000001</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="9">
         <v>0.86807299999999998</v>
       </c>
       <c r="U48" s="2"/>
     </row>
     <row r="49" spans="7:21">
-      <c r="G49">
+      <c r="G49" s="7">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="7">
         <v>0.88051400000000002</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="8">
         <v>9.1711000000000001E-2</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="9">
         <v>0.88570899999999997</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="8">
         <v>0.83458399999999999</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="8">
         <v>0.13062299999999999</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="9">
         <v>0.84459499999999998</v>
       </c>
       <c r="U49" s="2"/>
     </row>
     <row r="50" spans="7:21">
-      <c r="G50">
+      <c r="G50" s="7">
         <v>-2.1</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="7">
         <v>0.84603600000000001</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="8">
         <v>0.120846</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="9">
         <v>0.85471699999999995</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="8">
         <v>0.80715400000000004</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="8">
         <v>0.15512899999999999</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="9">
         <v>0.82083300000000003</v>
       </c>
       <c r="U50" s="2"/>
     </row>
     <row r="51" spans="7:21">
-      <c r="G51">
+      <c r="G51" s="7">
         <v>-2</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="7">
         <v>0.81005300000000002</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="8">
         <v>0.15273800000000001</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="9">
         <v>0.82335899999999995</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="8">
         <v>0.77916099999999999</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="8">
         <v>0.18113699999999999</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="9">
         <v>0.79720299999999999</v>
       </c>
       <c r="U51" s="2"/>
     </row>
     <row r="52" spans="7:21">
-      <c r="G52">
+      <c r="G52" s="7">
         <v>-1.9</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="7">
         <v>0.773621</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="8">
         <v>0.186722</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="9">
         <v>0.79266700000000001</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="8">
         <v>0.75086299999999995</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="8">
         <v>0.208533</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="9">
         <v>0.77396900000000002</v>
       </c>
       <c r="U52" s="2"/>
     </row>
     <row r="53" spans="7:21">
-      <c r="G53">
+      <c r="G53" s="7">
         <v>-1.8</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="7">
         <v>0.73746999999999996</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="8">
         <v>0.222303</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="9">
         <v>0.76329800000000003</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="8">
         <v>0.722549</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="8">
         <v>0.237148</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="9">
         <v>0.75139599999999995</v>
       </c>
       <c r="U53" s="2"/>
     </row>
     <row r="54" spans="7:21">
-      <c r="G54">
+      <c r="G54" s="7">
         <v>-1.7</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="7">
         <v>0.70205399999999996</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="8">
         <v>0.25914999999999999</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="9">
         <v>0.73561600000000005</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="8">
         <v>0.69435999999999998</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="8">
         <v>0.26693600000000001</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="9">
         <v>0.72961500000000001</v>
       </c>
       <c r="U54" s="2"/>
     </row>
     <row r="55" spans="7:21">
-      <c r="G55">
+      <c r="G55" s="7">
         <v>-1.6</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="7">
         <v>0.66763700000000004</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="8">
         <v>0.29705300000000001</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="9">
         <v>0.70979400000000004</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="8">
         <v>0.66659199999999996</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="8">
         <v>0.29765799999999998</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="9">
         <v>0.70885799999999999</v>
       </c>
       <c r="U55" s="2"/>
     </row>
     <row r="56" spans="7:21">
-      <c r="G56">
+      <c r="G56" s="7">
         <v>-1.5</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="7">
         <v>0.63436199999999998</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="8">
         <v>0.33588400000000002</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="9">
         <v>0.68588800000000005</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="8">
         <v>0.63923600000000003</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="8">
         <v>0.32938499999999998</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="9">
         <v>0.689114</v>
       </c>
       <c r="U56" s="2"/>
     </row>
     <row r="57" spans="7:21">
-      <c r="G57">
+      <c r="G57" s="7">
         <v>-1.4</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="7">
         <v>0.602302</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="8">
         <v>0.37556400000000001</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="9">
         <v>0.66389600000000004</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="8">
         <v>0.61246500000000004</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="8">
         <v>0.36196699999999998</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="9">
         <v>0.67049999999999998</v>
       </c>
       <c r="U57" s="2"/>
     </row>
     <row r="58" spans="7:21">
-      <c r="G58">
+      <c r="G58" s="7">
         <v>-1.3</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="7">
         <v>0.571492</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="8">
         <v>0.41605300000000001</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="9">
         <v>0.64378800000000003</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="8">
         <v>0.58635400000000004</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="8">
         <v>0.395347</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="9">
         <v>0.65305199999999997</v>
       </c>
       <c r="U58" s="2"/>
     </row>
     <row r="59" spans="7:21">
-      <c r="G59">
+      <c r="G59" s="7">
         <v>-1.2</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="7">
         <v>0.54194799999999999</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="8">
         <v>0.457233</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="9">
         <v>0.62549200000000005</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="8">
         <v>0.56093899999999997</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="8">
         <v>0.429506</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="9">
         <v>0.63677700000000004</v>
       </c>
       <c r="U59" s="2"/>
     </row>
     <row r="60" spans="7:21">
-      <c r="G60">
+      <c r="G60" s="7">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="7">
         <v>0.51367600000000002</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="8">
         <v>0.49934000000000001</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="9">
         <v>0.60906099999999996</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="8">
         <v>0.53627899999999995</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="8">
         <v>0.46438000000000001</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="9">
         <v>0.62169200000000002</v>
       </c>
       <c r="U60" s="2"/>
     </row>
     <row r="61" spans="7:21">
-      <c r="G61">
+      <c r="G61" s="7">
         <v>-1</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="7">
         <v>0.48670200000000002</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="8">
         <v>0.54149099999999994</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="9">
         <v>0.59413499999999997</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="8">
         <v>0.51241099999999995</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="8">
         <v>0.499921</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="9">
         <v>0.607796</v>
       </c>
       <c r="U61" s="2"/>
     </row>
     <row r="62" spans="7:21">
-      <c r="G62">
+      <c r="G62" s="7">
         <v>-0.9</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="7">
         <v>0.46106799999999998</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="8">
         <v>0.58500300000000005</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="9">
         <v>0.58129799999999998</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="8">
         <v>0.48935200000000001</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="8">
         <v>0.53609399999999996</v>
       </c>
-      <c r="M62">
+      <c r="M62" s="9">
         <v>0.59507699999999997</v>
       </c>
       <c r="U62" s="2"/>
     </row>
     <row r="63" spans="7:21">
-      <c r="G63">
+      <c r="G63" s="7">
         <v>-0.8</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="7">
         <v>0.43688700000000003</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="8">
         <v>0.62809000000000004</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="9">
         <v>0.56990499999999999</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="8">
         <v>0.46713500000000002</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="8">
         <v>0.57283499999999998</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="9">
         <v>0.58352899999999996</v>
       </c>
       <c r="U63" s="2"/>
     </row>
     <row r="64" spans="7:21">
-      <c r="G64">
+      <c r="G64" s="7">
         <v>-0.7</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="7">
         <v>0.414524</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="8">
         <v>0.66986199999999996</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="9">
         <v>0.55999500000000002</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="8">
         <v>0.44578899999999999</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="8">
         <v>0.61006400000000005</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="9">
         <v>0.57313999999999998</v>
       </c>
       <c r="U64" s="2"/>
     </row>
     <row r="65" spans="7:21">
-      <c r="G65">
+      <c r="G65" s="7">
         <v>-0.6</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="7">
         <v>0.394868</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="8">
         <v>0.70958600000000005</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="9">
         <v>0.55245500000000003</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="8">
         <v>0.42527999999999999</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="8">
         <v>0.64779900000000001</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="9">
         <v>0.56386899999999995</v>
       </c>
       <c r="U65" s="2"/>
     </row>
     <row r="66" spans="7:21">
-      <c r="G66">
+      <c r="G66" s="7">
         <v>-0.5</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="7">
         <v>0.38048500000000002</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="8">
         <v>0.74095900000000003</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="9">
         <v>0.547898</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="8">
         <v>0.40567700000000001</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="8">
         <v>0.685863</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="9">
         <v>0.55571800000000005</v>
       </c>
       <c r="U66" s="2"/>
     </row>
     <row r="67" spans="7:21">
-      <c r="G67">
+      <c r="G67" s="7">
         <v>-0.4</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="7">
         <v>0.37754500000000002</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="8">
         <v>0.747363</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="9">
         <v>0.54693999999999998</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="8">
         <v>0.38693</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="8">
         <v>0.72427900000000001</v>
       </c>
-      <c r="M67">
+      <c r="M67" s="9">
         <v>0.54863700000000004</v>
       </c>
       <c r="U67" s="2"/>
     </row>
     <row r="68" spans="7:21">
-      <c r="G68">
+      <c r="G68" s="7">
         <v>-0.3</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="7">
         <v>0.39069700000000002</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="8">
         <v>0.71690399999999999</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="9">
         <v>0.550257</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="8">
         <v>0.36913600000000002</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="8">
         <v>0.762764</v>
       </c>
-      <c r="M68">
+      <c r="M68" s="9">
         <v>0.54262900000000003</v>
       </c>
       <c r="U68" s="2"/>
     </row>
     <row r="69" spans="7:21">
-      <c r="G69">
+      <c r="G69" s="7">
         <v>-0.2</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="7">
         <v>0.40270400000000001</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="8">
         <v>0.69372900000000004</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="9">
         <v>0.55548500000000001</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="8">
         <v>0.35240500000000002</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="8">
         <v>0.80093199999999998</v>
       </c>
-      <c r="M69">
+      <c r="M69" s="9">
         <v>0.53768199999999999</v>
       </c>
       <c r="U69" s="2"/>
     </row>
     <row r="70" spans="7:21">
-      <c r="G70">
+      <c r="G70" s="7">
         <v>-0.1</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="7">
         <v>0.39186799999999999</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="8">
         <v>0.71618000000000004</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="9">
         <v>0.55154300000000001</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="8">
         <v>0.33683000000000002</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="8">
         <v>0.83837200000000001</v>
       </c>
-      <c r="M70">
+      <c r="M70" s="9">
         <v>0.53375499999999998</v>
       </c>
       <c r="U70" s="2"/>
     </row>
     <row r="71" spans="7:21">
-      <c r="G71">
+      <c r="G71" s="7">
         <v>0</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="7">
         <v>0.17457600000000001</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="8">
         <v>1.428733</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="9">
         <v>0.57858699999999996</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="8">
         <v>0.32278299999999999</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="8">
         <v>0.87387099999999995</v>
       </c>
-      <c r="M71">
+      <c r="M71" s="9">
         <v>0.53083199999999997</v>
       </c>
       <c r="U71" s="2"/>
     </row>
     <row r="72" spans="7:21">
-      <c r="G72">
+      <c r="G72" s="7">
         <v>0.1</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="7">
         <v>0.194825</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="8">
         <v>1.3311170000000001</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="9">
         <v>0.56328699999999998</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="8">
         <v>0.31106400000000001</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="8">
         <v>0.90485499999999996</v>
       </c>
-      <c r="M72">
+      <c r="M72" s="9">
         <v>0.52888599999999997</v>
       </c>
       <c r="U72" s="2"/>
     </row>
     <row r="73" spans="7:21">
-      <c r="G73">
+      <c r="G73" s="7">
         <v>0.2</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="7">
         <v>0.13417299999999999</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="8">
         <v>1.673419</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="9">
         <v>0.63630600000000004</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="8">
         <v>0.30321700000000001</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="8">
         <v>0.926319</v>
       </c>
-      <c r="M73">
+      <c r="M73" s="9">
         <v>0.52783500000000005</v>
       </c>
       <c r="U73" s="2"/>
     </row>
     <row r="74" spans="7:21">
-      <c r="G74">
+      <c r="G74" s="7">
         <v>0.3</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="7">
         <v>0.156052</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="8">
         <v>1.5323439999999999</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="9">
         <v>0.60045800000000005</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="8">
         <v>0.30089300000000002</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="8">
         <v>0.93270399999999998</v>
       </c>
-      <c r="M74">
+      <c r="M74" s="9">
         <v>0.52751499999999996</v>
       </c>
       <c r="U74" s="2"/>
     </row>
     <row r="75" spans="7:21">
-      <c r="G75">
+      <c r="G75" s="7">
         <v>0.4</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="7">
         <v>0.284049</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="8">
         <v>0.98778999999999995</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="9">
         <v>0.530111</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="8">
         <v>0.30143999999999999</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="8">
         <v>0.931033</v>
       </c>
-      <c r="M75">
+      <c r="M75" s="9">
         <v>0.52749199999999996</v>
       </c>
       <c r="U75" s="2"/>
     </row>
     <row r="76" spans="7:21">
-      <c r="G76">
+      <c r="G76" s="7">
         <v>0.5</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="7">
         <v>0.302622</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="8">
         <v>0.93177500000000002</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="9">
         <v>0.529999</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="8">
         <v>0.30197499999999999</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="8">
         <v>0.92940999999999996</v>
       </c>
-      <c r="M76">
+      <c r="M76" s="9">
         <v>0.52747699999999997</v>
       </c>
       <c r="U76" s="2"/>
     </row>
     <row r="77" spans="7:21">
-      <c r="G77">
+      <c r="G77" s="7">
         <v>0.6</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="7">
         <v>0.30213299999999998</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="8">
         <v>0.93838999999999995</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="9">
         <v>0.53305599999999997</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="8">
         <v>0.30234899999999998</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="8">
         <v>0.92830500000000005</v>
       </c>
-      <c r="M77">
+      <c r="M77" s="9">
         <v>0.52748399999999995</v>
       </c>
       <c r="U77" s="2"/>
     </row>
     <row r="78" spans="7:21">
-      <c r="G78">
+      <c r="G78" s="7">
         <v>0.7</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="7">
         <v>0.30248599999999998</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="8">
         <v>0.94973600000000002</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="9">
         <v>0.54051400000000005</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="8">
         <v>0.30263600000000002</v>
       </c>
-      <c r="L78">
+      <c r="L78" s="8">
         <v>0.92760600000000004</v>
       </c>
-      <c r="M78">
+      <c r="M78" s="9">
         <v>0.52757500000000002</v>
       </c>
       <c r="U78" s="2"/>
     </row>
     <row r="79" spans="7:21">
-      <c r="G79">
+      <c r="G79" s="7">
         <v>0.8</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="7">
         <v>0.302929</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="8">
         <v>0.95426</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="9">
         <v>0.544076</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="8">
         <v>0.30285899999999999</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="8">
         <v>0.92737400000000003</v>
       </c>
-      <c r="M79">
+      <c r="M79" s="9">
         <v>0.52782899999999999</v>
       </c>
       <c r="U79" s="2"/>
     </row>
     <row r="80" spans="7:21">
-      <c r="G80">
+      <c r="G80" s="7">
         <v>0.9</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="7">
         <v>0.30329299999999998</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="8">
         <v>0.94164499999999995</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="9">
         <v>0.53705499999999995</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="8">
         <v>0.30303000000000002</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="8">
         <v>0.92765500000000001</v>
       </c>
-      <c r="M80">
+      <c r="M80" s="9">
         <v>0.52829099999999996</v>
       </c>
       <c r="U80" s="2"/>
     </row>
     <row r="81" spans="7:21">
-      <c r="G81">
+      <c r="G81" s="7">
         <v>1</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="7">
         <v>0.30372100000000002</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="8">
         <v>0.92036600000000002</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="9">
         <v>0.52524800000000005</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="8">
         <v>0.30315999999999999</v>
       </c>
-      <c r="L81">
+      <c r="L81" s="8">
         <v>0.92825800000000003</v>
       </c>
-      <c r="M81">
+      <c r="M81" s="9">
         <v>0.52887200000000001</v>
       </c>
       <c r="U81" s="2"/>
     </row>
     <row r="82" spans="7:21">
-      <c r="G82">
+      <c r="G82" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="7">
         <v>0.30408099999999999</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="8">
         <v>0.91364900000000004</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="9">
         <v>0.52200400000000002</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="8">
         <v>0.30325600000000003</v>
       </c>
-      <c r="L82">
+      <c r="L82" s="8">
         <v>0.92854199999999998</v>
       </c>
-      <c r="M82">
+      <c r="M82" s="9">
         <v>0.52920400000000001</v>
       </c>
       <c r="U82" s="2"/>
     </row>
     <row r="83" spans="7:21">
-      <c r="G83">
+      <c r="G83" s="7">
         <v>1.2</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="7">
         <v>0.304288</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="8">
         <v>0.93360799999999999</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="9">
         <v>0.53400199999999998</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="8">
         <v>0.30332399999999998</v>
       </c>
-      <c r="L83">
+      <c r="L83" s="8">
         <v>0.92724300000000004</v>
       </c>
-      <c r="M83">
+      <c r="M83" s="9">
         <v>0.52856300000000001</v>
       </c>
       <c r="U83" s="2"/>
     </row>
     <row r="84" spans="7:21">
-      <c r="G84">
+      <c r="G84" s="7">
         <v>1.3</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="7">
         <v>0.30446600000000001</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="8">
         <v>0.96639900000000001</v>
       </c>
-      <c r="J84">
+      <c r="J84" s="9">
         <v>0.554423</v>
       </c>
-      <c r="K84">
+      <c r="K84" s="8">
         <v>0.30336999999999997</v>
       </c>
-      <c r="L84">
+      <c r="L84" s="8">
         <v>0.92260399999999998</v>
       </c>
-      <c r="M84">
+      <c r="M84" s="9">
         <v>0.52593900000000005</v>
       </c>
       <c r="U84" s="2"/>
     </row>
     <row r="85" spans="7:21">
-      <c r="G85">
+      <c r="G85" s="7">
         <v>1.4</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="7">
         <v>0.30460500000000001</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="8">
         <v>0.98728700000000003</v>
       </c>
-      <c r="J85">
+      <c r="J85" s="9">
         <v>0.56814299999999995</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="8">
         <v>0.303398</v>
       </c>
-      <c r="L85">
+      <c r="L85" s="8">
         <v>0.91279600000000005</v>
       </c>
-      <c r="M85">
+      <c r="M85" s="9">
         <v>0.52034400000000003</v>
       </c>
       <c r="U85" s="2"/>
     </row>
     <row r="86" spans="7:21">
-      <c r="G86">
+      <c r="G86" s="7">
         <v>1.5</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="7">
         <v>0.304703</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="8">
         <v>0.98041800000000001</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="9">
         <v>0.56383700000000003</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="8">
         <v>0.30341000000000001</v>
       </c>
-      <c r="L86">
+      <c r="L86" s="8">
         <v>0.89658000000000004</v>
       </c>
-      <c r="M86">
+      <c r="M86" s="9">
         <v>0.51126099999999997</v>
       </c>
       <c r="U86" s="2"/>
     </row>
     <row r="87" spans="7:21">
-      <c r="G87">
+      <c r="G87" s="7">
         <v>1.6</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="7">
         <v>0.30474800000000002</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="8">
         <v>0.94545100000000004</v>
       </c>
-      <c r="J87">
+      <c r="J87" s="9">
         <v>0.54193899999999995</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="8">
         <v>0.30341099999999999</v>
       </c>
-      <c r="L87">
+      <c r="L87" s="8">
         <v>0.87394000000000005</v>
       </c>
-      <c r="M87">
+      <c r="M87" s="9">
         <v>0.49901099999999998</v>
       </c>
       <c r="U87" s="2"/>
     </row>
     <row r="88" spans="7:21">
-      <c r="G88">
+      <c r="G88" s="7">
         <v>1.7</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="7">
         <v>0.304703</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="8">
         <v>0.89340900000000001</v>
       </c>
-      <c r="J88">
+      <c r="J88" s="9">
         <v>0.51168499999999995</v>
       </c>
-      <c r="K88">
+      <c r="K88" s="8">
         <v>0.30340400000000001</v>
       </c>
-      <c r="L88">
+      <c r="L88" s="8">
         <v>0.84641100000000002</v>
       </c>
-      <c r="M88">
+      <c r="M88" s="9">
         <v>0.48479499999999998</v>
       </c>
       <c r="U88" s="2"/>
     </row>
     <row r="89" spans="7:21">
-      <c r="G89">
+      <c r="G89" s="7">
         <v>1.8</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="7">
         <v>0.30457800000000002</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="8">
         <v>0.83884999999999998</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="9">
         <v>0.48288599999999998</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="8">
         <v>0.30338900000000002</v>
       </c>
-      <c r="L89">
+      <c r="L89" s="8">
         <v>0.81687799999999999</v>
       </c>
-      <c r="M89">
+      <c r="M89" s="9">
         <v>0.47034700000000002</v>
       </c>
       <c r="U89" s="2"/>
     </row>
     <row r="90" spans="7:21">
-      <c r="G90">
+      <c r="G90" s="7">
         <v>1.9</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="7">
         <v>0.30437700000000001</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="8">
         <v>0.793354</v>
       </c>
-      <c r="J90">
+      <c r="J90" s="9">
         <v>0.46093200000000001</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="8">
         <v>0.303367</v>
       </c>
-      <c r="L90">
+      <c r="L90" s="8">
         <v>0.788856</v>
       </c>
-      <c r="M90">
+      <c r="M90" s="9">
         <v>0.457374</v>
       </c>
       <c r="U90" s="2"/>
     </row>
     <row r="91" spans="7:21">
-      <c r="G91">
+      <c r="G91" s="7">
         <v>2</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="7">
         <v>0.304116</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="8">
         <v>0.76202300000000001</v>
       </c>
-      <c r="J91">
+      <c r="J91" s="9">
         <v>0.44673299999999999</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="8">
         <v>0.30334100000000003</v>
       </c>
-      <c r="L91">
+      <c r="L91" s="8">
         <v>0.76545300000000005</v>
       </c>
-      <c r="M91">
+      <c r="M91" s="9">
         <v>0.44706099999999999</v>
       </c>
       <c r="U91" s="2"/>
     </row>
     <row r="92" spans="7:21">
-      <c r="G92">
+      <c r="G92" s="7">
         <v>2.1</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="7">
         <v>0.303817</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="8">
         <v>0.74405500000000002</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="9">
         <v>0.43876700000000002</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="8">
         <v>0.303309</v>
       </c>
-      <c r="L92">
+      <c r="L92" s="8">
         <v>0.74845300000000003</v>
       </c>
-      <c r="M92">
+      <c r="M92" s="9">
         <v>0.43984699999999999</v>
       </c>
       <c r="U92" s="2"/>
     </row>
     <row r="93" spans="7:21">
-      <c r="G93">
+      <c r="G93" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="7">
         <v>0.30354700000000001</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="8">
         <v>0.73565000000000003</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="9">
         <v>0.43495</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="8">
         <v>0.30326999999999998</v>
       </c>
-      <c r="L93">
+      <c r="L93" s="8">
         <v>0.73796799999999996</v>
       </c>
-      <c r="M93">
+      <c r="M93" s="9">
         <v>0.43549199999999999</v>
       </c>
       <c r="U93" s="2"/>
     </row>
     <row r="94" spans="7:21">
-      <c r="G94">
+      <c r="G94" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="7">
         <v>0.30337900000000001</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="8">
         <v>0.73287800000000003</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="9">
         <v>0.43359300000000001</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="8">
         <v>0.30322199999999999</v>
       </c>
-      <c r="L94">
+      <c r="L94" s="8">
         <v>0.73277400000000004</v>
       </c>
-      <c r="M94">
+      <c r="M94" s="9">
         <v>0.43332700000000002</v>
       </c>
       <c r="U94" s="2"/>
     </row>
     <row r="95" spans="7:21">
-      <c r="G95">
+      <c r="G95" s="7">
         <v>2.4</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="7">
         <v>0.30338500000000002</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="8">
         <v>0.732935</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="9">
         <v>0.43362299999999998</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="8">
         <v>0.30316199999999999</v>
       </c>
-      <c r="L95">
+      <c r="L95" s="8">
         <v>0.73106199999999999</v>
       </c>
-      <c r="M95">
+      <c r="M95" s="9">
         <v>0.43255399999999999</v>
       </c>
       <c r="U95" s="2"/>
     </row>
     <row r="96" spans="7:21">
-      <c r="G96">
+      <c r="G96" s="7">
         <v>2.5</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="7">
         <v>0.30360700000000002</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="8">
         <v>0.73419199999999996</v>
       </c>
-      <c r="J96">
+      <c r="J96" s="9">
         <v>0.434448</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="8">
         <v>0.30308499999999999</v>
       </c>
-      <c r="L96">
+      <c r="L96" s="8">
         <v>0.73113600000000001</v>
       </c>
-      <c r="M96">
+      <c r="M96" s="9">
         <v>0.43247400000000003</v>
       </c>
       <c r="U96" s="2"/>
     </row>
     <row r="97" spans="7:21">
-      <c r="G97">
+      <c r="G97" s="7">
         <v>2.6</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="7">
         <v>0.30399399999999999</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="8">
         <v>0.73587800000000003</v>
       </c>
-      <c r="J97">
+      <c r="J97" s="9">
         <v>0.43568299999999999</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="8">
         <v>0.30298700000000001</v>
       </c>
-      <c r="L97">
+      <c r="L97" s="8">
         <v>0.73180000000000001</v>
       </c>
-      <c r="M97">
+      <c r="M97" s="9">
         <v>0.43260100000000001</v>
       </c>
       <c r="U97" s="2"/>
     </row>
     <row r="98" spans="7:21">
-      <c r="G98">
+      <c r="G98" s="7">
         <v>2.7</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="7">
         <v>0.30441099999999999</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="8">
         <v>0.73748899999999995</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="9">
         <v>0.43693399999999999</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="8">
         <v>0.30286099999999999</v>
       </c>
-      <c r="L98">
+      <c r="L98" s="8">
         <v>0.73239699999999996</v>
       </c>
-      <c r="M98">
+      <c r="M98" s="9">
         <v>0.43265900000000002</v>
       </c>
       <c r="U98" s="2"/>
     </row>
     <row r="99" spans="7:21">
-      <c r="G99">
+      <c r="G99" s="7">
         <v>2.8</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="7">
         <v>0.30472100000000002</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="8">
         <v>0.73864300000000005</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="9">
         <v>0.43785000000000002</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="8">
         <v>0.30269499999999999</v>
       </c>
-      <c r="L99">
+      <c r="L99" s="8">
         <v>0.73266500000000001</v>
       </c>
-      <c r="M99">
+      <c r="M99" s="9">
         <v>0.43253000000000003</v>
       </c>
       <c r="U99" s="2"/>
     </row>
     <row r="100" spans="7:21">
-      <c r="G100">
+      <c r="G100" s="7">
         <v>2.9</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="7">
         <v>0.304948</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="8">
         <v>0.73935300000000004</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="9">
         <v>0.438467</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="8">
         <v>0.302477</v>
       </c>
-      <c r="L100">
+      <c r="L100" s="8">
         <v>0.73255800000000004</v>
       </c>
-      <c r="M100">
+      <c r="M100" s="9">
         <v>0.43217499999999998</v>
       </c>
       <c r="U100" s="2"/>
     </row>
     <row r="101" spans="7:21">
-      <c r="G101">
+      <c r="G101" s="7">
         <v>3</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="7">
         <v>0.30509799999999998</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="8">
         <v>0.73955700000000002</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="9">
         <v>0.43876500000000002</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="8">
         <v>0.30218800000000001</v>
       </c>
-      <c r="L101">
+      <c r="L101" s="8">
         <v>0.732097</v>
       </c>
-      <c r="M101">
+      <c r="M101" s="9">
         <v>0.43157800000000002</v>
       </c>
       <c r="U101" s="2"/>
     </row>
     <row r="102" spans="7:21">
-      <c r="G102">
+      <c r="G102" s="7">
         <v>3.1</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="7">
         <v>0.30479499999999998</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="8">
         <v>0.73844500000000002</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="9">
         <v>0.43787599999999999</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="8">
         <v>0.301792</v>
       </c>
-      <c r="L102">
+      <c r="L102" s="8">
         <v>0.73130499999999998</v>
       </c>
-      <c r="M102">
+      <c r="M102" s="9">
         <v>0.43069600000000002</v>
       </c>
     </row>
     <row r="103" spans="7:21">
-      <c r="G103">
+      <c r="G103" s="7">
         <v>3.2</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="7">
         <v>0.30551499999999998</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="8">
         <v>0.73916999999999999</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="9">
         <v>0.43920700000000001</v>
       </c>
-      <c r="K103">
+      <c r="K103" s="8">
         <v>0.30119099999999999</v>
       </c>
-      <c r="L103">
+      <c r="L103" s="8">
         <v>0.73004000000000002</v>
       </c>
-      <c r="M103">
+      <c r="M103" s="9">
         <v>0.42933700000000002</v>
       </c>
     </row>
     <row r="104" spans="7:21">
-      <c r="G104">
+      <c r="G104" s="7">
         <v>3.3</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="7">
         <v>0.31262499999999999</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="8">
         <v>0.75197099999999995</v>
       </c>
-      <c r="J104">
+      <c r="J104" s="9">
         <v>0.45486500000000002</v>
       </c>
-      <c r="K104">
+      <c r="K104" s="8">
         <v>0.29984499999999997</v>
       </c>
-      <c r="L104">
+      <c r="L104" s="8">
         <v>0.72723899999999997</v>
       </c>
-      <c r="M104">
+      <c r="M104" s="9">
         <v>0.42631599999999997</v>
       </c>
     </row>
     <row r="105" spans="7:21">
-      <c r="G105">
+      <c r="G105" s="7">
         <v>3.4</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="7">
         <v>0.31791399999999997</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="8">
         <v>0.76043400000000005</v>
       </c>
-      <c r="J105">
+      <c r="J105" s="9">
         <v>0.46629500000000002</v>
       </c>
-      <c r="K105">
+      <c r="K105" s="8">
         <v>0.29345199999999999</v>
       </c>
-      <c r="L105">
+      <c r="L105" s="8">
         <v>0.71383399999999997</v>
       </c>
-      <c r="M105">
+      <c r="M105" s="9">
         <v>0.41214499999999998</v>
       </c>
     </row>
     <row r="106" spans="7:21">
-      <c r="G106">
+      <c r="G106" s="7">
         <v>3.5</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="7">
         <v>0.25596799999999997</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="8">
         <v>0.64032299999999998</v>
       </c>
-      <c r="J106">
+      <c r="J106" s="9">
         <v>0.33727600000000002</v>
       </c>
-      <c r="K106">
+      <c r="K106" s="8">
         <v>0.25669799999999998</v>
       </c>
-      <c r="L106">
+      <c r="L106" s="8">
         <v>0.63576999999999995</v>
       </c>
-      <c r="M106">
+      <c r="M106" s="9">
         <v>0.33696799999999999</v>
       </c>
     </row>
     <row r="107" spans="7:21">
-      <c r="G107">
+      <c r="G107" s="7">
         <v>3.6</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="7">
         <v>0.12872800000000001</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="8">
         <v>0.18208099999999999</v>
       </c>
-      <c r="J107">
+      <c r="J107" s="9">
         <v>0.13174</v>
       </c>
-      <c r="K107">
+      <c r="K107" s="8">
         <v>0.16596</v>
       </c>
-      <c r="L107">
+      <c r="L107" s="8">
         <v>0.37037799999999999</v>
       </c>
-      <c r="M107">
+      <c r="M107" s="9">
         <v>0.18245</v>
       </c>
     </row>
     <row r="108" spans="7:21">
-      <c r="G108">
+      <c r="G108" s="7">
         <v>3.7</v>
       </c>
-      <c r="H108">
+      <c r="H108" s="7">
         <v>0.101019</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="8">
         <v>7.2529999999999999E-3</v>
       </c>
-      <c r="J108">
+      <c r="J108" s="9">
         <v>0.101022</v>
       </c>
-      <c r="K108">
+      <c r="K108" s="8">
         <v>0.110453</v>
       </c>
-      <c r="L108">
+      <c r="L108" s="8">
         <v>7.3286000000000004E-2</v>
       </c>
-      <c r="M108">
+      <c r="M108" s="9">
         <v>0.110869</v>
       </c>
     </row>
     <row r="109" spans="7:21">
-      <c r="G109">
+      <c r="G109" s="7">
         <v>3.8</v>
       </c>
-      <c r="H109">
+      <c r="H109" s="7">
         <v>0.100026</v>
       </c>
-      <c r="I109">
+      <c r="I109" s="8">
         <v>1.85E-4</v>
       </c>
-      <c r="J109">
+      <c r="J109" s="9">
         <v>0.100026</v>
       </c>
-      <c r="K109">
+      <c r="K109" s="8">
         <v>0.10095</v>
       </c>
-      <c r="L109">
+      <c r="L109" s="8">
         <v>6.7840000000000001E-3</v>
       </c>
-      <c r="M109">
+      <c r="M109" s="9">
         <v>0.100954</v>
       </c>
     </row>
     <row r="110" spans="7:21">
-      <c r="G110">
+      <c r="G110" s="7">
         <v>3.9</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="7">
         <v>0.10000100000000001</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="8">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="J110">
+      <c r="J110" s="9">
         <v>0.10000100000000001</v>
       </c>
-      <c r="K110">
+      <c r="K110" s="8">
         <v>0.10008</v>
       </c>
-      <c r="L110">
+      <c r="L110" s="8">
         <v>5.6899999999999995E-4</v>
       </c>
-      <c r="M110">
+      <c r="M110" s="9">
         <v>0.10008</v>
       </c>
     </row>
     <row r="111" spans="7:21">
-      <c r="G111">
+      <c r="G111" s="7">
         <v>4</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="7">
         <v>0.1</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="8">
         <v>0</v>
       </c>
-      <c r="J111">
+      <c r="J111" s="9">
         <v>0.1</v>
       </c>
-      <c r="K111">
+      <c r="K111" s="8">
         <v>0.100007</v>
       </c>
-      <c r="L111">
+      <c r="L111" s="8">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="M111">
+      <c r="M111" s="9">
         <v>0.100007</v>
       </c>
     </row>
     <row r="112" spans="7:21">
-      <c r="G112">
+      <c r="G112" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="7">
         <v>0.1</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="8">
         <v>0</v>
       </c>
-      <c r="J112">
+      <c r="J112" s="9">
         <v>0.1</v>
       </c>
-      <c r="K112">
+      <c r="K112" s="8">
         <v>0.10000100000000001</v>
       </c>
-      <c r="L112">
+      <c r="L112" s="8">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="M112">
+      <c r="M112" s="9">
         <v>0.10000100000000001</v>
       </c>
     </row>
     <row r="113" spans="7:13">
-      <c r="G113">
+      <c r="G113" s="7">
         <v>4.2</v>
       </c>
-      <c r="H113">
+      <c r="H113" s="7">
         <v>0.1</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="8">
         <v>0</v>
       </c>
-      <c r="J113">
+      <c r="J113" s="9">
         <v>0.1</v>
       </c>
-      <c r="K113">
+      <c r="K113" s="8">
         <v>0.1</v>
       </c>
-      <c r="L113">
+      <c r="L113" s="8">
         <v>0</v>
       </c>
-      <c r="M113">
+      <c r="M113" s="9">
         <v>0.1</v>
       </c>
     </row>
     <row r="114" spans="7:13">
-      <c r="G114">
+      <c r="G114" s="7">
         <v>4.3</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="7">
         <v>0.1</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="8">
         <v>0</v>
       </c>
-      <c r="J114">
+      <c r="J114" s="9">
         <v>0.1</v>
       </c>
-      <c r="K114">
+      <c r="K114" s="8">
         <v>0.1</v>
       </c>
-      <c r="L114">
+      <c r="L114" s="8">
         <v>0</v>
       </c>
-      <c r="M114">
+      <c r="M114" s="9">
         <v>0.1</v>
       </c>
     </row>
     <row r="115" spans="7:13">
-      <c r="G115">
+      <c r="G115" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="7">
         <v>0.1</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="8">
         <v>0</v>
       </c>
-      <c r="J115">
+      <c r="J115" s="9">
         <v>0.1</v>
       </c>
-      <c r="K115">
+      <c r="K115" s="8">
         <v>0.1</v>
       </c>
-      <c r="L115">
+      <c r="L115" s="8">
         <v>0</v>
       </c>
-      <c r="M115">
+      <c r="M115" s="9">
         <v>0.1</v>
       </c>
     </row>
     <row r="116" spans="7:13">
-      <c r="G116">
+      <c r="G116" s="7">
         <v>4.5</v>
       </c>
-      <c r="H116">
+      <c r="H116" s="7">
         <v>0.1</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="8">
         <v>0</v>
       </c>
-      <c r="J116">
+      <c r="J116" s="9">
         <v>0.1</v>
       </c>
-      <c r="K116">
+      <c r="K116" s="8">
         <v>0.1</v>
       </c>
-      <c r="L116">
+      <c r="L116" s="8">
         <v>0</v>
       </c>
-      <c r="M116">
+      <c r="M116" s="9">
         <v>0.1</v>
       </c>
     </row>
     <row r="117" spans="7:13">
-      <c r="G117">
+      <c r="G117" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H117">
+      <c r="H117" s="7">
         <v>0.1</v>
       </c>
-      <c r="I117">
+      <c r="I117" s="8">
         <v>0</v>
       </c>
-      <c r="J117">
+      <c r="J117" s="9">
         <v>0.1</v>
       </c>
-      <c r="K117">
+      <c r="K117" s="8">
         <v>0.1</v>
       </c>
-      <c r="L117">
+      <c r="L117" s="8">
         <v>0</v>
       </c>
-      <c r="M117">
+      <c r="M117" s="9">
         <v>0.1</v>
       </c>
     </row>
     <row r="118" spans="7:13">
-      <c r="G118">
+      <c r="G118" s="7">
         <v>4.7</v>
       </c>
-      <c r="H118">
+      <c r="H118" s="7">
         <v>0.1</v>
       </c>
-      <c r="I118">
+      <c r="I118" s="8">
         <v>0</v>
       </c>
-      <c r="J118">
+      <c r="J118" s="9">
         <v>0.1</v>
       </c>
-      <c r="K118">
+      <c r="K118" s="8">
         <v>0.1</v>
       </c>
-      <c r="L118">
+      <c r="L118" s="8">
         <v>0</v>
       </c>
-      <c r="M118">
+      <c r="M118" s="9">
         <v>0.1</v>
       </c>
     </row>
     <row r="119" spans="7:13">
-      <c r="G119">
+      <c r="G119" s="7">
         <v>4.8</v>
       </c>
-      <c r="H119">
+      <c r="H119" s="7">
         <v>0.1</v>
       </c>
-      <c r="I119">
+      <c r="I119" s="8">
         <v>0</v>
       </c>
-      <c r="J119">
+      <c r="J119" s="9">
         <v>0.1</v>
       </c>
-      <c r="K119">
+      <c r="K119" s="8">
         <v>0.1</v>
       </c>
-      <c r="L119">
+      <c r="L119" s="8">
         <v>0</v>
       </c>
-      <c r="M119">
+      <c r="M119" s="9">
         <v>0.1</v>
       </c>
     </row>
     <row r="120" spans="7:13">
-      <c r="G120">
+      <c r="G120" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H120">
+      <c r="H120" s="7">
         <v>0.1</v>
       </c>
-      <c r="I120">
+      <c r="I120" s="8">
         <v>0</v>
       </c>
-      <c r="J120">
+      <c r="J120" s="9">
         <v>0.1</v>
       </c>
-      <c r="K120">
+      <c r="K120" s="8">
         <v>0.1</v>
       </c>
-      <c r="L120">
+      <c r="L120" s="8">
         <v>0</v>
       </c>
-      <c r="M120">
+      <c r="M120" s="9">
         <v>0.1</v>
       </c>
     </row>
-    <row r="121" spans="7:13">
-      <c r="G121">
+    <row r="121" spans="7:13" ht="14.65" thickBot="1">
+      <c r="G121" s="10">
         <v>5</v>
       </c>
-      <c r="H121">
+      <c r="H121" s="10">
         <v>0.1</v>
       </c>
-      <c r="I121">
+      <c r="I121" s="11">
         <v>0</v>
       </c>
-      <c r="J121">
+      <c r="J121" s="12">
         <v>0.1</v>
       </c>
-      <c r="K121">
+      <c r="K121" s="11">
         <v>0.1</v>
       </c>
-      <c r="L121">
+      <c r="L121" s="11">
         <v>0</v>
       </c>
-      <c r="M121">
+      <c r="M121" s="12">
         <v>0.1</v>
       </c>
     </row>

--- a/shock_tube_comparison.xlsx
+++ b/shock_tube_comparison.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valni\Documents\GIT\compressible_flows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valni\Documents\GitHub\compressible_flows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12E8CFD-2A1D-4B8B-953F-140B42F1EF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="502" xr2:uid="{C6B05637-B1ED-495D-99F8-C631C78AA6C5}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20712" windowHeight="13272" tabRatio="502"/>
   </bookViews>
   <sheets>
     <sheet name="Shock Tube Problem" sheetId="1" r:id="rId1"/>
@@ -50,7 +49,7 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -227,7 +226,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -366,7 +365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -384,7 +383,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -421,6 +420,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -495,22 +495,22 @@
                   <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.7385190413798477</c:v>
+                  <c:v>-2.480718847431123</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.16264438837179895</c:v>
+                  <c:v>-0.14733328253928502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.14656221084004</c:v>
+                  <c:v>1.9444879707431983</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.14656221084004</c:v>
+                  <c:v>1.9444879707431983</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0553136632176141</c:v>
+                  <c:v>3.6735523414582296</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0553136632176141</c:v>
+                  <c:v>3.6735523414582296</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5</c:v>
@@ -1582,145 +1582,145 @@
                   <c:v>0.99999400000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.99997999999999998</c:v>
+                  <c:v>0.99997899999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.99993500000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.99981600000000004</c:v>
+                  <c:v>0.99981399999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99952399999999997</c:v>
+                  <c:v>0.99951900000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.99887700000000001</c:v>
+                  <c:v>0.99886600000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.99757099999999999</c:v>
+                  <c:v>0.99755099999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.99516499999999997</c:v>
+                  <c:v>0.99513499999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.99111899999999997</c:v>
+                  <c:v>0.99107299999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.98485</c:v>
+                  <c:v>0.98478399999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97584700000000002</c:v>
+                  <c:v>0.97576600000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.96379800000000004</c:v>
+                  <c:v>0.96369000000000005</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.94856099999999999</c:v>
+                  <c:v>0.948461</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.93031200000000003</c:v>
+                  <c:v>0.93021299999999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.90936399999999995</c:v>
+                  <c:v>0.90925699999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.88611899999999999</c:v>
+                  <c:v>0.88601200000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.861043</c:v>
+                  <c:v>0.86094000000000004</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.83458399999999999</c:v>
+                  <c:v>0.83449600000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.80715400000000004</c:v>
+                  <c:v>0.80709500000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.77916099999999999</c:v>
+                  <c:v>0.77910100000000004</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.75086299999999995</c:v>
+                  <c:v>0.75082199999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.722549</c:v>
+                  <c:v>0.72251100000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.69435999999999998</c:v>
+                  <c:v>0.69437400000000005</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.66659199999999996</c:v>
+                  <c:v>0.66657500000000003</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.63923600000000003</c:v>
+                  <c:v>0.63924400000000003</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.61246500000000004</c:v>
+                  <c:v>0.61248199999999997</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.58635400000000004</c:v>
+                  <c:v>0.58636900000000003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.56093899999999997</c:v>
+                  <c:v>0.56096500000000005</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.53627899999999995</c:v>
+                  <c:v>0.53631700000000004</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.51241099999999995</c:v>
+                  <c:v>0.51245700000000005</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.48935200000000001</c:v>
+                  <c:v>0.48941200000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.46713500000000002</c:v>
+                  <c:v>0.46720099999999998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.44578899999999999</c:v>
+                  <c:v>0.44583899999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.42527999999999999</c:v>
+                  <c:v>0.42533799999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.40567700000000001</c:v>
+                  <c:v>0.40571600000000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.38693</c:v>
+                  <c:v>0.38699499999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.36913600000000002</c:v>
+                  <c:v>0.36921799999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.35240500000000002</c:v>
+                  <c:v>0.35246699999999997</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.33683000000000002</c:v>
+                  <c:v>0.33690599999999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.32278299999999999</c:v>
+                  <c:v>0.32288699999999998</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.31106400000000001</c:v>
+                  <c:v>0.31117600000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.30321700000000001</c:v>
+                  <c:v>0.30332500000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.30089300000000002</c:v>
+                  <c:v>0.30093900000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.30143999999999999</c:v>
+                  <c:v>0.30143399999999998</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.30197499999999999</c:v>
+                  <c:v>0.30197400000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.30234899999999998</c:v>
+                  <c:v>0.30234800000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.30263600000000002</c:v>
+                  <c:v>0.30263499999999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.30285899999999999</c:v>
+                  <c:v>0.30285800000000002</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>0.30303000000000002</c:v>
@@ -1732,88 +1732,88 @@
                   <c:v>0.30325600000000003</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.30332399999999998</c:v>
+                  <c:v>0.30332300000000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.30336999999999997</c:v>
+                  <c:v>0.30336800000000003</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.303398</c:v>
+                  <c:v>0.30339500000000003</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.30341000000000001</c:v>
+                  <c:v>0.30340699999999998</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.30341099999999999</c:v>
+                  <c:v>0.30340699999999998</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.30340400000000001</c:v>
+                  <c:v>0.30339899999999997</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.30338900000000002</c:v>
+                  <c:v>0.30338399999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.303367</c:v>
+                  <c:v>0.30336299999999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.30334100000000003</c:v>
+                  <c:v>0.30333700000000002</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.303309</c:v>
+                  <c:v>0.30330499999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.30326999999999998</c:v>
+                  <c:v>0.30326599999999998</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.30322199999999999</c:v>
+                  <c:v>0.30321799999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.30316199999999999</c:v>
+                  <c:v>0.30315799999999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.30308499999999999</c:v>
+                  <c:v>0.30308099999999999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.30298700000000001</c:v>
+                  <c:v>0.302983</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.30286099999999999</c:v>
+                  <c:v>0.30285499999999999</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.30269499999999999</c:v>
+                  <c:v>0.30268899999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.302477</c:v>
+                  <c:v>0.30246899999999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.30218800000000001</c:v>
+                  <c:v>0.30217699999999997</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.301792</c:v>
+                  <c:v>0.30177799999999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.30119099999999999</c:v>
+                  <c:v>0.301172</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.29984499999999997</c:v>
+                  <c:v>0.299794</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.29345199999999999</c:v>
+                  <c:v>0.29335800000000001</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.25669799999999998</c:v>
+                  <c:v>0.25681700000000002</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.16596</c:v>
+                  <c:v>0.16627400000000001</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.110453</c:v>
+                  <c:v>0.110581</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.10095</c:v>
+                  <c:v>0.100966</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.10008</c:v>
+                  <c:v>0.100081</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>0.100007</c:v>
@@ -1902,6 +1902,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2021,6 +2022,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2099,6 +2101,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2167,7 +2170,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2204,6 +2207,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2276,22 +2280,22 @@
                   <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.7385190413798477</c:v>
+                  <c:v>-2.480718847431123</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.16264438837179895</c:v>
+                  <c:v>-0.14733328253928502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.14656221084004</c:v>
+                  <c:v>1.9444879707431983</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.14656221084004</c:v>
+                  <c:v>1.9444879707431983</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0553136632176141</c:v>
+                  <c:v>3.6735523414582296</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0553136632176141</c:v>
+                  <c:v>3.6735523414582296</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5</c:v>
@@ -2385,6 +2389,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2502,6 +2507,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2576,6 +2582,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2583,7 +2590,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2621,7 +2627,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2658,6 +2664,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2732,22 +2739,22 @@
                   <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.7385190413798477</c:v>
+                  <c:v>-2.480718847431123</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.16264438837179895</c:v>
+                  <c:v>-0.14733328253928502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.14656221084004</c:v>
+                  <c:v>1.9444879707431983</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.14656221084004</c:v>
+                  <c:v>1.9444879707431983</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0553136632176141</c:v>
+                  <c:v>3.6735523414582296</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0553136632176141</c:v>
+                  <c:v>3.6735523414582296</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5</c:v>
@@ -3822,238 +3829,238 @@
                   <c:v>1.5E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.6E-5</c:v>
+                  <c:v>4.6999999999999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3100000000000001E-4</c:v>
+                  <c:v>1.3300000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.4000000000000002E-4</c:v>
+                  <c:v>3.4299999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.03E-4</c:v>
+                  <c:v>8.0999999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.737E-3</c:v>
+                  <c:v>1.751E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.4619999999999998E-3</c:v>
+                  <c:v>3.483E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.3730000000000002E-3</c:v>
+                  <c:v>6.4060000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0907999999999999E-2</c:v>
+                  <c:v>1.0956E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.7478E-2</c:v>
+                  <c:v>1.7537000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.6377999999999999E-2</c:v>
+                  <c:v>2.6459E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.7815000000000001E-2</c:v>
+                  <c:v>3.7891000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.1791999999999998E-2</c:v>
+                  <c:v>5.1867999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.8225999999999995E-2</c:v>
+                  <c:v>6.8310999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.6974999999999997E-2</c:v>
+                  <c:v>8.7063000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.10784100000000001</c:v>
+                  <c:v>0.107928</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.13062299999999999</c:v>
+                  <c:v>0.13070100000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.15512899999999999</c:v>
+                  <c:v>0.15518299999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.18113699999999999</c:v>
+                  <c:v>0.18119299999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.208533</c:v>
+                  <c:v>0.20857300000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.237148</c:v>
+                  <c:v>0.23718700000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.26693600000000001</c:v>
+                  <c:v>0.26691999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.29765799999999998</c:v>
+                  <c:v>0.29767700000000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.32938499999999998</c:v>
+                  <c:v>0.329374</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.36196699999999998</c:v>
+                  <c:v>0.36194300000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.395347</c:v>
+                  <c:v>0.39532499999999998</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.429506</c:v>
+                  <c:v>0.42946699999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.46438000000000001</c:v>
+                  <c:v>0.46432200000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.499921</c:v>
+                  <c:v>0.49984600000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.53609399999999996</c:v>
+                  <c:v>0.53599300000000005</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.57283499999999998</c:v>
+                  <c:v>0.57271799999999995</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.61006400000000005</c:v>
+                  <c:v>0.60996899999999998</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.64779900000000001</c:v>
+                  <c:v>0.64768300000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.685863</c:v>
+                  <c:v>0.68577699999999997</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.72427900000000001</c:v>
+                  <c:v>0.72413400000000006</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.762764</c:v>
+                  <c:v>0.76257200000000003</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.80093199999999998</c:v>
+                  <c:v>0.80077699999999996</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.83837200000000001</c:v>
+                  <c:v>0.83817200000000003</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.87387099999999995</c:v>
+                  <c:v>0.87358999999999998</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.90485499999999996</c:v>
+                  <c:v>0.90453799999999995</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.926319</c:v>
+                  <c:v>0.92600400000000005</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.93270399999999998</c:v>
+                  <c:v>0.932562</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.931033</c:v>
+                  <c:v>0.93103599999999997</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.92940999999999996</c:v>
+                  <c:v>0.92940199999999995</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.92830500000000005</c:v>
+                  <c:v>0.92830199999999996</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.92760600000000004</c:v>
+                  <c:v>0.92760799999999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.92737400000000003</c:v>
+                  <c:v>0.92738299999999996</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.92765500000000001</c:v>
+                  <c:v>0.92766300000000002</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>0.92825800000000003</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.92854199999999998</c:v>
+                  <c:v>0.92851700000000004</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.92724300000000004</c:v>
+                  <c:v>0.92718900000000004</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.92260399999999998</c:v>
+                  <c:v>0.92252199999999995</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.91279600000000005</c:v>
+                  <c:v>0.91269999999999996</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.89658000000000004</c:v>
+                  <c:v>0.89649100000000004</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.87394000000000005</c:v>
+                  <c:v>0.87388100000000002</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.84641100000000002</c:v>
+                  <c:v>0.84639600000000004</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.81687799999999999</c:v>
+                  <c:v>0.81690700000000005</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.788856</c:v>
+                  <c:v>0.78891699999999998</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.76545300000000005</c:v>
+                  <c:v>0.76552699999999996</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.74845300000000003</c:v>
+                  <c:v>0.74852200000000002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.73796799999999996</c:v>
+                  <c:v>0.73802000000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.73277400000000004</c:v>
+                  <c:v>0.73280199999999995</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.73106199999999999</c:v>
+                  <c:v>0.73106499999999996</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.73113600000000001</c:v>
+                  <c:v>0.73112200000000005</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.73180000000000001</c:v>
+                  <c:v>0.73177599999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.73239699999999996</c:v>
+                  <c:v>0.73236800000000002</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.73266500000000001</c:v>
+                  <c:v>0.73263299999999998</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.73255800000000004</c:v>
+                  <c:v>0.73252600000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.732097</c:v>
+                  <c:v>0.73207</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.73130499999999998</c:v>
+                  <c:v>0.73127299999999995</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.73004000000000002</c:v>
+                  <c:v>0.72999599999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.72723899999999997</c:v>
+                  <c:v>0.72713700000000003</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.71383399999999997</c:v>
+                  <c:v>0.71364700000000003</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.63576999999999995</c:v>
+                  <c:v>0.63600299999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.37037799999999999</c:v>
+                  <c:v>0.371591</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>7.3286000000000004E-2</c:v>
+                  <c:v>7.4145000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>6.7840000000000001E-3</c:v>
+                  <c:v>6.894E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5.6899999999999995E-4</c:v>
+                  <c:v>5.8E-4</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4.8000000000000001E-5</c:v>
+                  <c:v>5.0000000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>3.9999999999999998E-6</c:v>
@@ -4139,6 +4146,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4258,6 +4266,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4336,6 +4345,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.74865769384942238"/>
+          <c:y val="0.18095122625913027"/>
+          <c:w val="0.20412584656712343"/>
+          <c:h val="0.17294267550458839"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4404,7 +4423,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4441,6 +4460,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4515,22 +4535,22 @@
                   <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.7385190413798477</c:v>
+                  <c:v>-2.480718847431123</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.16264438837179895</c:v>
+                  <c:v>-0.14733328253928502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.14656221084004</c:v>
+                  <c:v>1.9444879707431983</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.14656221084004</c:v>
+                  <c:v>1.9444879707431983</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0553136632176141</c:v>
+                  <c:v>3.6735523414582296</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0553136632176141</c:v>
+                  <c:v>3.6735523414582296</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5</c:v>
@@ -5602,238 +5622,238 @@
                   <c:v>0.99999400000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.99997999999999998</c:v>
+                  <c:v>0.99997899999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.99993500000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.99981600000000004</c:v>
+                  <c:v>0.99981399999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99952399999999997</c:v>
+                  <c:v>0.99951900000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.99887700000000001</c:v>
+                  <c:v>0.99886699999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.99757300000000004</c:v>
+                  <c:v>0.99755300000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.99517299999999997</c:v>
+                  <c:v>0.99514400000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.991147</c:v>
+                  <c:v>0.99110100000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.98493200000000003</c:v>
+                  <c:v>0.98486700000000005</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97605500000000001</c:v>
+                  <c:v>0.97597599999999995</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.96426699999999999</c:v>
+                  <c:v>0.96416199999999996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.94951099999999999</c:v>
+                  <c:v>0.94941500000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.93206</c:v>
+                  <c:v>0.93196599999999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.91232999999999997</c:v>
+                  <c:v>0.91222999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.89081999999999995</c:v>
+                  <c:v>0.89072200000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.86807299999999998</c:v>
+                  <c:v>0.867981</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.84459499999999998</c:v>
+                  <c:v>0.84451699999999996</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.82083300000000003</c:v>
+                  <c:v>0.82078200000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.79720299999999999</c:v>
+                  <c:v>0.79715400000000003</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.77396900000000002</c:v>
+                  <c:v>0.77393599999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.75139599999999995</c:v>
+                  <c:v>0.75136599999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.72961500000000001</c:v>
+                  <c:v>0.72962499999999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.70885799999999999</c:v>
+                  <c:v>0.70884499999999995</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.689114</c:v>
+                  <c:v>0.68911900000000004</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.67049999999999998</c:v>
+                  <c:v>0.670512</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.65305199999999997</c:v>
+                  <c:v>0.65306200000000003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.63677700000000004</c:v>
+                  <c:v>0.63679300000000005</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.62169200000000002</c:v>
+                  <c:v>0.62171299999999996</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.607796</c:v>
+                  <c:v>0.60782000000000003</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.59507699999999997</c:v>
+                  <c:v>0.59510700000000005</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.58352899999999996</c:v>
+                  <c:v>0.58355999999999997</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.57313999999999998</c:v>
+                  <c:v>0.57316100000000003</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.56386899999999995</c:v>
+                  <c:v>0.56389100000000003</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.55571800000000005</c:v>
+                  <c:v>0.55572999999999995</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.54863700000000004</c:v>
+                  <c:v>0.54865600000000003</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.54262900000000003</c:v>
+                  <c:v>0.54265099999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.53768199999999999</c:v>
+                  <c:v>0.53769400000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.53375499999999998</c:v>
+                  <c:v>0.53376699999999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.53083199999999997</c:v>
+                  <c:v>0.53084500000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.52888599999999997</c:v>
+                  <c:v>0.52889399999999998</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.52783500000000005</c:v>
+                  <c:v>0.52783999999999998</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.52751499999999996</c:v>
+                  <c:v>0.52751199999999998</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.52749199999999996</c:v>
+                  <c:v>0.52748399999999995</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.52747699999999997</c:v>
+                  <c:v>0.52747100000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.52748399999999995</c:v>
+                  <c:v>0.52747999999999995</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>0.52757500000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.52782899999999999</c:v>
+                  <c:v>0.527833</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.52829099999999996</c:v>
+                  <c:v>0.52829599999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.52887200000000001</c:v>
+                  <c:v>0.52887099999999998</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.52920400000000001</c:v>
+                  <c:v>0.52919000000000005</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.52856300000000001</c:v>
+                  <c:v>0.52852900000000003</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.52593900000000005</c:v>
+                  <c:v>0.52588699999999999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.52034400000000003</c:v>
+                  <c:v>0.52028399999999997</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.51126099999999997</c:v>
+                  <c:v>0.51120699999999997</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.49901099999999998</c:v>
+                  <c:v>0.49897399999999997</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.48479499999999998</c:v>
+                  <c:v>0.48477999999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.47034700000000002</c:v>
+                  <c:v>0.47035399999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.457374</c:v>
+                  <c:v>0.457395</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.44706099999999999</c:v>
+                  <c:v>0.44708700000000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.43984699999999999</c:v>
+                  <c:v>0.43986999999999998</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.43549199999999999</c:v>
+                  <c:v>0.43550699999999998</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.43332700000000002</c:v>
+                  <c:v>0.43333199999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.43255399999999999</c:v>
+                  <c:v>0.43254999999999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.43247400000000003</c:v>
+                  <c:v>0.43246299999999999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.43260100000000001</c:v>
+                  <c:v>0.43258400000000002</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.43265900000000002</c:v>
+                  <c:v>0.432639</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.43253000000000003</c:v>
+                  <c:v>0.432508</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.43217499999999998</c:v>
+                  <c:v>0.43215100000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.43157800000000002</c:v>
+                  <c:v>0.43155199999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.43069600000000002</c:v>
+                  <c:v>0.43066399999999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.42933700000000002</c:v>
+                  <c:v>0.42929200000000001</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.42631599999999997</c:v>
+                  <c:v>0.426203</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.41214499999999998</c:v>
+                  <c:v>0.41194399999999998</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.33696799999999999</c:v>
+                  <c:v>0.33718900000000002</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.18245</c:v>
+                  <c:v>0.18290799999999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.110869</c:v>
+                  <c:v>0.11100699999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.100954</c:v>
+                  <c:v>0.100969</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.10008</c:v>
+                  <c:v>0.100081</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>0.100007</c:v>
@@ -5922,6 +5942,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6041,6 +6062,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6119,6 +6141,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8631,20 +8654,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE2817A-B475-4B14-B76D-F6E92F32DA92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V121"/>
+  <dimension ref="A1:Z121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB29" sqref="AB29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="21" max="21" width="9.53125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="9.06640625" style="3"/>
+    <col min="21" max="21" width="9.5546875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="9.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -8737,10 +8760,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>7.319E-3</v>
+        <v>6.6299999999999996E-3</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
+      </c>
+      <c r="D8">
+        <v>7.319E-3</v>
       </c>
       <c r="U8" s="2"/>
     </row>
@@ -8984,7 +9010,7 @@
       </c>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21" ht="14.65" thickBot="1">
+    <row r="18" spans="1:21" ht="15" thickBot="1">
       <c r="G18" t="s">
         <v>37</v>
       </c>
@@ -9091,13 +9117,13 @@
       <c r="J21" s="9">
         <v>1</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21">
         <v>1</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21">
         <v>1</v>
       </c>
       <c r="U21" s="2"/>
@@ -9108,7 +9134,7 @@
       </c>
       <c r="B22" s="8">
         <f>B6-K15*B8-5</f>
-        <v>-2.7385190413798477</v>
+        <v>-2.480718847431123</v>
       </c>
       <c r="C22" s="8">
         <f>K13/100000</f>
@@ -9138,13 +9164,13 @@
       <c r="J22" s="9">
         <v>1</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22">
         <v>1</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22">
         <v>1</v>
       </c>
       <c r="U22" s="2"/>
@@ -9155,7 +9181,7 @@
       </c>
       <c r="B23" s="8">
         <f>B6+(H16-H15)*B8-5</f>
-        <v>-0.16264438837179895</v>
+        <v>-0.14733328253928502</v>
       </c>
       <c r="C23" s="8">
         <f>H13/100000</f>
@@ -9185,13 +9211,13 @@
       <c r="J23" s="9">
         <v>1</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23">
         <v>1</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23">
         <v>1</v>
       </c>
       <c r="U23" s="2"/>
@@ -9202,7 +9228,7 @@
       </c>
       <c r="B24" s="8">
         <f>B6+B8*H16-5</f>
-        <v>2.14656221084004</v>
+        <v>1.9444879707431983</v>
       </c>
       <c r="C24" s="8">
         <f>H13/100000</f>
@@ -9232,13 +9258,13 @@
       <c r="J24" s="9">
         <v>1</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24">
         <v>1</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24">
         <v>1</v>
       </c>
       <c r="U24" s="2"/>
@@ -9249,7 +9275,7 @@
       </c>
       <c r="B25" s="8">
         <f>B6+B8*H16-5</f>
-        <v>2.14656221084004</v>
+        <v>1.9444879707431983</v>
       </c>
       <c r="C25" s="8">
         <f>E13/100000</f>
@@ -9279,13 +9305,13 @@
       <c r="J25" s="9">
         <v>1</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25">
         <v>1</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25">
         <v>1</v>
       </c>
       <c r="U25" s="2"/>
@@ -9296,7 +9322,7 @@
       </c>
       <c r="B26" s="8">
         <f>B6+B8*B12-5</f>
-        <v>4.0553136632176141</v>
+        <v>3.6735523414582296</v>
       </c>
       <c r="C26" s="8">
         <f>E13/100000</f>
@@ -9326,13 +9352,13 @@
       <c r="J26" s="9">
         <v>1</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26">
         <v>1</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26">
         <v>1</v>
       </c>
       <c r="U26" s="2"/>
@@ -9343,7 +9369,7 @@
       </c>
       <c r="B27" s="8">
         <f>B6+B8*B12-5</f>
-        <v>4.0553136632176141</v>
+        <v>3.6735523414582296</v>
       </c>
       <c r="C27" s="8">
         <f>B13/100000</f>
@@ -9373,18 +9399,18 @@
       <c r="J27" s="9">
         <v>1</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27">
         <v>1</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M27">
         <v>1</v>
       </c>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" ht="14.65" thickBot="1">
+    <row r="28" spans="1:21" ht="15" thickBot="1">
       <c r="A28" s="10" t="s">
         <v>43</v>
       </c>
@@ -9420,13 +9446,13 @@
       <c r="J28" s="9">
         <v>1</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28">
         <v>1</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28">
         <v>1</v>
       </c>
       <c r="U28" s="2"/>
@@ -9444,13 +9470,13 @@
       <c r="J29" s="9">
         <v>1</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29">
         <v>1</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M29">
         <v>1</v>
       </c>
       <c r="U29" s="2"/>
@@ -9468,13 +9494,13 @@
       <c r="J30" s="9">
         <v>1</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30">
         <v>1</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30">
         <v>1</v>
       </c>
       <c r="U30" s="2"/>
@@ -9492,13 +9518,13 @@
       <c r="J31" s="9">
         <v>1</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31">
         <v>0.99999899999999997</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M31">
         <v>0.99999899999999997</v>
       </c>
       <c r="U31" s="2"/>
@@ -9516,18 +9542,18 @@
       <c r="J32" s="9">
         <v>1</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32">
         <v>0.99999400000000005</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32">
         <v>0.99999400000000005</v>
       </c>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="7:21">
+    <row r="33" spans="7:26">
       <c r="G33" s="7">
         <v>-3.8</v>
       </c>
@@ -9540,18 +9566,18 @@
       <c r="J33" s="9">
         <v>1</v>
       </c>
-      <c r="K33" s="8">
-        <v>0.99997999999999998</v>
-      </c>
-      <c r="L33" s="8">
+      <c r="K33">
+        <v>0.99997899999999995</v>
+      </c>
+      <c r="L33">
         <v>1.5E-5</v>
       </c>
-      <c r="M33" s="9">
-        <v>0.99997999999999998</v>
+      <c r="M33">
+        <v>0.99997899999999995</v>
       </c>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="7:21">
+    <row r="34" spans="7:26">
       <c r="G34" s="7">
         <v>-3.7</v>
       </c>
@@ -9564,18 +9590,18 @@
       <c r="J34" s="9">
         <v>1</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K34">
         <v>0.99993500000000002</v>
       </c>
-      <c r="L34" s="8">
-        <v>4.6E-5</v>
-      </c>
-      <c r="M34" s="9">
+      <c r="L34">
+        <v>4.6999999999999997E-5</v>
+      </c>
+      <c r="M34">
         <v>0.99993500000000002</v>
       </c>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="7:21">
+    <row r="35" spans="7:26">
       <c r="G35" s="7">
         <v>-3.6</v>
       </c>
@@ -9588,18 +9614,18 @@
       <c r="J35" s="9">
         <v>1</v>
       </c>
-      <c r="K35" s="8">
-        <v>0.99981600000000004</v>
-      </c>
-      <c r="L35" s="8">
-        <v>1.3100000000000001E-4</v>
-      </c>
-      <c r="M35" s="9">
-        <v>0.99981600000000004</v>
+      <c r="K35">
+        <v>0.99981399999999998</v>
+      </c>
+      <c r="L35">
+        <v>1.3300000000000001E-4</v>
+      </c>
+      <c r="M35">
+        <v>0.99981399999999998</v>
       </c>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="7:21">
+    <row r="36" spans="7:26">
       <c r="G36" s="7">
         <v>-3.5</v>
       </c>
@@ -9612,18 +9638,18 @@
       <c r="J36" s="9">
         <v>0.99999800000000005</v>
       </c>
-      <c r="K36" s="8">
-        <v>0.99952399999999997</v>
-      </c>
-      <c r="L36" s="8">
-        <v>3.4000000000000002E-4</v>
-      </c>
-      <c r="M36" s="9">
-        <v>0.99952399999999997</v>
+      <c r="K36">
+        <v>0.99951900000000005</v>
+      </c>
+      <c r="L36">
+        <v>3.4299999999999999E-4</v>
+      </c>
+      <c r="M36">
+        <v>0.99951900000000005</v>
       </c>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="7:21">
+    <row r="37" spans="7:26">
       <c r="G37" s="7">
         <v>-3.4</v>
       </c>
@@ -9636,18 +9662,18 @@
       <c r="J37" s="9">
         <v>0.99999199999999999</v>
       </c>
-      <c r="K37" s="8">
-        <v>0.99887700000000001</v>
-      </c>
-      <c r="L37" s="8">
-        <v>8.03E-4</v>
-      </c>
-      <c r="M37" s="9">
-        <v>0.99887700000000001</v>
+      <c r="K37">
+        <v>0.99886600000000003</v>
+      </c>
+      <c r="L37">
+        <v>8.0999999999999996E-4</v>
+      </c>
+      <c r="M37">
+        <v>0.99886699999999995</v>
       </c>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="7:21">
+    <row r="38" spans="7:26">
       <c r="G38" s="7">
         <v>-3.3</v>
       </c>
@@ -9660,18 +9686,18 @@
       <c r="J38" s="9">
         <v>0.999969</v>
       </c>
-      <c r="K38" s="8">
-        <v>0.99757099999999999</v>
-      </c>
-      <c r="L38" s="8">
-        <v>1.737E-3</v>
-      </c>
-      <c r="M38" s="9">
-        <v>0.99757300000000004</v>
+      <c r="K38">
+        <v>0.99755099999999997</v>
+      </c>
+      <c r="L38">
+        <v>1.751E-3</v>
+      </c>
+      <c r="M38">
+        <v>0.99755300000000002</v>
       </c>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="7:21">
+    <row r="39" spans="7:26">
       <c r="G39" s="7">
         <v>-3.2</v>
       </c>
@@ -9684,18 +9710,18 @@
       <c r="J39" s="9">
         <v>0.999892</v>
       </c>
-      <c r="K39" s="8">
-        <v>0.99516499999999997</v>
-      </c>
-      <c r="L39" s="8">
-        <v>3.4619999999999998E-3</v>
-      </c>
-      <c r="M39" s="9">
-        <v>0.99517299999999997</v>
+      <c r="K39">
+        <v>0.99513499999999999</v>
+      </c>
+      <c r="L39">
+        <v>3.483E-3</v>
+      </c>
+      <c r="M39">
+        <v>0.99514400000000003</v>
       </c>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="7:21">
+    <row r="40" spans="7:26">
       <c r="G40" s="7">
         <v>-3.1</v>
       </c>
@@ -9708,18 +9734,21 @@
       <c r="J40" s="9">
         <v>0.99965999999999999</v>
       </c>
-      <c r="K40" s="8">
-        <v>0.99111899999999997</v>
-      </c>
-      <c r="L40" s="8">
-        <v>6.3730000000000002E-3</v>
-      </c>
-      <c r="M40" s="9">
-        <v>0.991147</v>
+      <c r="K40">
+        <v>0.99107299999999998</v>
+      </c>
+      <c r="L40">
+        <v>6.4060000000000002E-3</v>
+      </c>
+      <c r="M40">
+        <v>0.99110100000000001</v>
       </c>
       <c r="U40" s="2"/>
-    </row>
-    <row r="41" spans="7:21">
+      <c r="Z40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="7:26">
       <c r="G41" s="7">
         <v>-3</v>
       </c>
@@ -9732,18 +9761,18 @@
       <c r="J41" s="9">
         <v>0.999031</v>
       </c>
-      <c r="K41" s="8">
-        <v>0.98485</v>
-      </c>
-      <c r="L41" s="8">
-        <v>1.0907999999999999E-2</v>
-      </c>
-      <c r="M41" s="9">
-        <v>0.98493200000000003</v>
+      <c r="K41">
+        <v>0.98478399999999999</v>
+      </c>
+      <c r="L41">
+        <v>1.0956E-2</v>
+      </c>
+      <c r="M41">
+        <v>0.98486700000000005</v>
       </c>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="7:21">
+    <row r="42" spans="7:26">
       <c r="G42" s="7">
         <v>-2.9</v>
       </c>
@@ -9756,18 +9785,18 @@
       <c r="J42" s="9">
         <v>0.99751599999999996</v>
       </c>
-      <c r="K42" s="8">
-        <v>0.97584700000000002</v>
-      </c>
-      <c r="L42" s="8">
-        <v>1.7478E-2</v>
-      </c>
-      <c r="M42" s="9">
-        <v>0.97605500000000001</v>
+      <c r="K42">
+        <v>0.97576600000000002</v>
+      </c>
+      <c r="L42">
+        <v>1.7537000000000001E-2</v>
+      </c>
+      <c r="M42">
+        <v>0.97597599999999995</v>
       </c>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="7:21">
+    <row r="43" spans="7:26">
       <c r="G43" s="7">
         <v>-2.8</v>
       </c>
@@ -9780,18 +9809,18 @@
       <c r="J43" s="9">
         <v>0.99426400000000004</v>
       </c>
-      <c r="K43" s="8">
-        <v>0.96379800000000004</v>
-      </c>
-      <c r="L43" s="8">
-        <v>2.6377999999999999E-2</v>
-      </c>
-      <c r="M43" s="9">
-        <v>0.96426699999999999</v>
+      <c r="K43">
+        <v>0.96369000000000005</v>
+      </c>
+      <c r="L43">
+        <v>2.6459E-2</v>
+      </c>
+      <c r="M43">
+        <v>0.96416199999999996</v>
       </c>
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="7:21">
+    <row r="44" spans="7:26">
       <c r="G44" s="7">
         <v>-2.7</v>
       </c>
@@ -9804,18 +9833,18 @@
       <c r="J44" s="9">
         <v>0.98807500000000004</v>
       </c>
-      <c r="K44" s="8">
-        <v>0.94856099999999999</v>
-      </c>
-      <c r="L44" s="8">
-        <v>3.7815000000000001E-2</v>
-      </c>
-      <c r="M44" s="9">
-        <v>0.94951099999999999</v>
+      <c r="K44">
+        <v>0.948461</v>
+      </c>
+      <c r="L44">
+        <v>3.7891000000000001E-2</v>
+      </c>
+      <c r="M44">
+        <v>0.94941500000000001</v>
       </c>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="7:21">
+    <row r="45" spans="7:26">
       <c r="G45" s="7">
         <v>-2.6</v>
       </c>
@@ -9828,18 +9857,18 @@
       <c r="J45" s="9">
         <v>0.97762899999999997</v>
       </c>
-      <c r="K45" s="8">
-        <v>0.93031200000000003</v>
-      </c>
-      <c r="L45" s="8">
-        <v>5.1791999999999998E-2</v>
-      </c>
-      <c r="M45" s="9">
-        <v>0.93206</v>
+      <c r="K45">
+        <v>0.93021299999999996</v>
+      </c>
+      <c r="L45">
+        <v>5.1867999999999997E-2</v>
+      </c>
+      <c r="M45">
+        <v>0.93196599999999996</v>
       </c>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="7:21">
+    <row r="46" spans="7:26">
       <c r="G46" s="7">
         <v>-2.5</v>
       </c>
@@ -9852,18 +9881,18 @@
       <c r="J46" s="9">
         <v>0.96194199999999996</v>
       </c>
-      <c r="K46" s="8">
-        <v>0.90936399999999995</v>
-      </c>
-      <c r="L46" s="8">
-        <v>6.8225999999999995E-2</v>
-      </c>
-      <c r="M46" s="9">
-        <v>0.91232999999999997</v>
+      <c r="K46">
+        <v>0.90925699999999998</v>
+      </c>
+      <c r="L46">
+        <v>6.8310999999999997E-2</v>
+      </c>
+      <c r="M46">
+        <v>0.91222999999999999</v>
       </c>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="7:21">
+    <row r="47" spans="7:26">
       <c r="G47" s="7">
         <v>-2.4</v>
       </c>
@@ -9876,18 +9905,18 @@
       <c r="J47" s="9">
         <v>0.940805</v>
       </c>
-      <c r="K47" s="8">
-        <v>0.88611899999999999</v>
-      </c>
-      <c r="L47" s="8">
-        <v>8.6974999999999997E-2</v>
-      </c>
-      <c r="M47" s="9">
-        <v>0.89081999999999995</v>
+      <c r="K47">
+        <v>0.88601200000000002</v>
+      </c>
+      <c r="L47">
+        <v>8.7063000000000001E-2</v>
+      </c>
+      <c r="M47">
+        <v>0.89072200000000001</v>
       </c>
       <c r="U47" s="2"/>
     </row>
-    <row r="48" spans="7:21">
+    <row r="48" spans="7:26">
       <c r="G48" s="7">
         <v>-2.2999999999999998</v>
       </c>
@@ -9900,14 +9929,14 @@
       <c r="J48" s="9">
         <v>0.91493500000000005</v>
       </c>
-      <c r="K48" s="8">
-        <v>0.861043</v>
-      </c>
-      <c r="L48" s="8">
-        <v>0.10784100000000001</v>
-      </c>
-      <c r="M48" s="9">
-        <v>0.86807299999999998</v>
+      <c r="K48">
+        <v>0.86094000000000004</v>
+      </c>
+      <c r="L48">
+        <v>0.107928</v>
+      </c>
+      <c r="M48">
+        <v>0.867981</v>
       </c>
       <c r="U48" s="2"/>
     </row>
@@ -9924,14 +9953,14 @@
       <c r="J49" s="9">
         <v>0.88570899999999997</v>
       </c>
-      <c r="K49" s="8">
-        <v>0.83458399999999999</v>
-      </c>
-      <c r="L49" s="8">
-        <v>0.13062299999999999</v>
-      </c>
-      <c r="M49" s="9">
-        <v>0.84459499999999998</v>
+      <c r="K49">
+        <v>0.83449600000000002</v>
+      </c>
+      <c r="L49">
+        <v>0.13070100000000001</v>
+      </c>
+      <c r="M49">
+        <v>0.84451699999999996</v>
       </c>
       <c r="U49" s="2"/>
     </row>
@@ -9948,14 +9977,14 @@
       <c r="J50" s="9">
         <v>0.85471699999999995</v>
       </c>
-      <c r="K50" s="8">
-        <v>0.80715400000000004</v>
-      </c>
-      <c r="L50" s="8">
-        <v>0.15512899999999999</v>
-      </c>
-      <c r="M50" s="9">
-        <v>0.82083300000000003</v>
+      <c r="K50">
+        <v>0.80709500000000001</v>
+      </c>
+      <c r="L50">
+        <v>0.15518299999999999</v>
+      </c>
+      <c r="M50">
+        <v>0.82078200000000001</v>
       </c>
       <c r="U50" s="2"/>
     </row>
@@ -9972,14 +10001,14 @@
       <c r="J51" s="9">
         <v>0.82335899999999995</v>
       </c>
-      <c r="K51" s="8">
-        <v>0.77916099999999999</v>
-      </c>
-      <c r="L51" s="8">
-        <v>0.18113699999999999</v>
-      </c>
-      <c r="M51" s="9">
-        <v>0.79720299999999999</v>
+      <c r="K51">
+        <v>0.77910100000000004</v>
+      </c>
+      <c r="L51">
+        <v>0.18119299999999999</v>
+      </c>
+      <c r="M51">
+        <v>0.79715400000000003</v>
       </c>
       <c r="U51" s="2"/>
     </row>
@@ -9996,14 +10025,14 @@
       <c r="J52" s="9">
         <v>0.79266700000000001</v>
       </c>
-      <c r="K52" s="8">
-        <v>0.75086299999999995</v>
-      </c>
-      <c r="L52" s="8">
-        <v>0.208533</v>
-      </c>
-      <c r="M52" s="9">
-        <v>0.77396900000000002</v>
+      <c r="K52">
+        <v>0.75082199999999999</v>
+      </c>
+      <c r="L52">
+        <v>0.20857300000000001</v>
+      </c>
+      <c r="M52">
+        <v>0.77393599999999996</v>
       </c>
       <c r="U52" s="2"/>
     </row>
@@ -10020,14 +10049,14 @@
       <c r="J53" s="9">
         <v>0.76329800000000003</v>
       </c>
-      <c r="K53" s="8">
-        <v>0.722549</v>
-      </c>
-      <c r="L53" s="8">
-        <v>0.237148</v>
-      </c>
-      <c r="M53" s="9">
-        <v>0.75139599999999995</v>
+      <c r="K53">
+        <v>0.72251100000000001</v>
+      </c>
+      <c r="L53">
+        <v>0.23718700000000001</v>
+      </c>
+      <c r="M53">
+        <v>0.75136599999999998</v>
       </c>
       <c r="U53" s="2"/>
     </row>
@@ -10044,14 +10073,14 @@
       <c r="J54" s="9">
         <v>0.73561600000000005</v>
       </c>
-      <c r="K54" s="8">
-        <v>0.69435999999999998</v>
-      </c>
-      <c r="L54" s="8">
-        <v>0.26693600000000001</v>
-      </c>
-      <c r="M54" s="9">
-        <v>0.72961500000000001</v>
+      <c r="K54">
+        <v>0.69437400000000005</v>
+      </c>
+      <c r="L54">
+        <v>0.26691999999999999</v>
+      </c>
+      <c r="M54">
+        <v>0.72962499999999997</v>
       </c>
       <c r="U54" s="2"/>
     </row>
@@ -10068,14 +10097,14 @@
       <c r="J55" s="9">
         <v>0.70979400000000004</v>
       </c>
-      <c r="K55" s="8">
-        <v>0.66659199999999996</v>
-      </c>
-      <c r="L55" s="8">
-        <v>0.29765799999999998</v>
-      </c>
-      <c r="M55" s="9">
-        <v>0.70885799999999999</v>
+      <c r="K55">
+        <v>0.66657500000000003</v>
+      </c>
+      <c r="L55">
+        <v>0.29767700000000002</v>
+      </c>
+      <c r="M55">
+        <v>0.70884499999999995</v>
       </c>
       <c r="U55" s="2"/>
     </row>
@@ -10092,14 +10121,14 @@
       <c r="J56" s="9">
         <v>0.68588800000000005</v>
       </c>
-      <c r="K56" s="8">
-        <v>0.63923600000000003</v>
-      </c>
-      <c r="L56" s="8">
-        <v>0.32938499999999998</v>
-      </c>
-      <c r="M56" s="9">
-        <v>0.689114</v>
+      <c r="K56">
+        <v>0.63924400000000003</v>
+      </c>
+      <c r="L56">
+        <v>0.329374</v>
+      </c>
+      <c r="M56">
+        <v>0.68911900000000004</v>
       </c>
       <c r="U56" s="2"/>
     </row>
@@ -10116,14 +10145,14 @@
       <c r="J57" s="9">
         <v>0.66389600000000004</v>
       </c>
-      <c r="K57" s="8">
-        <v>0.61246500000000004</v>
-      </c>
-      <c r="L57" s="8">
-        <v>0.36196699999999998</v>
-      </c>
-      <c r="M57" s="9">
-        <v>0.67049999999999998</v>
+      <c r="K57">
+        <v>0.61248199999999997</v>
+      </c>
+      <c r="L57">
+        <v>0.36194300000000001</v>
+      </c>
+      <c r="M57">
+        <v>0.670512</v>
       </c>
       <c r="U57" s="2"/>
     </row>
@@ -10140,14 +10169,14 @@
       <c r="J58" s="9">
         <v>0.64378800000000003</v>
       </c>
-      <c r="K58" s="8">
-        <v>0.58635400000000004</v>
-      </c>
-      <c r="L58" s="8">
-        <v>0.395347</v>
-      </c>
-      <c r="M58" s="9">
-        <v>0.65305199999999997</v>
+      <c r="K58">
+        <v>0.58636900000000003</v>
+      </c>
+      <c r="L58">
+        <v>0.39532499999999998</v>
+      </c>
+      <c r="M58">
+        <v>0.65306200000000003</v>
       </c>
       <c r="U58" s="2"/>
     </row>
@@ -10164,14 +10193,14 @@
       <c r="J59" s="9">
         <v>0.62549200000000005</v>
       </c>
-      <c r="K59" s="8">
-        <v>0.56093899999999997</v>
-      </c>
-      <c r="L59" s="8">
-        <v>0.429506</v>
-      </c>
-      <c r="M59" s="9">
-        <v>0.63677700000000004</v>
+      <c r="K59">
+        <v>0.56096500000000005</v>
+      </c>
+      <c r="L59">
+        <v>0.42946699999999999</v>
+      </c>
+      <c r="M59">
+        <v>0.63679300000000005</v>
       </c>
       <c r="U59" s="2"/>
     </row>
@@ -10188,14 +10217,14 @@
       <c r="J60" s="9">
         <v>0.60906099999999996</v>
       </c>
-      <c r="K60" s="8">
-        <v>0.53627899999999995</v>
-      </c>
-      <c r="L60" s="8">
-        <v>0.46438000000000001</v>
-      </c>
-      <c r="M60" s="9">
-        <v>0.62169200000000002</v>
+      <c r="K60">
+        <v>0.53631700000000004</v>
+      </c>
+      <c r="L60">
+        <v>0.46432200000000001</v>
+      </c>
+      <c r="M60">
+        <v>0.62171299999999996</v>
       </c>
       <c r="U60" s="2"/>
     </row>
@@ -10212,14 +10241,14 @@
       <c r="J61" s="9">
         <v>0.59413499999999997</v>
       </c>
-      <c r="K61" s="8">
-        <v>0.51241099999999995</v>
-      </c>
-      <c r="L61" s="8">
-        <v>0.499921</v>
-      </c>
-      <c r="M61" s="9">
-        <v>0.607796</v>
+      <c r="K61">
+        <v>0.51245700000000005</v>
+      </c>
+      <c r="L61">
+        <v>0.49984600000000001</v>
+      </c>
+      <c r="M61">
+        <v>0.60782000000000003</v>
       </c>
       <c r="U61" s="2"/>
     </row>
@@ -10236,14 +10265,14 @@
       <c r="J62" s="9">
         <v>0.58129799999999998</v>
       </c>
-      <c r="K62" s="8">
-        <v>0.48935200000000001</v>
-      </c>
-      <c r="L62" s="8">
-        <v>0.53609399999999996</v>
-      </c>
-      <c r="M62" s="9">
-        <v>0.59507699999999997</v>
+      <c r="K62">
+        <v>0.48941200000000001</v>
+      </c>
+      <c r="L62">
+        <v>0.53599300000000005</v>
+      </c>
+      <c r="M62">
+        <v>0.59510700000000005</v>
       </c>
       <c r="U62" s="2"/>
     </row>
@@ -10260,14 +10289,14 @@
       <c r="J63" s="9">
         <v>0.56990499999999999</v>
       </c>
-      <c r="K63" s="8">
-        <v>0.46713500000000002</v>
-      </c>
-      <c r="L63" s="8">
-        <v>0.57283499999999998</v>
-      </c>
-      <c r="M63" s="9">
-        <v>0.58352899999999996</v>
+      <c r="K63">
+        <v>0.46720099999999998</v>
+      </c>
+      <c r="L63">
+        <v>0.57271799999999995</v>
+      </c>
+      <c r="M63">
+        <v>0.58355999999999997</v>
       </c>
       <c r="U63" s="2"/>
     </row>
@@ -10284,14 +10313,14 @@
       <c r="J64" s="9">
         <v>0.55999500000000002</v>
       </c>
-      <c r="K64" s="8">
-        <v>0.44578899999999999</v>
-      </c>
-      <c r="L64" s="8">
-        <v>0.61006400000000005</v>
-      </c>
-      <c r="M64" s="9">
-        <v>0.57313999999999998</v>
+      <c r="K64">
+        <v>0.44583899999999999</v>
+      </c>
+      <c r="L64">
+        <v>0.60996899999999998</v>
+      </c>
+      <c r="M64">
+        <v>0.57316100000000003</v>
       </c>
       <c r="U64" s="2"/>
     </row>
@@ -10308,14 +10337,14 @@
       <c r="J65" s="9">
         <v>0.55245500000000003</v>
       </c>
-      <c r="K65" s="8">
-        <v>0.42527999999999999</v>
-      </c>
-      <c r="L65" s="8">
-        <v>0.64779900000000001</v>
-      </c>
-      <c r="M65" s="9">
-        <v>0.56386899999999995</v>
+      <c r="K65">
+        <v>0.42533799999999999</v>
+      </c>
+      <c r="L65">
+        <v>0.64768300000000001</v>
+      </c>
+      <c r="M65">
+        <v>0.56389100000000003</v>
       </c>
       <c r="U65" s="2"/>
     </row>
@@ -10332,14 +10361,14 @@
       <c r="J66" s="9">
         <v>0.547898</v>
       </c>
-      <c r="K66" s="8">
-        <v>0.40567700000000001</v>
-      </c>
-      <c r="L66" s="8">
-        <v>0.685863</v>
-      </c>
-      <c r="M66" s="9">
-        <v>0.55571800000000005</v>
+      <c r="K66">
+        <v>0.40571600000000002</v>
+      </c>
+      <c r="L66">
+        <v>0.68577699999999997</v>
+      </c>
+      <c r="M66">
+        <v>0.55572999999999995</v>
       </c>
       <c r="U66" s="2"/>
     </row>
@@ -10356,14 +10385,14 @@
       <c r="J67" s="9">
         <v>0.54693999999999998</v>
       </c>
-      <c r="K67" s="8">
-        <v>0.38693</v>
-      </c>
-      <c r="L67" s="8">
-        <v>0.72427900000000001</v>
-      </c>
-      <c r="M67" s="9">
-        <v>0.54863700000000004</v>
+      <c r="K67">
+        <v>0.38699499999999998</v>
+      </c>
+      <c r="L67">
+        <v>0.72413400000000006</v>
+      </c>
+      <c r="M67">
+        <v>0.54865600000000003</v>
       </c>
       <c r="U67" s="2"/>
     </row>
@@ -10380,14 +10409,14 @@
       <c r="J68" s="9">
         <v>0.550257</v>
       </c>
-      <c r="K68" s="8">
-        <v>0.36913600000000002</v>
-      </c>
-      <c r="L68" s="8">
-        <v>0.762764</v>
-      </c>
-      <c r="M68" s="9">
-        <v>0.54262900000000003</v>
+      <c r="K68">
+        <v>0.36921799999999999</v>
+      </c>
+      <c r="L68">
+        <v>0.76257200000000003</v>
+      </c>
+      <c r="M68">
+        <v>0.54265099999999999</v>
       </c>
       <c r="U68" s="2"/>
     </row>
@@ -10404,14 +10433,14 @@
       <c r="J69" s="9">
         <v>0.55548500000000001</v>
       </c>
-      <c r="K69" s="8">
-        <v>0.35240500000000002</v>
-      </c>
-      <c r="L69" s="8">
-        <v>0.80093199999999998</v>
-      </c>
-      <c r="M69" s="9">
-        <v>0.53768199999999999</v>
+      <c r="K69">
+        <v>0.35246699999999997</v>
+      </c>
+      <c r="L69">
+        <v>0.80077699999999996</v>
+      </c>
+      <c r="M69">
+        <v>0.53769400000000001</v>
       </c>
       <c r="U69" s="2"/>
     </row>
@@ -10428,14 +10457,14 @@
       <c r="J70" s="9">
         <v>0.55154300000000001</v>
       </c>
-      <c r="K70" s="8">
-        <v>0.33683000000000002</v>
-      </c>
-      <c r="L70" s="8">
-        <v>0.83837200000000001</v>
-      </c>
-      <c r="M70" s="9">
-        <v>0.53375499999999998</v>
+      <c r="K70">
+        <v>0.33690599999999998</v>
+      </c>
+      <c r="L70">
+        <v>0.83817200000000003</v>
+      </c>
+      <c r="M70">
+        <v>0.53376699999999999</v>
       </c>
       <c r="U70" s="2"/>
     </row>
@@ -10452,14 +10481,14 @@
       <c r="J71" s="9">
         <v>0.57858699999999996</v>
       </c>
-      <c r="K71" s="8">
-        <v>0.32278299999999999</v>
-      </c>
-      <c r="L71" s="8">
-        <v>0.87387099999999995</v>
-      </c>
-      <c r="M71" s="9">
-        <v>0.53083199999999997</v>
+      <c r="K71">
+        <v>0.32288699999999998</v>
+      </c>
+      <c r="L71">
+        <v>0.87358999999999998</v>
+      </c>
+      <c r="M71">
+        <v>0.53084500000000001</v>
       </c>
       <c r="U71" s="2"/>
     </row>
@@ -10476,14 +10505,14 @@
       <c r="J72" s="9">
         <v>0.56328699999999998</v>
       </c>
-      <c r="K72" s="8">
-        <v>0.31106400000000001</v>
-      </c>
-      <c r="L72" s="8">
-        <v>0.90485499999999996</v>
-      </c>
-      <c r="M72" s="9">
-        <v>0.52888599999999997</v>
+      <c r="K72">
+        <v>0.31117600000000001</v>
+      </c>
+      <c r="L72">
+        <v>0.90453799999999995</v>
+      </c>
+      <c r="M72">
+        <v>0.52889399999999998</v>
       </c>
       <c r="U72" s="2"/>
     </row>
@@ -10500,14 +10529,14 @@
       <c r="J73" s="9">
         <v>0.63630600000000004</v>
       </c>
-      <c r="K73" s="8">
-        <v>0.30321700000000001</v>
-      </c>
-      <c r="L73" s="8">
-        <v>0.926319</v>
-      </c>
-      <c r="M73" s="9">
-        <v>0.52783500000000005</v>
+      <c r="K73">
+        <v>0.30332500000000001</v>
+      </c>
+      <c r="L73">
+        <v>0.92600400000000005</v>
+      </c>
+      <c r="M73">
+        <v>0.52783999999999998</v>
       </c>
       <c r="U73" s="2"/>
     </row>
@@ -10524,14 +10553,14 @@
       <c r="J74" s="9">
         <v>0.60045800000000005</v>
       </c>
-      <c r="K74" s="8">
-        <v>0.30089300000000002</v>
-      </c>
-      <c r="L74" s="8">
-        <v>0.93270399999999998</v>
-      </c>
-      <c r="M74" s="9">
-        <v>0.52751499999999996</v>
+      <c r="K74">
+        <v>0.30093900000000001</v>
+      </c>
+      <c r="L74">
+        <v>0.932562</v>
+      </c>
+      <c r="M74">
+        <v>0.52751199999999998</v>
       </c>
       <c r="U74" s="2"/>
     </row>
@@ -10548,14 +10577,14 @@
       <c r="J75" s="9">
         <v>0.530111</v>
       </c>
-      <c r="K75" s="8">
-        <v>0.30143999999999999</v>
-      </c>
-      <c r="L75" s="8">
-        <v>0.931033</v>
-      </c>
-      <c r="M75" s="9">
-        <v>0.52749199999999996</v>
+      <c r="K75">
+        <v>0.30143399999999998</v>
+      </c>
+      <c r="L75">
+        <v>0.93103599999999997</v>
+      </c>
+      <c r="M75">
+        <v>0.52748399999999995</v>
       </c>
       <c r="U75" s="2"/>
     </row>
@@ -10572,14 +10601,14 @@
       <c r="J76" s="9">
         <v>0.529999</v>
       </c>
-      <c r="K76" s="8">
-        <v>0.30197499999999999</v>
-      </c>
-      <c r="L76" s="8">
-        <v>0.92940999999999996</v>
-      </c>
-      <c r="M76" s="9">
-        <v>0.52747699999999997</v>
+      <c r="K76">
+        <v>0.30197400000000002</v>
+      </c>
+      <c r="L76">
+        <v>0.92940199999999995</v>
+      </c>
+      <c r="M76">
+        <v>0.52747100000000002</v>
       </c>
       <c r="U76" s="2"/>
     </row>
@@ -10596,14 +10625,14 @@
       <c r="J77" s="9">
         <v>0.53305599999999997</v>
       </c>
-      <c r="K77" s="8">
-        <v>0.30234899999999998</v>
-      </c>
-      <c r="L77" s="8">
-        <v>0.92830500000000005</v>
-      </c>
-      <c r="M77" s="9">
-        <v>0.52748399999999995</v>
+      <c r="K77">
+        <v>0.30234800000000001</v>
+      </c>
+      <c r="L77">
+        <v>0.92830199999999996</v>
+      </c>
+      <c r="M77">
+        <v>0.52747999999999995</v>
       </c>
       <c r="U77" s="2"/>
     </row>
@@ -10620,13 +10649,13 @@
       <c r="J78" s="9">
         <v>0.54051400000000005</v>
       </c>
-      <c r="K78" s="8">
-        <v>0.30263600000000002</v>
-      </c>
-      <c r="L78" s="8">
-        <v>0.92760600000000004</v>
-      </c>
-      <c r="M78" s="9">
+      <c r="K78">
+        <v>0.30263499999999999</v>
+      </c>
+      <c r="L78">
+        <v>0.92760799999999999</v>
+      </c>
+      <c r="M78">
         <v>0.52757500000000002</v>
       </c>
       <c r="U78" s="2"/>
@@ -10644,14 +10673,14 @@
       <c r="J79" s="9">
         <v>0.544076</v>
       </c>
-      <c r="K79" s="8">
-        <v>0.30285899999999999</v>
-      </c>
-      <c r="L79" s="8">
-        <v>0.92737400000000003</v>
-      </c>
-      <c r="M79" s="9">
-        <v>0.52782899999999999</v>
+      <c r="K79">
+        <v>0.30285800000000002</v>
+      </c>
+      <c r="L79">
+        <v>0.92738299999999996</v>
+      </c>
+      <c r="M79">
+        <v>0.527833</v>
       </c>
       <c r="U79" s="2"/>
     </row>
@@ -10668,14 +10697,14 @@
       <c r="J80" s="9">
         <v>0.53705499999999995</v>
       </c>
-      <c r="K80" s="8">
+      <c r="K80">
         <v>0.30303000000000002</v>
       </c>
-      <c r="L80" s="8">
-        <v>0.92765500000000001</v>
-      </c>
-      <c r="M80" s="9">
-        <v>0.52829099999999996</v>
+      <c r="L80">
+        <v>0.92766300000000002</v>
+      </c>
+      <c r="M80">
+        <v>0.52829599999999999</v>
       </c>
       <c r="U80" s="2"/>
     </row>
@@ -10692,14 +10721,14 @@
       <c r="J81" s="9">
         <v>0.52524800000000005</v>
       </c>
-      <c r="K81" s="8">
+      <c r="K81">
         <v>0.30315999999999999</v>
       </c>
-      <c r="L81" s="8">
+      <c r="L81">
         <v>0.92825800000000003</v>
       </c>
-      <c r="M81" s="9">
-        <v>0.52887200000000001</v>
+      <c r="M81">
+        <v>0.52887099999999998</v>
       </c>
       <c r="U81" s="2"/>
     </row>
@@ -10716,14 +10745,14 @@
       <c r="J82" s="9">
         <v>0.52200400000000002</v>
       </c>
-      <c r="K82" s="8">
+      <c r="K82">
         <v>0.30325600000000003</v>
       </c>
-      <c r="L82" s="8">
-        <v>0.92854199999999998</v>
-      </c>
-      <c r="M82" s="9">
-        <v>0.52920400000000001</v>
+      <c r="L82">
+        <v>0.92851700000000004</v>
+      </c>
+      <c r="M82">
+        <v>0.52919000000000005</v>
       </c>
       <c r="U82" s="2"/>
     </row>
@@ -10740,14 +10769,14 @@
       <c r="J83" s="9">
         <v>0.53400199999999998</v>
       </c>
-      <c r="K83" s="8">
-        <v>0.30332399999999998</v>
-      </c>
-      <c r="L83" s="8">
-        <v>0.92724300000000004</v>
-      </c>
-      <c r="M83" s="9">
-        <v>0.52856300000000001</v>
+      <c r="K83">
+        <v>0.30332300000000001</v>
+      </c>
+      <c r="L83">
+        <v>0.92718900000000004</v>
+      </c>
+      <c r="M83">
+        <v>0.52852900000000003</v>
       </c>
       <c r="U83" s="2"/>
     </row>
@@ -10764,14 +10793,14 @@
       <c r="J84" s="9">
         <v>0.554423</v>
       </c>
-      <c r="K84" s="8">
-        <v>0.30336999999999997</v>
-      </c>
-      <c r="L84" s="8">
-        <v>0.92260399999999998</v>
-      </c>
-      <c r="M84" s="9">
-        <v>0.52593900000000005</v>
+      <c r="K84">
+        <v>0.30336800000000003</v>
+      </c>
+      <c r="L84">
+        <v>0.92252199999999995</v>
+      </c>
+      <c r="M84">
+        <v>0.52588699999999999</v>
       </c>
       <c r="U84" s="2"/>
     </row>
@@ -10788,14 +10817,14 @@
       <c r="J85" s="9">
         <v>0.56814299999999995</v>
       </c>
-      <c r="K85" s="8">
-        <v>0.303398</v>
-      </c>
-      <c r="L85" s="8">
-        <v>0.91279600000000005</v>
-      </c>
-      <c r="M85" s="9">
-        <v>0.52034400000000003</v>
+      <c r="K85">
+        <v>0.30339500000000003</v>
+      </c>
+      <c r="L85">
+        <v>0.91269999999999996</v>
+      </c>
+      <c r="M85">
+        <v>0.52028399999999997</v>
       </c>
       <c r="U85" s="2"/>
     </row>
@@ -10812,14 +10841,14 @@
       <c r="J86" s="9">
         <v>0.56383700000000003</v>
       </c>
-      <c r="K86" s="8">
-        <v>0.30341000000000001</v>
-      </c>
-      <c r="L86" s="8">
-        <v>0.89658000000000004</v>
-      </c>
-      <c r="M86" s="9">
-        <v>0.51126099999999997</v>
+      <c r="K86">
+        <v>0.30340699999999998</v>
+      </c>
+      <c r="L86">
+        <v>0.89649100000000004</v>
+      </c>
+      <c r="M86">
+        <v>0.51120699999999997</v>
       </c>
       <c r="U86" s="2"/>
     </row>
@@ -10836,14 +10865,14 @@
       <c r="J87" s="9">
         <v>0.54193899999999995</v>
       </c>
-      <c r="K87" s="8">
-        <v>0.30341099999999999</v>
-      </c>
-      <c r="L87" s="8">
-        <v>0.87394000000000005</v>
-      </c>
-      <c r="M87" s="9">
-        <v>0.49901099999999998</v>
+      <c r="K87">
+        <v>0.30340699999999998</v>
+      </c>
+      <c r="L87">
+        <v>0.87388100000000002</v>
+      </c>
+      <c r="M87">
+        <v>0.49897399999999997</v>
       </c>
       <c r="U87" s="2"/>
     </row>
@@ -10860,14 +10889,14 @@
       <c r="J88" s="9">
         <v>0.51168499999999995</v>
       </c>
-      <c r="K88" s="8">
-        <v>0.30340400000000001</v>
-      </c>
-      <c r="L88" s="8">
-        <v>0.84641100000000002</v>
-      </c>
-      <c r="M88" s="9">
-        <v>0.48479499999999998</v>
+      <c r="K88">
+        <v>0.30339899999999997</v>
+      </c>
+      <c r="L88">
+        <v>0.84639600000000004</v>
+      </c>
+      <c r="M88">
+        <v>0.48477999999999999</v>
       </c>
       <c r="U88" s="2"/>
     </row>
@@ -10884,14 +10913,14 @@
       <c r="J89" s="9">
         <v>0.48288599999999998</v>
       </c>
-      <c r="K89" s="8">
-        <v>0.30338900000000002</v>
-      </c>
-      <c r="L89" s="8">
-        <v>0.81687799999999999</v>
-      </c>
-      <c r="M89" s="9">
-        <v>0.47034700000000002</v>
+      <c r="K89">
+        <v>0.30338399999999999</v>
+      </c>
+      <c r="L89">
+        <v>0.81690700000000005</v>
+      </c>
+      <c r="M89">
+        <v>0.47035399999999999</v>
       </c>
       <c r="U89" s="2"/>
     </row>
@@ -10908,14 +10937,14 @@
       <c r="J90" s="9">
         <v>0.46093200000000001</v>
       </c>
-      <c r="K90" s="8">
-        <v>0.303367</v>
-      </c>
-      <c r="L90" s="8">
-        <v>0.788856</v>
-      </c>
-      <c r="M90" s="9">
-        <v>0.457374</v>
+      <c r="K90">
+        <v>0.30336299999999999</v>
+      </c>
+      <c r="L90">
+        <v>0.78891699999999998</v>
+      </c>
+      <c r="M90">
+        <v>0.457395</v>
       </c>
       <c r="U90" s="2"/>
     </row>
@@ -10932,14 +10961,14 @@
       <c r="J91" s="9">
         <v>0.44673299999999999</v>
       </c>
-      <c r="K91" s="8">
-        <v>0.30334100000000003</v>
-      </c>
-      <c r="L91" s="8">
-        <v>0.76545300000000005</v>
-      </c>
-      <c r="M91" s="9">
-        <v>0.44706099999999999</v>
+      <c r="K91">
+        <v>0.30333700000000002</v>
+      </c>
+      <c r="L91">
+        <v>0.76552699999999996</v>
+      </c>
+      <c r="M91">
+        <v>0.44708700000000001</v>
       </c>
       <c r="U91" s="2"/>
     </row>
@@ -10956,14 +10985,14 @@
       <c r="J92" s="9">
         <v>0.43876700000000002</v>
       </c>
-      <c r="K92" s="8">
-        <v>0.303309</v>
-      </c>
-      <c r="L92" s="8">
-        <v>0.74845300000000003</v>
-      </c>
-      <c r="M92" s="9">
-        <v>0.43984699999999999</v>
+      <c r="K92">
+        <v>0.30330499999999999</v>
+      </c>
+      <c r="L92">
+        <v>0.74852200000000002</v>
+      </c>
+      <c r="M92">
+        <v>0.43986999999999998</v>
       </c>
       <c r="U92" s="2"/>
     </row>
@@ -10980,14 +11009,14 @@
       <c r="J93" s="9">
         <v>0.43495</v>
       </c>
-      <c r="K93" s="8">
-        <v>0.30326999999999998</v>
-      </c>
-      <c r="L93" s="8">
-        <v>0.73796799999999996</v>
-      </c>
-      <c r="M93" s="9">
-        <v>0.43549199999999999</v>
+      <c r="K93">
+        <v>0.30326599999999998</v>
+      </c>
+      <c r="L93">
+        <v>0.73802000000000001</v>
+      </c>
+      <c r="M93">
+        <v>0.43550699999999998</v>
       </c>
       <c r="U93" s="2"/>
     </row>
@@ -11004,14 +11033,14 @@
       <c r="J94" s="9">
         <v>0.43359300000000001</v>
       </c>
-      <c r="K94" s="8">
-        <v>0.30322199999999999</v>
-      </c>
-      <c r="L94" s="8">
-        <v>0.73277400000000004</v>
-      </c>
-      <c r="M94" s="9">
-        <v>0.43332700000000002</v>
+      <c r="K94">
+        <v>0.30321799999999999</v>
+      </c>
+      <c r="L94">
+        <v>0.73280199999999995</v>
+      </c>
+      <c r="M94">
+        <v>0.43333199999999999</v>
       </c>
       <c r="U94" s="2"/>
     </row>
@@ -11028,14 +11057,14 @@
       <c r="J95" s="9">
         <v>0.43362299999999998</v>
       </c>
-      <c r="K95" s="8">
-        <v>0.30316199999999999</v>
-      </c>
-      <c r="L95" s="8">
-        <v>0.73106199999999999</v>
-      </c>
-      <c r="M95" s="9">
-        <v>0.43255399999999999</v>
+      <c r="K95">
+        <v>0.30315799999999998</v>
+      </c>
+      <c r="L95">
+        <v>0.73106499999999996</v>
+      </c>
+      <c r="M95">
+        <v>0.43254999999999999</v>
       </c>
       <c r="U95" s="2"/>
     </row>
@@ -11052,14 +11081,14 @@
       <c r="J96" s="9">
         <v>0.434448</v>
       </c>
-      <c r="K96" s="8">
-        <v>0.30308499999999999</v>
-      </c>
-      <c r="L96" s="8">
-        <v>0.73113600000000001</v>
-      </c>
-      <c r="M96" s="9">
-        <v>0.43247400000000003</v>
+      <c r="K96">
+        <v>0.30308099999999999</v>
+      </c>
+      <c r="L96">
+        <v>0.73112200000000005</v>
+      </c>
+      <c r="M96">
+        <v>0.43246299999999999</v>
       </c>
       <c r="U96" s="2"/>
     </row>
@@ -11076,14 +11105,14 @@
       <c r="J97" s="9">
         <v>0.43568299999999999</v>
       </c>
-      <c r="K97" s="8">
-        <v>0.30298700000000001</v>
-      </c>
-      <c r="L97" s="8">
-        <v>0.73180000000000001</v>
-      </c>
-      <c r="M97" s="9">
-        <v>0.43260100000000001</v>
+      <c r="K97">
+        <v>0.302983</v>
+      </c>
+      <c r="L97">
+        <v>0.73177599999999998</v>
+      </c>
+      <c r="M97">
+        <v>0.43258400000000002</v>
       </c>
       <c r="U97" s="2"/>
     </row>
@@ -11100,14 +11129,14 @@
       <c r="J98" s="9">
         <v>0.43693399999999999</v>
       </c>
-      <c r="K98" s="8">
-        <v>0.30286099999999999</v>
-      </c>
-      <c r="L98" s="8">
-        <v>0.73239699999999996</v>
-      </c>
-      <c r="M98" s="9">
-        <v>0.43265900000000002</v>
+      <c r="K98">
+        <v>0.30285499999999999</v>
+      </c>
+      <c r="L98">
+        <v>0.73236800000000002</v>
+      </c>
+      <c r="M98">
+        <v>0.432639</v>
       </c>
       <c r="U98" s="2"/>
     </row>
@@ -11124,14 +11153,14 @@
       <c r="J99" s="9">
         <v>0.43785000000000002</v>
       </c>
-      <c r="K99" s="8">
-        <v>0.30269499999999999</v>
-      </c>
-      <c r="L99" s="8">
-        <v>0.73266500000000001</v>
-      </c>
-      <c r="M99" s="9">
-        <v>0.43253000000000003</v>
+      <c r="K99">
+        <v>0.30268899999999999</v>
+      </c>
+      <c r="L99">
+        <v>0.73263299999999998</v>
+      </c>
+      <c r="M99">
+        <v>0.432508</v>
       </c>
       <c r="U99" s="2"/>
     </row>
@@ -11148,14 +11177,14 @@
       <c r="J100" s="9">
         <v>0.438467</v>
       </c>
-      <c r="K100" s="8">
-        <v>0.302477</v>
-      </c>
-      <c r="L100" s="8">
-        <v>0.73255800000000004</v>
-      </c>
-      <c r="M100" s="9">
-        <v>0.43217499999999998</v>
+      <c r="K100">
+        <v>0.30246899999999999</v>
+      </c>
+      <c r="L100">
+        <v>0.73252600000000001</v>
+      </c>
+      <c r="M100">
+        <v>0.43215100000000001</v>
       </c>
       <c r="U100" s="2"/>
     </row>
@@ -11172,14 +11201,14 @@
       <c r="J101" s="9">
         <v>0.43876500000000002</v>
       </c>
-      <c r="K101" s="8">
-        <v>0.30218800000000001</v>
-      </c>
-      <c r="L101" s="8">
-        <v>0.732097</v>
-      </c>
-      <c r="M101" s="9">
-        <v>0.43157800000000002</v>
+      <c r="K101">
+        <v>0.30217699999999997</v>
+      </c>
+      <c r="L101">
+        <v>0.73207</v>
+      </c>
+      <c r="M101">
+        <v>0.43155199999999999</v>
       </c>
       <c r="U101" s="2"/>
     </row>
@@ -11196,14 +11225,14 @@
       <c r="J102" s="9">
         <v>0.43787599999999999</v>
       </c>
-      <c r="K102" s="8">
-        <v>0.301792</v>
-      </c>
-      <c r="L102" s="8">
-        <v>0.73130499999999998</v>
-      </c>
-      <c r="M102" s="9">
-        <v>0.43069600000000002</v>
+      <c r="K102">
+        <v>0.30177799999999999</v>
+      </c>
+      <c r="L102">
+        <v>0.73127299999999995</v>
+      </c>
+      <c r="M102">
+        <v>0.43066399999999999</v>
       </c>
     </row>
     <row r="103" spans="7:21">
@@ -11219,14 +11248,14 @@
       <c r="J103" s="9">
         <v>0.43920700000000001</v>
       </c>
-      <c r="K103" s="8">
-        <v>0.30119099999999999</v>
-      </c>
-      <c r="L103" s="8">
-        <v>0.73004000000000002</v>
-      </c>
-      <c r="M103" s="9">
-        <v>0.42933700000000002</v>
+      <c r="K103">
+        <v>0.301172</v>
+      </c>
+      <c r="L103">
+        <v>0.72999599999999998</v>
+      </c>
+      <c r="M103">
+        <v>0.42929200000000001</v>
       </c>
     </row>
     <row r="104" spans="7:21">
@@ -11242,14 +11271,14 @@
       <c r="J104" s="9">
         <v>0.45486500000000002</v>
       </c>
-      <c r="K104" s="8">
-        <v>0.29984499999999997</v>
-      </c>
-      <c r="L104" s="8">
-        <v>0.72723899999999997</v>
-      </c>
-      <c r="M104" s="9">
-        <v>0.42631599999999997</v>
+      <c r="K104">
+        <v>0.299794</v>
+      </c>
+      <c r="L104">
+        <v>0.72713700000000003</v>
+      </c>
+      <c r="M104">
+        <v>0.426203</v>
       </c>
     </row>
     <row r="105" spans="7:21">
@@ -11265,14 +11294,14 @@
       <c r="J105" s="9">
         <v>0.46629500000000002</v>
       </c>
-      <c r="K105" s="8">
-        <v>0.29345199999999999</v>
-      </c>
-      <c r="L105" s="8">
-        <v>0.71383399999999997</v>
-      </c>
-      <c r="M105" s="9">
-        <v>0.41214499999999998</v>
+      <c r="K105">
+        <v>0.29335800000000001</v>
+      </c>
+      <c r="L105">
+        <v>0.71364700000000003</v>
+      </c>
+      <c r="M105">
+        <v>0.41194399999999998</v>
       </c>
     </row>
     <row r="106" spans="7:21">
@@ -11288,14 +11317,14 @@
       <c r="J106" s="9">
         <v>0.33727600000000002</v>
       </c>
-      <c r="K106" s="8">
-        <v>0.25669799999999998</v>
-      </c>
-      <c r="L106" s="8">
-        <v>0.63576999999999995</v>
-      </c>
-      <c r="M106" s="9">
-        <v>0.33696799999999999</v>
+      <c r="K106">
+        <v>0.25681700000000002</v>
+      </c>
+      <c r="L106">
+        <v>0.63600299999999999</v>
+      </c>
+      <c r="M106">
+        <v>0.33718900000000002</v>
       </c>
     </row>
     <row r="107" spans="7:21">
@@ -11311,14 +11340,14 @@
       <c r="J107" s="9">
         <v>0.13174</v>
       </c>
-      <c r="K107" s="8">
-        <v>0.16596</v>
-      </c>
-      <c r="L107" s="8">
-        <v>0.37037799999999999</v>
-      </c>
-      <c r="M107" s="9">
-        <v>0.18245</v>
+      <c r="K107">
+        <v>0.16627400000000001</v>
+      </c>
+      <c r="L107">
+        <v>0.371591</v>
+      </c>
+      <c r="M107">
+        <v>0.18290799999999999</v>
       </c>
     </row>
     <row r="108" spans="7:21">
@@ -11334,14 +11363,14 @@
       <c r="J108" s="9">
         <v>0.101022</v>
       </c>
-      <c r="K108" s="8">
-        <v>0.110453</v>
-      </c>
-      <c r="L108" s="8">
-        <v>7.3286000000000004E-2</v>
-      </c>
-      <c r="M108" s="9">
-        <v>0.110869</v>
+      <c r="K108">
+        <v>0.110581</v>
+      </c>
+      <c r="L108">
+        <v>7.4145000000000003E-2</v>
+      </c>
+      <c r="M108">
+        <v>0.11100699999999999</v>
       </c>
     </row>
     <row r="109" spans="7:21">
@@ -11357,14 +11386,14 @@
       <c r="J109" s="9">
         <v>0.100026</v>
       </c>
-      <c r="K109" s="8">
-        <v>0.10095</v>
-      </c>
-      <c r="L109" s="8">
-        <v>6.7840000000000001E-3</v>
-      </c>
-      <c r="M109" s="9">
-        <v>0.100954</v>
+      <c r="K109">
+        <v>0.100966</v>
+      </c>
+      <c r="L109">
+        <v>6.894E-3</v>
+      </c>
+      <c r="M109">
+        <v>0.100969</v>
       </c>
     </row>
     <row r="110" spans="7:21">
@@ -11380,14 +11409,14 @@
       <c r="J110" s="9">
         <v>0.10000100000000001</v>
       </c>
-      <c r="K110" s="8">
-        <v>0.10008</v>
-      </c>
-      <c r="L110" s="8">
-        <v>5.6899999999999995E-4</v>
-      </c>
-      <c r="M110" s="9">
-        <v>0.10008</v>
+      <c r="K110">
+        <v>0.100081</v>
+      </c>
+      <c r="L110">
+        <v>5.8E-4</v>
+      </c>
+      <c r="M110">
+        <v>0.100081</v>
       </c>
     </row>
     <row r="111" spans="7:21">
@@ -11403,13 +11432,13 @@
       <c r="J111" s="9">
         <v>0.1</v>
       </c>
-      <c r="K111" s="8">
+      <c r="K111">
         <v>0.100007</v>
       </c>
-      <c r="L111" s="8">
-        <v>4.8000000000000001E-5</v>
-      </c>
-      <c r="M111" s="9">
+      <c r="L111">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="M111">
         <v>0.100007</v>
       </c>
     </row>
@@ -11426,13 +11455,13 @@
       <c r="J112" s="9">
         <v>0.1</v>
       </c>
-      <c r="K112" s="8">
+      <c r="K112">
         <v>0.10000100000000001</v>
       </c>
-      <c r="L112" s="8">
+      <c r="L112">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="M112" s="9">
+      <c r="M112">
         <v>0.10000100000000001</v>
       </c>
     </row>
@@ -11449,13 +11478,13 @@
       <c r="J113" s="9">
         <v>0.1</v>
       </c>
-      <c r="K113" s="8">
+      <c r="K113">
         <v>0.1</v>
       </c>
-      <c r="L113" s="8">
+      <c r="L113">
         <v>0</v>
       </c>
-      <c r="M113" s="9">
+      <c r="M113">
         <v>0.1</v>
       </c>
     </row>
@@ -11472,13 +11501,13 @@
       <c r="J114" s="9">
         <v>0.1</v>
       </c>
-      <c r="K114" s="8">
+      <c r="K114">
         <v>0.1</v>
       </c>
-      <c r="L114" s="8">
+      <c r="L114">
         <v>0</v>
       </c>
-      <c r="M114" s="9">
+      <c r="M114">
         <v>0.1</v>
       </c>
     </row>
@@ -11495,13 +11524,13 @@
       <c r="J115" s="9">
         <v>0.1</v>
       </c>
-      <c r="K115" s="8">
+      <c r="K115">
         <v>0.1</v>
       </c>
-      <c r="L115" s="8">
+      <c r="L115">
         <v>0</v>
       </c>
-      <c r="M115" s="9">
+      <c r="M115">
         <v>0.1</v>
       </c>
     </row>
@@ -11518,13 +11547,13 @@
       <c r="J116" s="9">
         <v>0.1</v>
       </c>
-      <c r="K116" s="8">
+      <c r="K116">
         <v>0.1</v>
       </c>
-      <c r="L116" s="8">
+      <c r="L116">
         <v>0</v>
       </c>
-      <c r="M116" s="9">
+      <c r="M116">
         <v>0.1</v>
       </c>
     </row>
@@ -11541,13 +11570,13 @@
       <c r="J117" s="9">
         <v>0.1</v>
       </c>
-      <c r="K117" s="8">
+      <c r="K117">
         <v>0.1</v>
       </c>
-      <c r="L117" s="8">
+      <c r="L117">
         <v>0</v>
       </c>
-      <c r="M117" s="9">
+      <c r="M117">
         <v>0.1</v>
       </c>
     </row>
@@ -11564,13 +11593,13 @@
       <c r="J118" s="9">
         <v>0.1</v>
       </c>
-      <c r="K118" s="8">
+      <c r="K118">
         <v>0.1</v>
       </c>
-      <c r="L118" s="8">
+      <c r="L118">
         <v>0</v>
       </c>
-      <c r="M118" s="9">
+      <c r="M118">
         <v>0.1</v>
       </c>
     </row>
@@ -11587,13 +11616,13 @@
       <c r="J119" s="9">
         <v>0.1</v>
       </c>
-      <c r="K119" s="8">
+      <c r="K119">
         <v>0.1</v>
       </c>
-      <c r="L119" s="8">
+      <c r="L119">
         <v>0</v>
       </c>
-      <c r="M119" s="9">
+      <c r="M119">
         <v>0.1</v>
       </c>
     </row>
@@ -11610,17 +11639,17 @@
       <c r="J120" s="9">
         <v>0.1</v>
       </c>
-      <c r="K120" s="8">
+      <c r="K120">
         <v>0.1</v>
       </c>
-      <c r="L120" s="8">
+      <c r="L120">
         <v>0</v>
       </c>
-      <c r="M120" s="9">
+      <c r="M120">
         <v>0.1</v>
       </c>
     </row>
-    <row r="121" spans="7:13" ht="14.65" thickBot="1">
+    <row r="121" spans="7:13" ht="15" thickBot="1">
       <c r="G121" s="10">
         <v>5</v>
       </c>
@@ -11633,13 +11662,13 @@
       <c r="J121" s="12">
         <v>0.1</v>
       </c>
-      <c r="K121" s="11">
+      <c r="K121">
         <v>0.1</v>
       </c>
-      <c r="L121" s="11">
+      <c r="L121">
         <v>0</v>
       </c>
-      <c r="M121" s="12">
+      <c r="M121">
         <v>0.1</v>
       </c>
     </row>

--- a/shock_tube_comparison.xlsx
+++ b/shock_tube_comparison.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valni\Documents\GitHub\compressible_flows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valni\Documents\GIT\compressible_flows\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF060677-047A-4D59-9775-5A968F60E971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20712" windowHeight="13272" tabRatio="502"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="502" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shock Tube Problem" sheetId="1" r:id="rId1"/>
@@ -49,7 +50,7 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>pl</t>
   </si>
@@ -217,16 +218,23 @@
     <t>Analytical Solution</t>
   </si>
   <si>
-    <t>MCC Solution CFL=0,9403</t>
+    <t>Roe Solution CFL = 0,9</t>
   </si>
   <si>
-    <t>Roe Solution CFL = 0,9</t>
+    <t>ttotl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -347,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -363,9 +371,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -383,7 +399,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -420,7 +436,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -495,22 +510,22 @@
                   <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.480718847431123</c:v>
+                  <c:v>-2.4833380076018647</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.14733328253928502</c:v>
+                  <c:v>-0.14748883804121249</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9444879707431983</c:v>
+                  <c:v>1.9465409746338773</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9444879707431983</c:v>
+                  <c:v>1.9465409746338773</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6735523414582296</c:v>
+                  <c:v>3.6774309035080357</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6735523414582296</c:v>
+                  <c:v>3.6774309035080357</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5</c:v>
@@ -559,658 +574,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Pressure MCC</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Shock Tube Problem'!$G$21:$G$121</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-4.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-4.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-4.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-4.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-4.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-4.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-3.9</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-3.8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-3.7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-3.6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-3.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-3.4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-3.3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-3.2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-3.1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-2.9</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-2.8</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-2.7</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-2.6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-2.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-2.4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-2.1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-1.9</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-1.8</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-1.7</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-1.6</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-1.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-1.4</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-1.3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-1.2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-0.9</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-0.8</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-0.7</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-0.6</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-0.5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.4</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.3</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-0.2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-0.1</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>4.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Shock Tube Problem'!$H$21:$H$121</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.99999800000000005</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.99999199999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.999969</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.999892</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.99965999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.999031</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.99751400000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.99425200000000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.98802400000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.97744699999999995</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.96140700000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.93948600000000004</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.91214099999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.88051400000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.84603600000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.81005300000000002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.773621</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.73746999999999996</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.70205399999999996</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.66763700000000004</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.63436199999999998</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.602302</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.571492</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.54194799999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.51367600000000002</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.48670200000000002</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.46106799999999998</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.43688700000000003</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.414524</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.394868</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.38048500000000002</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.37754500000000002</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.39069700000000002</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.40270400000000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.39186799999999999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.17457600000000001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.194825</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.13417299999999999</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.156052</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.284049</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.302622</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.30213299999999998</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.30248599999999998</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.302929</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.30329299999999998</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.30372100000000002</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.30408099999999999</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.304288</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.30446600000000001</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.30460500000000001</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.304703</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.30474800000000002</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.304703</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.30457800000000002</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.30437700000000001</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.304116</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.303817</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.30354700000000001</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.30337900000000001</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.30338500000000002</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.30360700000000002</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.30399399999999999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.30441099999999999</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.30472100000000002</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.304948</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.30509799999999998</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.30479499999999998</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.30551499999999998</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.31262499999999999</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.31791399999999997</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.25596799999999997</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.12872800000000001</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.101019</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.100026</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.10000100000000001</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2B35-4712-AAE0-0608B26F387D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:v>Pressure Roe</c:v>
           </c:tx>
@@ -1543,7 +908,7 @@
             <c:numRef>
               <c:f>'Shock Tube Problem'!$K$21:$K$121</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -1573,253 +938,253 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0.99999899999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999899999999997</c:v>
+                  <c:v>0.99999800000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99999400000000005</c:v>
+                  <c:v>0.99999099999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.99997899999999995</c:v>
+                  <c:v>0.99997100000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.99993500000000002</c:v>
+                  <c:v>0.99991099999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.99981399999999998</c:v>
+                  <c:v>0.99975499999999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99951900000000005</c:v>
+                  <c:v>0.999386</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.99886600000000003</c:v>
+                  <c:v>0.99859500000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.99755099999999997</c:v>
+                  <c:v>0.99704899999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.99513499999999999</c:v>
+                  <c:v>0.99428899999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.99107299999999998</c:v>
+                  <c:v>0.98976500000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.98478399999999999</c:v>
+                  <c:v>0.98291600000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97576600000000002</c:v>
+                  <c:v>0.973275</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.96369000000000005</c:v>
+                  <c:v>0.96055699999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.948461</c:v>
+                  <c:v>0.94470299999999996</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.93021299999999996</c:v>
+                  <c:v>0.925871</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.90925699999999998</c:v>
+                  <c:v>0.90438099999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.88601200000000002</c:v>
+                  <c:v>0.88065400000000005</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.86094000000000004</c:v>
+                  <c:v>0.85514800000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.83449600000000002</c:v>
+                  <c:v>0.82831100000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.80709500000000001</c:v>
+                  <c:v>0.80055100000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.77910100000000004</c:v>
+                  <c:v>0.77222599999999997</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.75082199999999999</c:v>
+                  <c:v>0.74363500000000005</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.72251100000000001</c:v>
+                  <c:v>0.71502699999999997</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.69437400000000005</c:v>
+                  <c:v>0.68660100000000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.66657500000000003</c:v>
+                  <c:v>0.65851700000000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.63924400000000003</c:v>
+                  <c:v>0.63090000000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.61248199999999997</c:v>
+                  <c:v>0.60384899999999997</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.58636900000000003</c:v>
+                  <c:v>0.57743800000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.56096500000000005</c:v>
+                  <c:v>0.551728</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.53631700000000004</c:v>
+                  <c:v>0.52676199999999995</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.51245700000000005</c:v>
+                  <c:v>0.50257399999999997</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.48941200000000001</c:v>
+                  <c:v>0.47919200000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.46720099999999998</c:v>
+                  <c:v>0.45663799999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.44583899999999999</c:v>
+                  <c:v>0.43492900000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.42533799999999999</c:v>
+                  <c:v>0.41408800000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.40571600000000002</c:v>
+                  <c:v>0.39413900000000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.38699499999999998</c:v>
+                  <c:v>0.37512099999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.36921799999999999</c:v>
+                  <c:v>0.357101</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.35246699999999997</c:v>
+                  <c:v>0.34021299999999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.33690599999999998</c:v>
+                  <c:v>0.32475999999999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.32288699999999998</c:v>
+                  <c:v>0.31154799999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.31117600000000001</c:v>
+                  <c:v>0.30273299999999997</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.30332500000000001</c:v>
+                  <c:v>0.30087900000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.30093900000000001</c:v>
+                  <c:v>0.30140299999999998</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.30143399999999998</c:v>
+                  <c:v>0.30197200000000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.30197400000000002</c:v>
+                  <c:v>0.30232399999999998</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.30234800000000001</c:v>
+                  <c:v>0.30253200000000002</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.30263499999999999</c:v>
+                  <c:v>0.302672</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.30285800000000002</c:v>
+                  <c:v>0.30277399999999999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.30303000000000002</c:v>
+                  <c:v>0.30285200000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.30315999999999999</c:v>
+                  <c:v>0.30291499999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.30325600000000003</c:v>
+                  <c:v>0.30296600000000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.30332300000000001</c:v>
+                  <c:v>0.30300700000000003</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.30336800000000003</c:v>
+                  <c:v>0.30304199999999998</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.30339500000000003</c:v>
+                  <c:v>0.30307000000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.30340699999999998</c:v>
+                  <c:v>0.303093</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.30340699999999998</c:v>
+                  <c:v>0.30311199999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.30339899999999997</c:v>
+                  <c:v>0.30312800000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.30338399999999999</c:v>
+                  <c:v>0.30314099999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.30336299999999999</c:v>
+                  <c:v>0.30315199999999998</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.30333700000000002</c:v>
+                  <c:v>0.30316100000000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.30330499999999999</c:v>
+                  <c:v>0.30317</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.30326599999999998</c:v>
+                  <c:v>0.30317699999999997</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.30321799999999999</c:v>
+                  <c:v>0.30318499999999998</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.30315799999999998</c:v>
+                  <c:v>0.30319299999999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.30308099999999999</c:v>
+                  <c:v>0.303201</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.302983</c:v>
+                  <c:v>0.30320999999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.30285499999999999</c:v>
+                  <c:v>0.30321900000000002</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.30268899999999999</c:v>
+                  <c:v>0.30322900000000003</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.30246899999999999</c:v>
+                  <c:v>0.30323899999999998</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.30217699999999997</c:v>
+                  <c:v>0.30324699999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.30177799999999999</c:v>
+                  <c:v>0.30325000000000002</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.301172</c:v>
+                  <c:v>0.30323499999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.299794</c:v>
+                  <c:v>0.30311500000000002</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.29335800000000001</c:v>
+                  <c:v>0.30207400000000001</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.25681700000000002</c:v>
+                  <c:v>0.29281600000000002</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.16627400000000001</c:v>
+                  <c:v>0.24004200000000001</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.110581</c:v>
+                  <c:v>0.14415900000000001</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.100966</c:v>
+                  <c:v>0.104883</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.100081</c:v>
+                  <c:v>0.10036</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.100007</c:v>
+                  <c:v>0.100025</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.10000100000000001</c:v>
+                  <c:v>0.10000199999999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>0.1</c:v>
@@ -1902,7 +1267,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2022,7 +1386,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2101,7 +1464,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2170,7 +1532,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2207,7 +1569,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2280,22 +1641,22 @@
                   <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.480718847431123</c:v>
+                  <c:v>-2.4833380076018647</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.14733328253928502</c:v>
+                  <c:v>-0.14748883804121249</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9444879707431983</c:v>
+                  <c:v>1.9465409746338773</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9444879707431983</c:v>
+                  <c:v>1.9465409746338773</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6735523414582296</c:v>
+                  <c:v>3.6774309035080357</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6735523414582296</c:v>
+                  <c:v>3.6774309035080357</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5</c:v>
@@ -2389,7 +1750,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2507,7 +1867,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2582,7 +1941,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2590,6 +1948,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2627,7 +1986,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2664,7 +2023,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2739,22 +2097,22 @@
                   <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.480718847431123</c:v>
+                  <c:v>-2.4833380076018647</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.14733328253928502</c:v>
+                  <c:v>-0.14748883804121249</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9444879707431983</c:v>
+                  <c:v>1.9465409746338773</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9444879707431983</c:v>
+                  <c:v>1.9465409746338773</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6735523414582296</c:v>
+                  <c:v>3.6774309035080357</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6735523414582296</c:v>
+                  <c:v>3.6774309035080357</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5</c:v>
@@ -2803,658 +2161,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Mach MCC</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Shock Tube Problem'!$G$21:$G$121</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-4.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-4.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-4.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-4.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-4.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-4.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-3.9</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-3.8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-3.7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-3.6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-3.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-3.4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-3.3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-3.2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-3.1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-2.9</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-2.8</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-2.7</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-2.6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-2.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-2.4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-2.1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-1.9</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-1.8</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-1.7</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-1.6</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-1.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-1.4</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-1.3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-1.2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-0.9</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-0.8</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-0.7</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-0.6</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-0.5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.4</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.3</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-0.2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-0.1</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>4.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Shock Tube Problem'!$I$21:$I$121</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.1999999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.7000000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.43E-4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.9200000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.779E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.1190000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8.6130000000000009E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.6319E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.8188999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.4781000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6.6110000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>9.1711000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.120846</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.15273800000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.186722</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.222303</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.25914999999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.29705300000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.33588400000000002</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.37556400000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.41605300000000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.457233</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.49934000000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.54149099999999994</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.58500300000000005</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.62809000000000004</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.66986199999999996</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.70958600000000005</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.74095900000000003</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.747363</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.71690399999999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.69372900000000004</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.71618000000000004</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.428733</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.3311170000000001</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.673419</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.5323439999999999</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.98778999999999995</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.93177500000000002</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.93838999999999995</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.94973600000000002</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.95426</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.94164499999999995</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.92036600000000002</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.91364900000000004</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.93360799999999999</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.96639900000000001</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.98728700000000003</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.98041800000000001</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.94545100000000004</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.89340900000000001</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.83884999999999998</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.793354</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.76202300000000001</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.74405500000000002</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.73565000000000003</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.73287800000000003</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.732935</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.73419199999999996</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.73587800000000003</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.73748899999999995</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.73864300000000005</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.73935300000000004</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.73955700000000002</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.73844500000000002</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.73916999999999999</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.75197099999999995</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.76043400000000005</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.64032299999999998</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.18208099999999999</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>7.2529999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.85E-4</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>5.0000000000000004E-6</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BE9C-4CA3-9A65-B0EEB9292529}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:v>Mach Roe</c:v>
           </c:tx>
@@ -3787,7 +2495,7 @@
             <c:numRef>
               <c:f>'Shock Tube Problem'!$L$21:$L$121</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3820,253 +2528,253 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.3E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.75E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.3800000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0039999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.111E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0920000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.352E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2319999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9379E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.8812999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.0772999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.5280000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.2248000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.1522000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.112912</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.136215</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.161242</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.18781700000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.21579000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.245033</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.27544000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.306923</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.33940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37284200000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.407169</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.44235000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.478348</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.51512800000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.55265399999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.59088700000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.629776</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.66925599999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.70923000000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.749552</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.78997399999999995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.83003300000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.86872700000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.90350600000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.92760799999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.93264000000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.93097200000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.92915000000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.92789600000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.92699200000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.92620599999999997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.92542400000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.92455600000000004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.92346799999999996</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.92191000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.91943699999999995</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.91537000000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.90885199999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.89903299999999997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.88535299999999995</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.86782099999999995</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.84718599999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.82489199999999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.80279599999999995</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.78273599999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.76608200000000004</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.75346599999999997</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74476500000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.73932299999999995</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.73625700000000005</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.73472499999999996</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.73407</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.73385500000000004</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.73382599999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.73385</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.73384799999999994</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.73363</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.731549</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.71250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.58981399999999995</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.25731799999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.4112000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.5690000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.8000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.2E-5</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.9999999999999998E-6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.5E-5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.6999999999999997E-5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.3300000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.4299999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.0999999999999996E-4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.751E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.483E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.4060000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.0956E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.7537000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.6459E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.7891000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.1867999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.8310999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>8.7063000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.107928</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.13070100000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.15518299999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.18119299999999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.20857300000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.23718700000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.26691999999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.29767700000000002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.329374</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.36194300000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.39532499999999998</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.42946699999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.46432200000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.49984600000000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.53599300000000005</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.57271799999999995</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.60996899999999998</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.64768300000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.68577699999999997</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.72413400000000006</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.76257200000000003</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.80077699999999996</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.83817200000000003</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.87358999999999998</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.90453799999999995</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.92600400000000005</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.932562</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.93103599999999997</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.92940199999999995</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.92830199999999996</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.92760799999999999</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.92738299999999996</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.92766300000000002</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.92825800000000003</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.92851700000000004</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.92718900000000004</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.92252199999999995</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.91269999999999996</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.89649100000000004</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.87388100000000002</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.84639600000000004</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.81690700000000005</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.78891699999999998</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.76552699999999996</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.74852200000000002</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.73802000000000001</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.73280199999999995</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.73106499999999996</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.73112200000000005</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.73177599999999998</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.73236800000000002</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.73263299999999998</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.73252600000000001</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.73207</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.73127299999999995</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.72999599999999998</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.72713700000000003</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.71364700000000003</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.63600299999999999</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.371591</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>7.4145000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>6.894E-3</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>5.8E-4</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>5.0000000000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>3.9999999999999998E-6</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>0</c:v>
@@ -4146,7 +2854,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4266,7 +2973,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4349,8 +3055,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.74865769384942238"/>
-          <c:y val="0.18095122625913027"/>
+          <c:x val="0.74865775768794884"/>
+          <c:y val="0.12351961370522413"/>
           <c:w val="0.20412584656712343"/>
           <c:h val="0.17294267550458839"/>
         </c:manualLayout>
@@ -4423,7 +3129,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4460,7 +3166,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4535,22 +3240,22 @@
                   <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.480718847431123</c:v>
+                  <c:v>-2.4833380076018647</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.14733328253928502</c:v>
+                  <c:v>-0.14748883804121249</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9444879707431983</c:v>
+                  <c:v>1.9465409746338773</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9444879707431983</c:v>
+                  <c:v>1.9465409746338773</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6735523414582296</c:v>
+                  <c:v>3.6774309035080357</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6735523414582296</c:v>
+                  <c:v>3.6774309035080357</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5</c:v>
@@ -4599,658 +3304,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Ptot MCC</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Shock Tube Problem'!$G$21:$G$121</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-4.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-4.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-4.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-4.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-4.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-4.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-3.9</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-3.8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-3.7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-3.6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-3.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-3.4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-3.3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-3.2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-3.1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-2.9</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-2.8</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-2.7</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-2.6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-2.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-2.4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-2.1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-1.9</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-1.8</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-1.7</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-1.6</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-1.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-1.4</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-1.3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-1.2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-0.9</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-0.8</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-0.7</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-0.6</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-0.5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.4</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.3</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-0.2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-0.1</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>4.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Shock Tube Problem'!$J$21:$J$121</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.99999800000000005</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.99999199999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.999969</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.999892</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.99965999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.999031</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.99751599999999996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.99426400000000004</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.98807500000000004</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.97762899999999997</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.96194199999999996</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.940805</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.91493500000000005</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.88570899999999997</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.85471699999999995</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.82335899999999995</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.79266700000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.76329800000000003</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.73561600000000005</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.70979400000000004</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.68588800000000005</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.66389600000000004</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.64378800000000003</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.62549200000000005</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.60906099999999996</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.59413499999999997</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.58129799999999998</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.56990499999999999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.55999500000000002</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.55245500000000003</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.547898</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.54693999999999998</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.550257</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.55548500000000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.55154300000000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.57858699999999996</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.56328699999999998</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.63630600000000004</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.60045800000000005</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.530111</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.529999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.53305599999999997</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.54051400000000005</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.544076</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.53705499999999995</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.52524800000000005</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.52200400000000002</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.53400199999999998</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.554423</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.56814299999999995</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.56383700000000003</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.54193899999999995</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.51168499999999995</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.48288599999999998</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.46093200000000001</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.44673299999999999</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.43876700000000002</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.43495</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.43359300000000001</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.43362299999999998</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.434448</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.43568299999999999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.43693399999999999</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.43785000000000002</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.438467</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.43876500000000002</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.43787599999999999</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.43920700000000001</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.45486500000000002</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.46629500000000002</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.33727600000000002</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.13174</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.101022</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.100026</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.10000100000000001</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B8EA-442D-AD84-CE2C7CD73389}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:v>Ptot Roe</c:v>
           </c:tx>
@@ -5583,7 +3638,7 @@
             <c:numRef>
               <c:f>'Shock Tube Problem'!$M$21:$M$121</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -5613,253 +3668,253 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0.99999899999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999899999999997</c:v>
+                  <c:v>0.99999800000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99999400000000005</c:v>
+                  <c:v>0.99999099999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.99997899999999995</c:v>
+                  <c:v>0.99997100000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.99993500000000002</c:v>
+                  <c:v>0.99991099999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.99981399999999998</c:v>
+                  <c:v>0.99975499999999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99951900000000005</c:v>
+                  <c:v>0.99938700000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.99886699999999995</c:v>
+                  <c:v>0.99859600000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.99755300000000002</c:v>
+                  <c:v>0.99705200000000005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.99514400000000003</c:v>
+                  <c:v>0.99430099999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.99110100000000001</c:v>
+                  <c:v>0.98980299999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.98486700000000005</c:v>
+                  <c:v>0.98302100000000003</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97597599999999995</c:v>
+                  <c:v>0.97353100000000004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.96416199999999996</c:v>
+                  <c:v>0.96111599999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.94941500000000001</c:v>
+                  <c:v>0.94580299999999995</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.93196599999999996</c:v>
+                  <c:v>0.92785300000000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.91222999999999999</c:v>
+                  <c:v>0.90768899999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.89072200000000001</c:v>
+                  <c:v>0.88582899999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.867981</c:v>
+                  <c:v>0.86280400000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.84451699999999996</c:v>
+                  <c:v>0.83911899999999995</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.82078200000000001</c:v>
+                  <c:v>0.81521500000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.79715400000000003</c:v>
+                  <c:v>0.791462</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.77393599999999996</c:v>
+                  <c:v>0.76815800000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.75136599999999998</c:v>
+                  <c:v>0.74553199999999997</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.72962499999999997</c:v>
+                  <c:v>0.72376099999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.70884499999999995</c:v>
+                  <c:v>0.70297299999999996</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.68911900000000004</c:v>
+                  <c:v>0.68325800000000003</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.670512</c:v>
+                  <c:v>0.66467799999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.65306200000000003</c:v>
+                  <c:v>0.64727400000000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.63679300000000005</c:v>
+                  <c:v>0.63106799999999996</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.62171299999999996</c:v>
+                  <c:v>0.61607199999999995</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.60782000000000003</c:v>
+                  <c:v>0.60228599999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.59510700000000005</c:v>
+                  <c:v>0.58970699999999998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.58355999999999997</c:v>
+                  <c:v>0.57832600000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.57316100000000003</c:v>
+                  <c:v>0.56813199999999997</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.56389100000000003</c:v>
+                  <c:v>0.559114</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.55572999999999995</c:v>
+                  <c:v>0.55125800000000003</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.54865600000000003</c:v>
+                  <c:v>0.54455100000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.54265099999999999</c:v>
+                  <c:v>0.53897799999999996</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.53769400000000001</c:v>
+                  <c:v>0.53452599999999995</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.53376699999999999</c:v>
+                  <c:v>0.53118200000000004</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.53084500000000001</c:v>
+                  <c:v>0.52893100000000004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.52889399999999998</c:v>
+                  <c:v>0.52774600000000005</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.52783999999999998</c:v>
+                  <c:v>0.52745299999999995</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.52751199999999998</c:v>
+                  <c:v>0.52739199999999997</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.52748399999999995</c:v>
+                  <c:v>0.52731899999999998</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.52747100000000002</c:v>
+                  <c:v>0.52720100000000003</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.52747999999999995</c:v>
+                  <c:v>0.52703599999999995</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.52757500000000002</c:v>
+                  <c:v>0.52682099999999998</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.527833</c:v>
+                  <c:v>0.52654299999999998</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.52829599999999999</c:v>
+                  <c:v>0.526173</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.52887099999999998</c:v>
+                  <c:v>0.52564999999999995</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.52919000000000005</c:v>
+                  <c:v>0.52483500000000005</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.52852900000000003</c:v>
+                  <c:v>0.523478</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.52588699999999999</c:v>
+                  <c:v>0.52120200000000005</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.52028399999999997</c:v>
+                  <c:v>0.517544</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.51120699999999997</c:v>
+                  <c:v>0.51208500000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.49897399999999997</c:v>
+                  <c:v>0.50462399999999996</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.48477999999999999</c:v>
+                  <c:v>0.49532599999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.47035399999999999</c:v>
+                  <c:v>0.48476399999999997</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.457395</c:v>
+                  <c:v>0.47381000000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.44708700000000001</c:v>
+                  <c:v>0.46340700000000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.43986999999999998</c:v>
+                  <c:v>0.454345</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.43550699999999998</c:v>
+                  <c:v>0.44708999999999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.43333199999999999</c:v>
+                  <c:v>0.44175500000000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.43254999999999999</c:v>
+                  <c:v>0.43815599999999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.43246299999999999</c:v>
+                  <c:v>0.435942</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.43258400000000002</c:v>
+                  <c:v>0.43471199999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.432639</c:v>
+                  <c:v>0.43410700000000002</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.432508</c:v>
+                  <c:v>0.43385800000000002</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.43215100000000001</c:v>
+                  <c:v>0.43378499999999998</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.43155199999999999</c:v>
+                  <c:v>0.43378499999999998</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.43066399999999999</c:v>
+                  <c:v>0.43379800000000002</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.42929200000000001</c:v>
+                  <c:v>0.43377599999999999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.426203</c:v>
+                  <c:v>0.43351699999999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.41194399999999998</c:v>
+                  <c:v>0.43119600000000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.33718900000000002</c:v>
+                  <c:v>0.41075600000000001</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.18290799999999999</c:v>
+                  <c:v>0.303759</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.11100699999999999</c:v>
+                  <c:v>0.150952</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.100969</c:v>
+                  <c:v>0.10496800000000001</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.100081</c:v>
+                  <c:v>0.10036100000000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.100007</c:v>
+                  <c:v>0.100025</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.10000100000000001</c:v>
+                  <c:v>0.10000199999999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>0.1</c:v>
@@ -5942,7 +3997,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6062,7 +4116,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6141,7 +4194,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.7804856856179252"/>
+          <c:y val="0.36568256139084993"/>
+          <c:w val="0.18444986823628923"/>
+          <c:h val="0.11555513289044067"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8654,20 +6716,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z121"/>
+  <dimension ref="A1:Z122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB29" sqref="AB29"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="21" max="21" width="9.5546875" style="3" customWidth="1"/>
-    <col min="22" max="22" width="9.109375" style="3"/>
+    <col min="12" max="12" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.53125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -8760,13 +6823,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>6.6299999999999996E-3</v>
+        <v>6.6369999999999997E-3</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
-      </c>
-      <c r="D8">
-        <v>7.319E-3</v>
       </c>
       <c r="U8" s="2"/>
     </row>
@@ -8804,6 +6864,16 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <f>B1/B3/287</f>
+        <v>348.43205574912889</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
       <c r="U11" s="2"/>
     </row>
     <row r="12" spans="1:21">
@@ -8997,7 +7067,7 @@
       </c>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:26">
       <c r="G17" t="s">
         <v>36</v>
       </c>
@@ -9010,7 +7080,7 @@
       </c>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21" ht="15" thickBot="1">
+    <row r="18" spans="1:26" ht="14.65" thickBot="1">
       <c r="G18" t="s">
         <v>37</v>
       </c>
@@ -9020,7 +7090,7 @@
       </c>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:26">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
@@ -9030,19 +7100,18 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="H19" s="4"/>
       <c r="I19" s="5"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="5" t="s">
-        <v>50</v>
+      <c r="K19" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="6"/>
       <c r="U19" s="2"/>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="Z19" s="14"/>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" s="7"/>
       <c r="B20" s="8" t="s">
         <v>12</v>
@@ -9062,16 +7131,10 @@
       <c r="G20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" s="8" t="s">
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L20" s="8" t="s">
@@ -9081,8 +7144,9 @@
         <v>47</v>
       </c>
       <c r="U20" s="2"/>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="Z20" s="14"/>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
@@ -9108,33 +7172,28 @@
       <c r="G21" s="7">
         <v>-5</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="15">
         <v>1</v>
       </c>
-      <c r="I21" s="8">
+      <c r="L21" s="16">
         <v>0</v>
       </c>
-      <c r="J21" s="9">
+      <c r="M21" s="17">
         <v>1</v>
       </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
       <c r="U21" s="2"/>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="Z21" s="14"/>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="8">
         <f>B6-K15*B8-5</f>
-        <v>-2.480718847431123</v>
+        <v>-2.4833380076018647</v>
       </c>
       <c r="C22" s="8">
         <f>K13/100000</f>
@@ -9155,33 +7214,28 @@
       <c r="G22" s="7">
         <v>-4.9000000000000004</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="15">
         <v>1</v>
       </c>
-      <c r="I22" s="8">
+      <c r="L22" s="16">
         <v>0</v>
       </c>
-      <c r="J22" s="9">
+      <c r="M22" s="17">
         <v>1</v>
       </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
       <c r="U22" s="2"/>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="Z22" s="14"/>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B23" s="8">
         <f>B6+(H16-H15)*B8-5</f>
-        <v>-0.14733328253928502</v>
+        <v>-0.14748883804121249</v>
       </c>
       <c r="C23" s="8">
         <f>H13/100000</f>
@@ -9202,33 +7256,28 @@
       <c r="G23" s="7">
         <v>-4.8</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="15">
         <v>1</v>
       </c>
-      <c r="I23" s="8">
+      <c r="L23" s="16">
         <v>0</v>
       </c>
-      <c r="J23" s="9">
+      <c r="M23" s="17">
         <v>1</v>
       </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
       <c r="U23" s="2"/>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="Z23" s="14"/>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="8">
         <f>B6+B8*H16-5</f>
-        <v>1.9444879707431983</v>
+        <v>1.9465409746338773</v>
       </c>
       <c r="C24" s="8">
         <f>H13/100000</f>
@@ -9249,33 +7298,28 @@
       <c r="G24" s="7">
         <v>-4.7</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="15">
         <v>1</v>
       </c>
-      <c r="I24" s="8">
+      <c r="L24" s="16">
         <v>0</v>
       </c>
-      <c r="J24" s="9">
+      <c r="M24" s="17">
         <v>1</v>
       </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
       <c r="U24" s="2"/>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="Z24" s="14"/>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="8">
         <f>B6+B8*H16-5</f>
-        <v>1.9444879707431983</v>
+        <v>1.9465409746338773</v>
       </c>
       <c r="C25" s="8">
         <f>E13/100000</f>
@@ -9296,33 +7340,28 @@
       <c r="G25" s="7">
         <v>-4.5999999999999996</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="7"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="15">
         <v>1</v>
       </c>
-      <c r="I25" s="8">
+      <c r="L25" s="16">
         <v>0</v>
       </c>
-      <c r="J25" s="9">
+      <c r="M25" s="17">
         <v>1</v>
       </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
       <c r="U25" s="2"/>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="Z25" s="14"/>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="8">
         <f>B6+B8*B12-5</f>
-        <v>3.6735523414582296</v>
+        <v>3.6774309035080357</v>
       </c>
       <c r="C26" s="8">
         <f>E13/100000</f>
@@ -9343,33 +7382,28 @@
       <c r="G26" s="7">
         <v>-4.5</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="7"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="15">
         <v>1</v>
       </c>
-      <c r="I26" s="8">
+      <c r="L26" s="16">
         <v>0</v>
       </c>
-      <c r="J26" s="9">
+      <c r="M26" s="17">
         <v>1</v>
       </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
       <c r="U26" s="2"/>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="Z26" s="14"/>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B27" s="8">
         <f>B6+B8*B12-5</f>
-        <v>3.6735523414582296</v>
+        <v>3.6774309035080357</v>
       </c>
       <c r="C27" s="8">
         <f>B13/100000</f>
@@ -9390,27 +7424,22 @@
       <c r="G27" s="7">
         <v>-4.4000000000000004</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="7"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="15">
         <v>1</v>
       </c>
-      <c r="I27" s="8">
+      <c r="L27" s="16">
         <v>0</v>
       </c>
-      <c r="J27" s="9">
+      <c r="M27" s="17">
         <v>1</v>
       </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
       <c r="U27" s="2"/>
-    </row>
-    <row r="28" spans="1:21" ht="15" thickBot="1">
+      <c r="Z27" s="14"/>
+    </row>
+    <row r="28" spans="1:26" ht="14.65" thickBot="1">
       <c r="A28" s="10" t="s">
         <v>43</v>
       </c>
@@ -9437,2240 +7466,1769 @@
       <c r="G28" s="7">
         <v>-4.3</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="7"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="15">
         <v>1</v>
       </c>
-      <c r="I28" s="8">
+      <c r="L28" s="16">
         <v>0</v>
       </c>
-      <c r="J28" s="9">
+      <c r="M28" s="17">
         <v>1</v>
       </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
       <c r="U28" s="2"/>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="Z28" s="14"/>
+    </row>
+    <row r="29" spans="1:26">
       <c r="G29" s="7">
         <v>-4.2</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="7"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="15">
         <v>1</v>
       </c>
-      <c r="I29" s="8">
+      <c r="L29" s="16">
         <v>0</v>
       </c>
-      <c r="J29" s="9">
+      <c r="M29" s="17">
         <v>1</v>
       </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
       <c r="U29" s="2"/>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="Z29" s="14"/>
+    </row>
+    <row r="30" spans="1:26">
       <c r="G30" s="7">
         <v>-4.0999999999999996</v>
       </c>
-      <c r="H30" s="7">
-        <v>1</v>
-      </c>
-      <c r="I30" s="8">
+      <c r="H30" s="7"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="15">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="L30" s="16">
         <v>0</v>
       </c>
-      <c r="J30" s="9">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
+      <c r="M30" s="17">
+        <v>0.99999899999999997</v>
       </c>
       <c r="U30" s="2"/>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="Z30" s="14"/>
+    </row>
+    <row r="31" spans="1:26">
       <c r="G31" s="7">
         <v>-4</v>
       </c>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
-      <c r="I31" s="8">
-        <v>0</v>
-      </c>
-      <c r="J31" s="9">
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="L31">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="M31">
-        <v>0.99999899999999997</v>
+      <c r="H31" s="7"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="15">
+        <v>0.99999800000000005</v>
+      </c>
+      <c r="L31" s="16">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="M31" s="17">
+        <v>0.99999800000000005</v>
       </c>
       <c r="U31" s="2"/>
-    </row>
-    <row r="32" spans="1:21">
+      <c r="Z31" s="14"/>
+    </row>
+    <row r="32" spans="1:26">
       <c r="G32" s="7">
         <v>-3.9</v>
       </c>
-      <c r="H32" s="7">
-        <v>1</v>
-      </c>
-      <c r="I32" s="8">
-        <v>0</v>
-      </c>
-      <c r="J32" s="9">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>0.99999400000000005</v>
-      </c>
-      <c r="L32">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="M32">
-        <v>0.99999400000000005</v>
+      <c r="H32" s="7"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="15">
+        <v>0.99999099999999996</v>
+      </c>
+      <c r="L32" s="16">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="M32" s="17">
+        <v>0.99999099999999996</v>
       </c>
       <c r="U32" s="2"/>
+      <c r="Z32" s="14"/>
     </row>
     <row r="33" spans="7:26">
       <c r="G33" s="7">
         <v>-3.8</v>
       </c>
-      <c r="H33" s="7">
-        <v>1</v>
-      </c>
-      <c r="I33" s="8">
-        <v>0</v>
-      </c>
-      <c r="J33" s="9">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>0.99997899999999995</v>
-      </c>
-      <c r="L33">
-        <v>1.5E-5</v>
-      </c>
-      <c r="M33">
-        <v>0.99997899999999995</v>
+      <c r="H33" s="7"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="15">
+        <v>0.99997100000000005</v>
+      </c>
+      <c r="L33" s="16">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="M33" s="17">
+        <v>0.99997100000000005</v>
       </c>
       <c r="U33" s="2"/>
+      <c r="Z33" s="14"/>
     </row>
     <row r="34" spans="7:26">
       <c r="G34" s="7">
         <v>-3.7</v>
       </c>
-      <c r="H34" s="7">
-        <v>1</v>
-      </c>
-      <c r="I34" s="8">
-        <v>0</v>
-      </c>
-      <c r="J34" s="9">
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <v>0.99993500000000002</v>
-      </c>
-      <c r="L34">
-        <v>4.6999999999999997E-5</v>
-      </c>
-      <c r="M34">
-        <v>0.99993500000000002</v>
+      <c r="H34" s="7"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="15">
+        <v>0.99991099999999999</v>
+      </c>
+      <c r="L34" s="16">
+        <v>6.3E-5</v>
+      </c>
+      <c r="M34" s="17">
+        <v>0.99991099999999999</v>
       </c>
       <c r="U34" s="2"/>
+      <c r="Z34" s="14"/>
     </row>
     <row r="35" spans="7:26">
       <c r="G35" s="7">
         <v>-3.6</v>
       </c>
-      <c r="H35" s="7">
-        <v>1</v>
-      </c>
-      <c r="I35" s="8">
-        <v>0</v>
-      </c>
-      <c r="J35" s="9">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>0.99981399999999998</v>
-      </c>
-      <c r="L35">
-        <v>1.3300000000000001E-4</v>
-      </c>
-      <c r="M35">
-        <v>0.99981399999999998</v>
+      <c r="H35" s="7"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="15">
+        <v>0.99975499999999995</v>
+      </c>
+      <c r="L35" s="16">
+        <v>1.75E-4</v>
+      </c>
+      <c r="M35" s="17">
+        <v>0.99975499999999995</v>
       </c>
       <c r="U35" s="2"/>
+      <c r="Z35" s="14"/>
     </row>
     <row r="36" spans="7:26">
       <c r="G36" s="7">
         <v>-3.5</v>
       </c>
-      <c r="H36" s="7">
-        <v>0.99999800000000005</v>
-      </c>
-      <c r="I36" s="8">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="J36" s="9">
-        <v>0.99999800000000005</v>
-      </c>
-      <c r="K36">
-        <v>0.99951900000000005</v>
-      </c>
-      <c r="L36">
-        <v>3.4299999999999999E-4</v>
-      </c>
-      <c r="M36">
-        <v>0.99951900000000005</v>
+      <c r="H36" s="7"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="15">
+        <v>0.999386</v>
+      </c>
+      <c r="L36" s="16">
+        <v>4.3800000000000002E-4</v>
+      </c>
+      <c r="M36" s="17">
+        <v>0.99938700000000003</v>
       </c>
       <c r="U36" s="2"/>
+      <c r="Z36" s="14"/>
     </row>
     <row r="37" spans="7:26">
       <c r="G37" s="7">
         <v>-3.4</v>
       </c>
-      <c r="H37" s="7">
-        <v>0.99999199999999999</v>
-      </c>
-      <c r="I37" s="8">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="J37" s="9">
-        <v>0.99999199999999999</v>
-      </c>
-      <c r="K37">
-        <v>0.99886600000000003</v>
-      </c>
-      <c r="L37">
-        <v>8.0999999999999996E-4</v>
-      </c>
-      <c r="M37">
-        <v>0.99886699999999995</v>
+      <c r="H37" s="7"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="15">
+        <v>0.99859500000000001</v>
+      </c>
+      <c r="L37" s="16">
+        <v>1.0039999999999999E-3</v>
+      </c>
+      <c r="M37" s="17">
+        <v>0.99859600000000004</v>
       </c>
       <c r="U37" s="2"/>
+      <c r="Z37" s="14"/>
     </row>
     <row r="38" spans="7:26">
       <c r="G38" s="7">
         <v>-3.3</v>
       </c>
-      <c r="H38" s="7">
-        <v>0.999969</v>
-      </c>
-      <c r="I38" s="8">
-        <v>2.1999999999999999E-5</v>
-      </c>
-      <c r="J38" s="9">
-        <v>0.999969</v>
-      </c>
-      <c r="K38">
-        <v>0.99755099999999997</v>
-      </c>
-      <c r="L38">
-        <v>1.751E-3</v>
-      </c>
-      <c r="M38">
-        <v>0.99755300000000002</v>
+      <c r="H38" s="7"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="15">
+        <v>0.99704899999999996</v>
+      </c>
+      <c r="L38" s="16">
+        <v>2.111E-3</v>
+      </c>
+      <c r="M38" s="17">
+        <v>0.99705200000000005</v>
       </c>
       <c r="U38" s="2"/>
+      <c r="Z38" s="14"/>
     </row>
     <row r="39" spans="7:26">
       <c r="G39" s="7">
         <v>-3.2</v>
       </c>
-      <c r="H39" s="7">
-        <v>0.999892</v>
-      </c>
-      <c r="I39" s="8">
-        <v>7.7000000000000001E-5</v>
-      </c>
-      <c r="J39" s="9">
-        <v>0.999892</v>
-      </c>
-      <c r="K39">
-        <v>0.99513499999999999</v>
-      </c>
-      <c r="L39">
-        <v>3.483E-3</v>
-      </c>
-      <c r="M39">
-        <v>0.99514400000000003</v>
+      <c r="H39" s="7"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="15">
+        <v>0.99428899999999998</v>
+      </c>
+      <c r="L39" s="16">
+        <v>4.0920000000000002E-3</v>
+      </c>
+      <c r="M39" s="17">
+        <v>0.99430099999999999</v>
       </c>
       <c r="U39" s="2"/>
+      <c r="Z39" s="14"/>
     </row>
     <row r="40" spans="7:26">
       <c r="G40" s="7">
         <v>-3.1</v>
       </c>
-      <c r="H40" s="7">
-        <v>0.99965999999999999</v>
-      </c>
-      <c r="I40" s="8">
-        <v>2.43E-4</v>
-      </c>
-      <c r="J40" s="9">
-        <v>0.99965999999999999</v>
-      </c>
-      <c r="K40">
-        <v>0.99107299999999998</v>
-      </c>
-      <c r="L40">
-        <v>6.4060000000000002E-3</v>
-      </c>
-      <c r="M40">
-        <v>0.99110100000000001</v>
+      <c r="H40" s="7"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="15">
+        <v>0.98976500000000001</v>
+      </c>
+      <c r="L40" s="16">
+        <v>7.352E-3</v>
+      </c>
+      <c r="M40" s="17">
+        <v>0.98980299999999999</v>
       </c>
       <c r="U40" s="2"/>
-      <c r="Z40">
-        <v>9</v>
-      </c>
+      <c r="Z40" s="14"/>
     </row>
     <row r="41" spans="7:26">
       <c r="G41" s="7">
         <v>-3</v>
       </c>
-      <c r="H41" s="7">
-        <v>0.999031</v>
-      </c>
-      <c r="I41" s="8">
-        <v>6.9200000000000002E-4</v>
-      </c>
-      <c r="J41" s="9">
-        <v>0.999031</v>
-      </c>
-      <c r="K41">
-        <v>0.98478399999999999</v>
-      </c>
-      <c r="L41">
-        <v>1.0956E-2</v>
-      </c>
-      <c r="M41">
-        <v>0.98486700000000005</v>
+      <c r="H41" s="7"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="15">
+        <v>0.98291600000000001</v>
+      </c>
+      <c r="L41" s="16">
+        <v>1.2319999999999999E-2</v>
+      </c>
+      <c r="M41" s="17">
+        <v>0.98302100000000003</v>
       </c>
       <c r="U41" s="2"/>
+      <c r="Z41" s="14"/>
     </row>
     <row r="42" spans="7:26">
       <c r="G42" s="7">
         <v>-2.9</v>
       </c>
-      <c r="H42" s="7">
-        <v>0.99751400000000001</v>
-      </c>
-      <c r="I42" s="8">
-        <v>1.779E-3</v>
-      </c>
-      <c r="J42" s="9">
-        <v>0.99751599999999996</v>
-      </c>
-      <c r="K42">
-        <v>0.97576600000000002</v>
-      </c>
-      <c r="L42">
-        <v>1.7537000000000001E-2</v>
-      </c>
-      <c r="M42">
-        <v>0.97597599999999995</v>
+      <c r="H42" s="7"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="15">
+        <v>0.973275</v>
+      </c>
+      <c r="L42" s="16">
+        <v>1.9379E-2</v>
+      </c>
+      <c r="M42" s="17">
+        <v>0.97353100000000004</v>
       </c>
       <c r="U42" s="2"/>
+      <c r="Z42" s="14"/>
     </row>
     <row r="43" spans="7:26">
       <c r="G43" s="7">
         <v>-2.8</v>
       </c>
-      <c r="H43" s="7">
-        <v>0.99425200000000002</v>
-      </c>
-      <c r="I43" s="8">
-        <v>4.1190000000000003E-3</v>
-      </c>
-      <c r="J43" s="9">
-        <v>0.99426400000000004</v>
-      </c>
-      <c r="K43">
-        <v>0.96369000000000005</v>
-      </c>
-      <c r="L43">
-        <v>2.6459E-2</v>
-      </c>
-      <c r="M43">
-        <v>0.96416199999999996</v>
+      <c r="H43" s="7"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="15">
+        <v>0.96055699999999999</v>
+      </c>
+      <c r="L43" s="16">
+        <v>2.8812999999999998E-2</v>
+      </c>
+      <c r="M43" s="17">
+        <v>0.96111599999999997</v>
       </c>
       <c r="U43" s="2"/>
+      <c r="Z43" s="14"/>
     </row>
     <row r="44" spans="7:26">
       <c r="G44" s="7">
         <v>-2.7</v>
       </c>
-      <c r="H44" s="7">
-        <v>0.98802400000000001</v>
-      </c>
-      <c r="I44" s="8">
-        <v>8.6130000000000009E-3</v>
-      </c>
-      <c r="J44" s="9">
-        <v>0.98807500000000004</v>
-      </c>
-      <c r="K44">
-        <v>0.948461</v>
-      </c>
-      <c r="L44">
-        <v>3.7891000000000001E-2</v>
-      </c>
-      <c r="M44">
-        <v>0.94941500000000001</v>
+      <c r="H44" s="7"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="15">
+        <v>0.94470299999999996</v>
+      </c>
+      <c r="L44" s="16">
+        <v>4.0772999999999997E-2</v>
+      </c>
+      <c r="M44" s="17">
+        <v>0.94580299999999995</v>
       </c>
       <c r="U44" s="2"/>
+      <c r="Z44" s="14"/>
     </row>
     <row r="45" spans="7:26">
       <c r="G45" s="7">
         <v>-2.6</v>
       </c>
-      <c r="H45" s="7">
-        <v>0.97744699999999995</v>
-      </c>
-      <c r="I45" s="8">
-        <v>1.6319E-2</v>
-      </c>
-      <c r="J45" s="9">
-        <v>0.97762899999999997</v>
-      </c>
-      <c r="K45">
-        <v>0.93021299999999996</v>
-      </c>
-      <c r="L45">
-        <v>5.1867999999999997E-2</v>
-      </c>
-      <c r="M45">
-        <v>0.93196599999999996</v>
+      <c r="H45" s="7"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="15">
+        <v>0.925871</v>
+      </c>
+      <c r="L45" s="16">
+        <v>5.5280000000000003E-2</v>
+      </c>
+      <c r="M45" s="17">
+        <v>0.92785300000000004</v>
       </c>
       <c r="U45" s="2"/>
+      <c r="Z45" s="14"/>
     </row>
     <row r="46" spans="7:26">
       <c r="G46" s="7">
         <v>-2.5</v>
       </c>
-      <c r="H46" s="7">
-        <v>0.96140700000000001</v>
-      </c>
-      <c r="I46" s="8">
-        <v>2.8188999999999999E-2</v>
-      </c>
-      <c r="J46" s="9">
-        <v>0.96194199999999996</v>
-      </c>
-      <c r="K46">
-        <v>0.90925699999999998</v>
-      </c>
-      <c r="L46">
-        <v>6.8310999999999997E-2</v>
-      </c>
-      <c r="M46">
-        <v>0.91222999999999999</v>
+      <c r="H46" s="7"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="15">
+        <v>0.90438099999999999</v>
+      </c>
+      <c r="L46" s="16">
+        <v>7.2248000000000007E-2</v>
+      </c>
+      <c r="M46" s="17">
+        <v>0.90768899999999997</v>
       </c>
       <c r="U46" s="2"/>
+      <c r="Z46" s="14"/>
     </row>
     <row r="47" spans="7:26">
       <c r="G47" s="7">
         <v>-2.4</v>
       </c>
-      <c r="H47" s="7">
-        <v>0.93948600000000004</v>
-      </c>
-      <c r="I47" s="8">
-        <v>4.4781000000000001E-2</v>
-      </c>
-      <c r="J47" s="9">
-        <v>0.940805</v>
-      </c>
-      <c r="K47">
-        <v>0.88601200000000002</v>
-      </c>
-      <c r="L47">
-        <v>8.7063000000000001E-2</v>
-      </c>
-      <c r="M47">
-        <v>0.89072200000000001</v>
+      <c r="H47" s="7"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="15">
+        <v>0.88065400000000005</v>
+      </c>
+      <c r="L47" s="16">
+        <v>9.1522000000000006E-2</v>
+      </c>
+      <c r="M47" s="17">
+        <v>0.88582899999999998</v>
       </c>
       <c r="U47" s="2"/>
+      <c r="Z47" s="14"/>
     </row>
     <row r="48" spans="7:26">
       <c r="G48" s="7">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="H48" s="7">
-        <v>0.91214099999999998</v>
-      </c>
-      <c r="I48" s="8">
-        <v>6.6110000000000002E-2</v>
-      </c>
-      <c r="J48" s="9">
-        <v>0.91493500000000005</v>
-      </c>
-      <c r="K48">
-        <v>0.86094000000000004</v>
-      </c>
-      <c r="L48">
-        <v>0.107928</v>
-      </c>
-      <c r="M48">
-        <v>0.867981</v>
+      <c r="H48" s="7"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="15">
+        <v>0.85514800000000002</v>
+      </c>
+      <c r="L48" s="16">
+        <v>0.112912</v>
+      </c>
+      <c r="M48" s="17">
+        <v>0.86280400000000002</v>
       </c>
       <c r="U48" s="2"/>
-    </row>
-    <row r="49" spans="7:21">
+      <c r="Z48" s="14"/>
+    </row>
+    <row r="49" spans="7:26">
       <c r="G49" s="7">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="H49" s="7">
-        <v>0.88051400000000002</v>
-      </c>
-      <c r="I49" s="8">
-        <v>9.1711000000000001E-2</v>
-      </c>
-      <c r="J49" s="9">
-        <v>0.88570899999999997</v>
-      </c>
-      <c r="K49">
-        <v>0.83449600000000002</v>
-      </c>
-      <c r="L49">
-        <v>0.13070100000000001</v>
-      </c>
-      <c r="M49">
-        <v>0.84451699999999996</v>
+      <c r="H49" s="7"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="15">
+        <v>0.82831100000000002</v>
+      </c>
+      <c r="L49" s="16">
+        <v>0.136215</v>
+      </c>
+      <c r="M49" s="17">
+        <v>0.83911899999999995</v>
       </c>
       <c r="U49" s="2"/>
-    </row>
-    <row r="50" spans="7:21">
+      <c r="Z49" s="14"/>
+    </row>
+    <row r="50" spans="7:26">
       <c r="G50" s="7">
         <v>-2.1</v>
       </c>
-      <c r="H50" s="7">
-        <v>0.84603600000000001</v>
-      </c>
-      <c r="I50" s="8">
-        <v>0.120846</v>
-      </c>
-      <c r="J50" s="9">
-        <v>0.85471699999999995</v>
-      </c>
-      <c r="K50">
-        <v>0.80709500000000001</v>
-      </c>
-      <c r="L50">
-        <v>0.15518299999999999</v>
-      </c>
-      <c r="M50">
-        <v>0.82078200000000001</v>
+      <c r="H50" s="7"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="15">
+        <v>0.80055100000000001</v>
+      </c>
+      <c r="L50" s="16">
+        <v>0.161242</v>
+      </c>
+      <c r="M50" s="17">
+        <v>0.81521500000000002</v>
       </c>
       <c r="U50" s="2"/>
-    </row>
-    <row r="51" spans="7:21">
+      <c r="Z50" s="14"/>
+    </row>
+    <row r="51" spans="7:26">
       <c r="G51" s="7">
         <v>-2</v>
       </c>
-      <c r="H51" s="7">
-        <v>0.81005300000000002</v>
-      </c>
-      <c r="I51" s="8">
-        <v>0.15273800000000001</v>
-      </c>
-      <c r="J51" s="9">
-        <v>0.82335899999999995</v>
-      </c>
-      <c r="K51">
-        <v>0.77910100000000004</v>
-      </c>
-      <c r="L51">
-        <v>0.18119299999999999</v>
-      </c>
-      <c r="M51">
-        <v>0.79715400000000003</v>
+      <c r="H51" s="7"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="15">
+        <v>0.77222599999999997</v>
+      </c>
+      <c r="L51" s="16">
+        <v>0.18781700000000001</v>
+      </c>
+      <c r="M51" s="17">
+        <v>0.791462</v>
       </c>
       <c r="U51" s="2"/>
-    </row>
-    <row r="52" spans="7:21">
+      <c r="Z51" s="14"/>
+    </row>
+    <row r="52" spans="7:26">
       <c r="G52" s="7">
         <v>-1.9</v>
       </c>
-      <c r="H52" s="7">
-        <v>0.773621</v>
-      </c>
-      <c r="I52" s="8">
-        <v>0.186722</v>
-      </c>
-      <c r="J52" s="9">
-        <v>0.79266700000000001</v>
-      </c>
-      <c r="K52">
-        <v>0.75082199999999999</v>
-      </c>
-      <c r="L52">
-        <v>0.20857300000000001</v>
-      </c>
-      <c r="M52">
-        <v>0.77393599999999996</v>
+      <c r="H52" s="7"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="15">
+        <v>0.74363500000000005</v>
+      </c>
+      <c r="L52" s="16">
+        <v>0.21579000000000001</v>
+      </c>
+      <c r="M52" s="17">
+        <v>0.76815800000000001</v>
       </c>
       <c r="U52" s="2"/>
-    </row>
-    <row r="53" spans="7:21">
+      <c r="Z52" s="14"/>
+    </row>
+    <row r="53" spans="7:26">
       <c r="G53" s="7">
         <v>-1.8</v>
       </c>
-      <c r="H53" s="7">
-        <v>0.73746999999999996</v>
-      </c>
-      <c r="I53" s="8">
-        <v>0.222303</v>
-      </c>
-      <c r="J53" s="9">
-        <v>0.76329800000000003</v>
-      </c>
-      <c r="K53">
-        <v>0.72251100000000001</v>
-      </c>
-      <c r="L53">
-        <v>0.23718700000000001</v>
-      </c>
-      <c r="M53">
-        <v>0.75136599999999998</v>
+      <c r="H53" s="7"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="15">
+        <v>0.71502699999999997</v>
+      </c>
+      <c r="L53" s="16">
+        <v>0.245033</v>
+      </c>
+      <c r="M53" s="17">
+        <v>0.74553199999999997</v>
       </c>
       <c r="U53" s="2"/>
-    </row>
-    <row r="54" spans="7:21">
+      <c r="Z53" s="14"/>
+    </row>
+    <row r="54" spans="7:26">
       <c r="G54" s="7">
         <v>-1.7</v>
       </c>
-      <c r="H54" s="7">
-        <v>0.70205399999999996</v>
-      </c>
-      <c r="I54" s="8">
-        <v>0.25914999999999999</v>
-      </c>
-      <c r="J54" s="9">
-        <v>0.73561600000000005</v>
-      </c>
-      <c r="K54">
-        <v>0.69437400000000005</v>
-      </c>
-      <c r="L54">
-        <v>0.26691999999999999</v>
-      </c>
-      <c r="M54">
-        <v>0.72962499999999997</v>
+      <c r="H54" s="7"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="15">
+        <v>0.68660100000000002</v>
+      </c>
+      <c r="L54" s="16">
+        <v>0.27544000000000002</v>
+      </c>
+      <c r="M54" s="17">
+        <v>0.72376099999999999</v>
       </c>
       <c r="U54" s="2"/>
-    </row>
-    <row r="55" spans="7:21">
+      <c r="Z54" s="14"/>
+    </row>
+    <row r="55" spans="7:26">
       <c r="G55" s="7">
         <v>-1.6</v>
       </c>
-      <c r="H55" s="7">
-        <v>0.66763700000000004</v>
-      </c>
-      <c r="I55" s="8">
-        <v>0.29705300000000001</v>
-      </c>
-      <c r="J55" s="9">
-        <v>0.70979400000000004</v>
-      </c>
-      <c r="K55">
-        <v>0.66657500000000003</v>
-      </c>
-      <c r="L55">
-        <v>0.29767700000000002</v>
-      </c>
-      <c r="M55">
-        <v>0.70884499999999995</v>
+      <c r="H55" s="7"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="15">
+        <v>0.65851700000000002</v>
+      </c>
+      <c r="L55" s="16">
+        <v>0.306923</v>
+      </c>
+      <c r="M55" s="17">
+        <v>0.70297299999999996</v>
       </c>
       <c r="U55" s="2"/>
-    </row>
-    <row r="56" spans="7:21">
+      <c r="Z55" s="14"/>
+    </row>
+    <row r="56" spans="7:26">
       <c r="G56" s="7">
         <v>-1.5</v>
       </c>
-      <c r="H56" s="7">
-        <v>0.63436199999999998</v>
-      </c>
-      <c r="I56" s="8">
-        <v>0.33588400000000002</v>
-      </c>
-      <c r="J56" s="9">
-        <v>0.68588800000000005</v>
-      </c>
-      <c r="K56">
-        <v>0.63924400000000003</v>
-      </c>
-      <c r="L56">
-        <v>0.329374</v>
-      </c>
-      <c r="M56">
-        <v>0.68911900000000004</v>
+      <c r="H56" s="7"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="15">
+        <v>0.63090000000000002</v>
+      </c>
+      <c r="L56" s="16">
+        <v>0.33940999999999999</v>
+      </c>
+      <c r="M56" s="17">
+        <v>0.68325800000000003</v>
       </c>
       <c r="U56" s="2"/>
-    </row>
-    <row r="57" spans="7:21">
+      <c r="Z56" s="14"/>
+    </row>
+    <row r="57" spans="7:26">
       <c r="G57" s="7">
         <v>-1.4</v>
       </c>
-      <c r="H57" s="7">
-        <v>0.602302</v>
-      </c>
-      <c r="I57" s="8">
-        <v>0.37556400000000001</v>
-      </c>
-      <c r="J57" s="9">
-        <v>0.66389600000000004</v>
-      </c>
-      <c r="K57">
-        <v>0.61248199999999997</v>
-      </c>
-      <c r="L57">
-        <v>0.36194300000000001</v>
-      </c>
-      <c r="M57">
-        <v>0.670512</v>
+      <c r="H57" s="7"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="15">
+        <v>0.60384899999999997</v>
+      </c>
+      <c r="L57" s="16">
+        <v>0.37284200000000001</v>
+      </c>
+      <c r="M57" s="17">
+        <v>0.66467799999999999</v>
       </c>
       <c r="U57" s="2"/>
-    </row>
-    <row r="58" spans="7:21">
+      <c r="Z57" s="14"/>
+    </row>
+    <row r="58" spans="7:26">
       <c r="G58" s="7">
         <v>-1.3</v>
       </c>
-      <c r="H58" s="7">
-        <v>0.571492</v>
-      </c>
-      <c r="I58" s="8">
-        <v>0.41605300000000001</v>
-      </c>
-      <c r="J58" s="9">
-        <v>0.64378800000000003</v>
-      </c>
-      <c r="K58">
-        <v>0.58636900000000003</v>
-      </c>
-      <c r="L58">
-        <v>0.39532499999999998</v>
-      </c>
-      <c r="M58">
-        <v>0.65306200000000003</v>
+      <c r="H58" s="7"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="15">
+        <v>0.57743800000000001</v>
+      </c>
+      <c r="L58" s="16">
+        <v>0.407169</v>
+      </c>
+      <c r="M58" s="17">
+        <v>0.64727400000000002</v>
       </c>
       <c r="U58" s="2"/>
-    </row>
-    <row r="59" spans="7:21">
+      <c r="Z58" s="14"/>
+    </row>
+    <row r="59" spans="7:26">
       <c r="G59" s="7">
         <v>-1.2</v>
       </c>
-      <c r="H59" s="7">
-        <v>0.54194799999999999</v>
-      </c>
-      <c r="I59" s="8">
-        <v>0.457233</v>
-      </c>
-      <c r="J59" s="9">
-        <v>0.62549200000000005</v>
-      </c>
-      <c r="K59">
-        <v>0.56096500000000005</v>
-      </c>
-      <c r="L59">
-        <v>0.42946699999999999</v>
-      </c>
-      <c r="M59">
-        <v>0.63679300000000005</v>
+      <c r="H59" s="7"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="15">
+        <v>0.551728</v>
+      </c>
+      <c r="L59" s="16">
+        <v>0.44235000000000002</v>
+      </c>
+      <c r="M59" s="17">
+        <v>0.63106799999999996</v>
       </c>
       <c r="U59" s="2"/>
-    </row>
-    <row r="60" spans="7:21">
+      <c r="Z59" s="14"/>
+    </row>
+    <row r="60" spans="7:26">
       <c r="G60" s="7">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="H60" s="7">
-        <v>0.51367600000000002</v>
-      </c>
-      <c r="I60" s="8">
-        <v>0.49934000000000001</v>
-      </c>
-      <c r="J60" s="9">
-        <v>0.60906099999999996</v>
-      </c>
-      <c r="K60">
-        <v>0.53631700000000004</v>
-      </c>
-      <c r="L60">
-        <v>0.46432200000000001</v>
-      </c>
-      <c r="M60">
-        <v>0.62171299999999996</v>
+      <c r="H60" s="7"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="15">
+        <v>0.52676199999999995</v>
+      </c>
+      <c r="L60" s="16">
+        <v>0.478348</v>
+      </c>
+      <c r="M60" s="17">
+        <v>0.61607199999999995</v>
       </c>
       <c r="U60" s="2"/>
-    </row>
-    <row r="61" spans="7:21">
+      <c r="Z60" s="14"/>
+    </row>
+    <row r="61" spans="7:26">
       <c r="G61" s="7">
         <v>-1</v>
       </c>
-      <c r="H61" s="7">
-        <v>0.48670200000000002</v>
-      </c>
-      <c r="I61" s="8">
-        <v>0.54149099999999994</v>
-      </c>
-      <c r="J61" s="9">
-        <v>0.59413499999999997</v>
-      </c>
-      <c r="K61">
-        <v>0.51245700000000005</v>
-      </c>
-      <c r="L61">
-        <v>0.49984600000000001</v>
-      </c>
-      <c r="M61">
-        <v>0.60782000000000003</v>
+      <c r="H61" s="7"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="15">
+        <v>0.50257399999999997</v>
+      </c>
+      <c r="L61" s="16">
+        <v>0.51512800000000003</v>
+      </c>
+      <c r="M61" s="17">
+        <v>0.60228599999999999</v>
       </c>
       <c r="U61" s="2"/>
-    </row>
-    <row r="62" spans="7:21">
+      <c r="Z61" s="14"/>
+    </row>
+    <row r="62" spans="7:26">
       <c r="G62" s="7">
         <v>-0.9</v>
       </c>
-      <c r="H62" s="7">
-        <v>0.46106799999999998</v>
-      </c>
-      <c r="I62" s="8">
-        <v>0.58500300000000005</v>
-      </c>
-      <c r="J62" s="9">
-        <v>0.58129799999999998</v>
-      </c>
-      <c r="K62">
-        <v>0.48941200000000001</v>
-      </c>
-      <c r="L62">
-        <v>0.53599300000000005</v>
-      </c>
-      <c r="M62">
-        <v>0.59510700000000005</v>
+      <c r="H62" s="7"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="15">
+        <v>0.47919200000000001</v>
+      </c>
+      <c r="L62" s="16">
+        <v>0.55265399999999998</v>
+      </c>
+      <c r="M62" s="17">
+        <v>0.58970699999999998</v>
       </c>
       <c r="U62" s="2"/>
-    </row>
-    <row r="63" spans="7:21">
+      <c r="Z62" s="14"/>
+    </row>
+    <row r="63" spans="7:26">
       <c r="G63" s="7">
         <v>-0.8</v>
       </c>
-      <c r="H63" s="7">
-        <v>0.43688700000000003</v>
-      </c>
-      <c r="I63" s="8">
-        <v>0.62809000000000004</v>
-      </c>
-      <c r="J63" s="9">
-        <v>0.56990499999999999</v>
-      </c>
-      <c r="K63">
-        <v>0.46720099999999998</v>
-      </c>
-      <c r="L63">
-        <v>0.57271799999999995</v>
-      </c>
-      <c r="M63">
-        <v>0.58355999999999997</v>
+      <c r="H63" s="7"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="15">
+        <v>0.45663799999999999</v>
+      </c>
+      <c r="L63" s="16">
+        <v>0.59088700000000005</v>
+      </c>
+      <c r="M63" s="17">
+        <v>0.57832600000000001</v>
       </c>
       <c r="U63" s="2"/>
-    </row>
-    <row r="64" spans="7:21">
+      <c r="Z63" s="14"/>
+    </row>
+    <row r="64" spans="7:26">
       <c r="G64" s="7">
         <v>-0.7</v>
       </c>
-      <c r="H64" s="7">
-        <v>0.414524</v>
-      </c>
-      <c r="I64" s="8">
-        <v>0.66986199999999996</v>
-      </c>
-      <c r="J64" s="9">
-        <v>0.55999500000000002</v>
-      </c>
-      <c r="K64">
-        <v>0.44583899999999999</v>
-      </c>
-      <c r="L64">
-        <v>0.60996899999999998</v>
-      </c>
-      <c r="M64">
-        <v>0.57316100000000003</v>
+      <c r="H64" s="7"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="15">
+        <v>0.43492900000000001</v>
+      </c>
+      <c r="L64" s="16">
+        <v>0.629776</v>
+      </c>
+      <c r="M64" s="17">
+        <v>0.56813199999999997</v>
       </c>
       <c r="U64" s="2"/>
-    </row>
-    <row r="65" spans="7:21">
+      <c r="Z64" s="14"/>
+    </row>
+    <row r="65" spans="7:26">
       <c r="G65" s="7">
         <v>-0.6</v>
       </c>
-      <c r="H65" s="7">
-        <v>0.394868</v>
-      </c>
-      <c r="I65" s="8">
-        <v>0.70958600000000005</v>
-      </c>
-      <c r="J65" s="9">
-        <v>0.55245500000000003</v>
-      </c>
-      <c r="K65">
-        <v>0.42533799999999999</v>
-      </c>
-      <c r="L65">
-        <v>0.64768300000000001</v>
-      </c>
-      <c r="M65">
-        <v>0.56389100000000003</v>
+      <c r="H65" s="7"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="15">
+        <v>0.41408800000000001</v>
+      </c>
+      <c r="L65" s="16">
+        <v>0.66925599999999996</v>
+      </c>
+      <c r="M65" s="17">
+        <v>0.559114</v>
       </c>
       <c r="U65" s="2"/>
-    </row>
-    <row r="66" spans="7:21">
+      <c r="Z65" s="14"/>
+    </row>
+    <row r="66" spans="7:26">
       <c r="G66" s="7">
         <v>-0.5</v>
       </c>
-      <c r="H66" s="7">
-        <v>0.38048500000000002</v>
-      </c>
-      <c r="I66" s="8">
-        <v>0.74095900000000003</v>
-      </c>
-      <c r="J66" s="9">
-        <v>0.547898</v>
-      </c>
-      <c r="K66">
-        <v>0.40571600000000002</v>
-      </c>
-      <c r="L66">
-        <v>0.68577699999999997</v>
-      </c>
-      <c r="M66">
-        <v>0.55572999999999995</v>
+      <c r="H66" s="7"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="15">
+        <v>0.39413900000000002</v>
+      </c>
+      <c r="L66" s="16">
+        <v>0.70923000000000003</v>
+      </c>
+      <c r="M66" s="17">
+        <v>0.55125800000000003</v>
       </c>
       <c r="U66" s="2"/>
-    </row>
-    <row r="67" spans="7:21">
+      <c r="Z66" s="14"/>
+    </row>
+    <row r="67" spans="7:26">
       <c r="G67" s="7">
         <v>-0.4</v>
       </c>
-      <c r="H67" s="7">
-        <v>0.37754500000000002</v>
-      </c>
-      <c r="I67" s="8">
-        <v>0.747363</v>
-      </c>
-      <c r="J67" s="9">
-        <v>0.54693999999999998</v>
-      </c>
-      <c r="K67">
-        <v>0.38699499999999998</v>
-      </c>
-      <c r="L67">
-        <v>0.72413400000000006</v>
-      </c>
-      <c r="M67">
-        <v>0.54865600000000003</v>
+      <c r="H67" s="7"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="15">
+        <v>0.37512099999999998</v>
+      </c>
+      <c r="L67" s="16">
+        <v>0.749552</v>
+      </c>
+      <c r="M67" s="17">
+        <v>0.54455100000000001</v>
       </c>
       <c r="U67" s="2"/>
-    </row>
-    <row r="68" spans="7:21">
+      <c r="Z67" s="14"/>
+    </row>
+    <row r="68" spans="7:26">
       <c r="G68" s="7">
         <v>-0.3</v>
       </c>
-      <c r="H68" s="7">
-        <v>0.39069700000000002</v>
-      </c>
-      <c r="I68" s="8">
-        <v>0.71690399999999999</v>
-      </c>
-      <c r="J68" s="9">
-        <v>0.550257</v>
-      </c>
-      <c r="K68">
-        <v>0.36921799999999999</v>
-      </c>
-      <c r="L68">
-        <v>0.76257200000000003</v>
-      </c>
-      <c r="M68">
-        <v>0.54265099999999999</v>
+      <c r="H68" s="7"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="15">
+        <v>0.357101</v>
+      </c>
+      <c r="L68" s="16">
+        <v>0.78997399999999995</v>
+      </c>
+      <c r="M68" s="17">
+        <v>0.53897799999999996</v>
       </c>
       <c r="U68" s="2"/>
-    </row>
-    <row r="69" spans="7:21">
+      <c r="Z68" s="14"/>
+    </row>
+    <row r="69" spans="7:26">
       <c r="G69" s="7">
         <v>-0.2</v>
       </c>
-      <c r="H69" s="7">
-        <v>0.40270400000000001</v>
-      </c>
-      <c r="I69" s="8">
-        <v>0.69372900000000004</v>
-      </c>
-      <c r="J69" s="9">
-        <v>0.55548500000000001</v>
-      </c>
-      <c r="K69">
-        <v>0.35246699999999997</v>
-      </c>
-      <c r="L69">
-        <v>0.80077699999999996</v>
-      </c>
-      <c r="M69">
-        <v>0.53769400000000001</v>
+      <c r="H69" s="7"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="15">
+        <v>0.34021299999999999</v>
+      </c>
+      <c r="L69" s="16">
+        <v>0.83003300000000002</v>
+      </c>
+      <c r="M69" s="17">
+        <v>0.53452599999999995</v>
       </c>
       <c r="U69" s="2"/>
-    </row>
-    <row r="70" spans="7:21">
+      <c r="Z69" s="14"/>
+    </row>
+    <row r="70" spans="7:26">
       <c r="G70" s="7">
         <v>-0.1</v>
       </c>
-      <c r="H70" s="7">
-        <v>0.39186799999999999</v>
-      </c>
-      <c r="I70" s="8">
-        <v>0.71618000000000004</v>
-      </c>
-      <c r="J70" s="9">
-        <v>0.55154300000000001</v>
-      </c>
-      <c r="K70">
-        <v>0.33690599999999998</v>
-      </c>
-      <c r="L70">
-        <v>0.83817200000000003</v>
-      </c>
-      <c r="M70">
-        <v>0.53376699999999999</v>
+      <c r="H70" s="7"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="15">
+        <v>0.32475999999999999</v>
+      </c>
+      <c r="L70" s="16">
+        <v>0.86872700000000003</v>
+      </c>
+      <c r="M70" s="17">
+        <v>0.53118200000000004</v>
       </c>
       <c r="U70" s="2"/>
-    </row>
-    <row r="71" spans="7:21">
+      <c r="Z70" s="14"/>
+    </row>
+    <row r="71" spans="7:26">
       <c r="G71" s="7">
         <v>0</v>
       </c>
-      <c r="H71" s="7">
-        <v>0.17457600000000001</v>
-      </c>
-      <c r="I71" s="8">
-        <v>1.428733</v>
-      </c>
-      <c r="J71" s="9">
-        <v>0.57858699999999996</v>
-      </c>
-      <c r="K71">
-        <v>0.32288699999999998</v>
-      </c>
-      <c r="L71">
-        <v>0.87358999999999998</v>
-      </c>
-      <c r="M71">
-        <v>0.53084500000000001</v>
+      <c r="H71" s="7"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="15">
+        <v>0.31154799999999999</v>
+      </c>
+      <c r="L71" s="16">
+        <v>0.90350600000000003</v>
+      </c>
+      <c r="M71" s="17">
+        <v>0.52893100000000004</v>
       </c>
       <c r="U71" s="2"/>
-    </row>
-    <row r="72" spans="7:21">
+      <c r="Z71" s="14"/>
+    </row>
+    <row r="72" spans="7:26">
       <c r="G72" s="7">
         <v>0.1</v>
       </c>
-      <c r="H72" s="7">
-        <v>0.194825</v>
-      </c>
-      <c r="I72" s="8">
-        <v>1.3311170000000001</v>
-      </c>
-      <c r="J72" s="9">
-        <v>0.56328699999999998</v>
-      </c>
-      <c r="K72">
-        <v>0.31117600000000001</v>
-      </c>
-      <c r="L72">
-        <v>0.90453799999999995</v>
-      </c>
-      <c r="M72">
-        <v>0.52889399999999998</v>
+      <c r="H72" s="7"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="15">
+        <v>0.30273299999999997</v>
+      </c>
+      <c r="L72" s="16">
+        <v>0.92760799999999999</v>
+      </c>
+      <c r="M72" s="17">
+        <v>0.52774600000000005</v>
       </c>
       <c r="U72" s="2"/>
-    </row>
-    <row r="73" spans="7:21">
+      <c r="Z72" s="14"/>
+    </row>
+    <row r="73" spans="7:26">
       <c r="G73" s="7">
         <v>0.2</v>
       </c>
-      <c r="H73" s="7">
-        <v>0.13417299999999999</v>
-      </c>
-      <c r="I73" s="8">
-        <v>1.673419</v>
-      </c>
-      <c r="J73" s="9">
-        <v>0.63630600000000004</v>
-      </c>
-      <c r="K73">
-        <v>0.30332500000000001</v>
-      </c>
-      <c r="L73">
-        <v>0.92600400000000005</v>
-      </c>
-      <c r="M73">
-        <v>0.52783999999999998</v>
+      <c r="H73" s="7"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="15">
+        <v>0.30087900000000001</v>
+      </c>
+      <c r="L73" s="16">
+        <v>0.93264000000000002</v>
+      </c>
+      <c r="M73" s="17">
+        <v>0.52745299999999995</v>
       </c>
       <c r="U73" s="2"/>
-    </row>
-    <row r="74" spans="7:21">
+      <c r="Z73" s="14"/>
+    </row>
+    <row r="74" spans="7:26">
       <c r="G74" s="7">
         <v>0.3</v>
       </c>
-      <c r="H74" s="7">
-        <v>0.156052</v>
-      </c>
-      <c r="I74" s="8">
-        <v>1.5323439999999999</v>
-      </c>
-      <c r="J74" s="9">
-        <v>0.60045800000000005</v>
-      </c>
-      <c r="K74">
-        <v>0.30093900000000001</v>
-      </c>
-      <c r="L74">
-        <v>0.932562</v>
-      </c>
-      <c r="M74">
-        <v>0.52751199999999998</v>
+      <c r="H74" s="7"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="15">
+        <v>0.30140299999999998</v>
+      </c>
+      <c r="L74" s="16">
+        <v>0.93097200000000002</v>
+      </c>
+      <c r="M74" s="17">
+        <v>0.52739199999999997</v>
       </c>
       <c r="U74" s="2"/>
-    </row>
-    <row r="75" spans="7:21">
+      <c r="Z74" s="14"/>
+    </row>
+    <row r="75" spans="7:26">
       <c r="G75" s="7">
         <v>0.4</v>
       </c>
-      <c r="H75" s="7">
-        <v>0.284049</v>
-      </c>
-      <c r="I75" s="8">
-        <v>0.98778999999999995</v>
-      </c>
-      <c r="J75" s="9">
-        <v>0.530111</v>
-      </c>
-      <c r="K75">
-        <v>0.30143399999999998</v>
-      </c>
-      <c r="L75">
-        <v>0.93103599999999997</v>
-      </c>
-      <c r="M75">
-        <v>0.52748399999999995</v>
+      <c r="H75" s="7"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="15">
+        <v>0.30197200000000002</v>
+      </c>
+      <c r="L75" s="16">
+        <v>0.92915000000000003</v>
+      </c>
+      <c r="M75" s="17">
+        <v>0.52731899999999998</v>
       </c>
       <c r="U75" s="2"/>
-    </row>
-    <row r="76" spans="7:21">
+      <c r="Z75" s="14"/>
+    </row>
+    <row r="76" spans="7:26">
       <c r="G76" s="7">
         <v>0.5</v>
       </c>
-      <c r="H76" s="7">
-        <v>0.302622</v>
-      </c>
-      <c r="I76" s="8">
-        <v>0.93177500000000002</v>
-      </c>
-      <c r="J76" s="9">
-        <v>0.529999</v>
-      </c>
-      <c r="K76">
-        <v>0.30197400000000002</v>
-      </c>
-      <c r="L76">
-        <v>0.92940199999999995</v>
-      </c>
-      <c r="M76">
-        <v>0.52747100000000002</v>
+      <c r="H76" s="7"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="15">
+        <v>0.30232399999999998</v>
+      </c>
+      <c r="L76" s="16">
+        <v>0.92789600000000005</v>
+      </c>
+      <c r="M76" s="17">
+        <v>0.52720100000000003</v>
       </c>
       <c r="U76" s="2"/>
-    </row>
-    <row r="77" spans="7:21">
+      <c r="Z76" s="14"/>
+    </row>
+    <row r="77" spans="7:26">
       <c r="G77" s="7">
         <v>0.6</v>
       </c>
-      <c r="H77" s="7">
-        <v>0.30213299999999998</v>
-      </c>
-      <c r="I77" s="8">
-        <v>0.93838999999999995</v>
-      </c>
-      <c r="J77" s="9">
-        <v>0.53305599999999997</v>
-      </c>
-      <c r="K77">
-        <v>0.30234800000000001</v>
-      </c>
-      <c r="L77">
-        <v>0.92830199999999996</v>
-      </c>
-      <c r="M77">
-        <v>0.52747999999999995</v>
+      <c r="H77" s="7"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="15">
+        <v>0.30253200000000002</v>
+      </c>
+      <c r="L77" s="16">
+        <v>0.92699200000000004</v>
+      </c>
+      <c r="M77" s="17">
+        <v>0.52703599999999995</v>
       </c>
       <c r="U77" s="2"/>
-    </row>
-    <row r="78" spans="7:21">
+      <c r="Z77" s="14"/>
+    </row>
+    <row r="78" spans="7:26">
       <c r="G78" s="7">
         <v>0.7</v>
       </c>
-      <c r="H78" s="7">
-        <v>0.30248599999999998</v>
-      </c>
-      <c r="I78" s="8">
-        <v>0.94973600000000002</v>
-      </c>
-      <c r="J78" s="9">
-        <v>0.54051400000000005</v>
-      </c>
-      <c r="K78">
-        <v>0.30263499999999999</v>
-      </c>
-      <c r="L78">
-        <v>0.92760799999999999</v>
-      </c>
-      <c r="M78">
-        <v>0.52757500000000002</v>
+      <c r="H78" s="7"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="15">
+        <v>0.302672</v>
+      </c>
+      <c r="L78" s="16">
+        <v>0.92620599999999997</v>
+      </c>
+      <c r="M78" s="17">
+        <v>0.52682099999999998</v>
       </c>
       <c r="U78" s="2"/>
-    </row>
-    <row r="79" spans="7:21">
+      <c r="Z78" s="14"/>
+    </row>
+    <row r="79" spans="7:26">
       <c r="G79" s="7">
         <v>0.8</v>
       </c>
-      <c r="H79" s="7">
-        <v>0.302929</v>
-      </c>
-      <c r="I79" s="8">
-        <v>0.95426</v>
-      </c>
-      <c r="J79" s="9">
-        <v>0.544076</v>
-      </c>
-      <c r="K79">
-        <v>0.30285800000000002</v>
-      </c>
-      <c r="L79">
-        <v>0.92738299999999996</v>
-      </c>
-      <c r="M79">
-        <v>0.527833</v>
+      <c r="H79" s="7"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="15">
+        <v>0.30277399999999999</v>
+      </c>
+      <c r="L79" s="16">
+        <v>0.92542400000000002</v>
+      </c>
+      <c r="M79" s="17">
+        <v>0.52654299999999998</v>
       </c>
       <c r="U79" s="2"/>
-    </row>
-    <row r="80" spans="7:21">
+      <c r="Z79" s="14"/>
+    </row>
+    <row r="80" spans="7:26">
       <c r="G80" s="7">
         <v>0.9</v>
       </c>
-      <c r="H80" s="7">
-        <v>0.30329299999999998</v>
-      </c>
-      <c r="I80" s="8">
-        <v>0.94164499999999995</v>
-      </c>
-      <c r="J80" s="9">
-        <v>0.53705499999999995</v>
-      </c>
-      <c r="K80">
-        <v>0.30303000000000002</v>
-      </c>
-      <c r="L80">
-        <v>0.92766300000000002</v>
-      </c>
-      <c r="M80">
-        <v>0.52829599999999999</v>
+      <c r="H80" s="7"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="15">
+        <v>0.30285200000000001</v>
+      </c>
+      <c r="L80" s="16">
+        <v>0.92455600000000004</v>
+      </c>
+      <c r="M80" s="17">
+        <v>0.526173</v>
       </c>
       <c r="U80" s="2"/>
-    </row>
-    <row r="81" spans="7:21">
+      <c r="Z80" s="14"/>
+    </row>
+    <row r="81" spans="7:26">
       <c r="G81" s="7">
         <v>1</v>
       </c>
-      <c r="H81" s="7">
-        <v>0.30372100000000002</v>
-      </c>
-      <c r="I81" s="8">
-        <v>0.92036600000000002</v>
-      </c>
-      <c r="J81" s="9">
-        <v>0.52524800000000005</v>
-      </c>
-      <c r="K81">
-        <v>0.30315999999999999</v>
-      </c>
-      <c r="L81">
-        <v>0.92825800000000003</v>
-      </c>
-      <c r="M81">
-        <v>0.52887099999999998</v>
+      <c r="H81" s="7"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="15">
+        <v>0.30291499999999999</v>
+      </c>
+      <c r="L81" s="16">
+        <v>0.92346799999999996</v>
+      </c>
+      <c r="M81" s="17">
+        <v>0.52564999999999995</v>
       </c>
       <c r="U81" s="2"/>
-    </row>
-    <row r="82" spans="7:21">
+      <c r="Z81" s="14"/>
+    </row>
+    <row r="82" spans="7:26">
       <c r="G82" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H82" s="7">
-        <v>0.30408099999999999</v>
-      </c>
-      <c r="I82" s="8">
-        <v>0.91364900000000004</v>
-      </c>
-      <c r="J82" s="9">
-        <v>0.52200400000000002</v>
-      </c>
-      <c r="K82">
-        <v>0.30325600000000003</v>
-      </c>
-      <c r="L82">
-        <v>0.92851700000000004</v>
-      </c>
-      <c r="M82">
-        <v>0.52919000000000005</v>
+      <c r="H82" s="7"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="15">
+        <v>0.30296600000000001</v>
+      </c>
+      <c r="L82" s="16">
+        <v>0.92191000000000001</v>
+      </c>
+      <c r="M82" s="17">
+        <v>0.52483500000000005</v>
       </c>
       <c r="U82" s="2"/>
-    </row>
-    <row r="83" spans="7:21">
+      <c r="Z82" s="14"/>
+    </row>
+    <row r="83" spans="7:26">
       <c r="G83" s="7">
         <v>1.2</v>
       </c>
-      <c r="H83" s="7">
-        <v>0.304288</v>
-      </c>
-      <c r="I83" s="8">
-        <v>0.93360799999999999</v>
-      </c>
-      <c r="J83" s="9">
-        <v>0.53400199999999998</v>
-      </c>
-      <c r="K83">
-        <v>0.30332300000000001</v>
-      </c>
-      <c r="L83">
-        <v>0.92718900000000004</v>
-      </c>
-      <c r="M83">
-        <v>0.52852900000000003</v>
+      <c r="H83" s="7"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="15">
+        <v>0.30300700000000003</v>
+      </c>
+      <c r="L83" s="16">
+        <v>0.91943699999999995</v>
+      </c>
+      <c r="M83" s="17">
+        <v>0.523478</v>
       </c>
       <c r="U83" s="2"/>
-    </row>
-    <row r="84" spans="7:21">
+      <c r="Z83" s="14"/>
+    </row>
+    <row r="84" spans="7:26">
       <c r="G84" s="7">
         <v>1.3</v>
       </c>
-      <c r="H84" s="7">
-        <v>0.30446600000000001</v>
-      </c>
-      <c r="I84" s="8">
-        <v>0.96639900000000001</v>
-      </c>
-      <c r="J84" s="9">
-        <v>0.554423</v>
-      </c>
-      <c r="K84">
-        <v>0.30336800000000003</v>
-      </c>
-      <c r="L84">
-        <v>0.92252199999999995</v>
-      </c>
-      <c r="M84">
-        <v>0.52588699999999999</v>
+      <c r="H84" s="7"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="15">
+        <v>0.30304199999999998</v>
+      </c>
+      <c r="L84" s="16">
+        <v>0.91537000000000002</v>
+      </c>
+      <c r="M84" s="17">
+        <v>0.52120200000000005</v>
       </c>
       <c r="U84" s="2"/>
-    </row>
-    <row r="85" spans="7:21">
+      <c r="Z84" s="14"/>
+    </row>
+    <row r="85" spans="7:26">
       <c r="G85" s="7">
         <v>1.4</v>
       </c>
-      <c r="H85" s="7">
-        <v>0.30460500000000001</v>
-      </c>
-      <c r="I85" s="8">
-        <v>0.98728700000000003</v>
-      </c>
-      <c r="J85" s="9">
-        <v>0.56814299999999995</v>
-      </c>
-      <c r="K85">
-        <v>0.30339500000000003</v>
-      </c>
-      <c r="L85">
-        <v>0.91269999999999996</v>
-      </c>
-      <c r="M85">
-        <v>0.52028399999999997</v>
+      <c r="H85" s="7"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="15">
+        <v>0.30307000000000001</v>
+      </c>
+      <c r="L85" s="16">
+        <v>0.90885199999999999</v>
+      </c>
+      <c r="M85" s="17">
+        <v>0.517544</v>
       </c>
       <c r="U85" s="2"/>
-    </row>
-    <row r="86" spans="7:21">
+      <c r="Z85" s="14"/>
+    </row>
+    <row r="86" spans="7:26">
       <c r="G86" s="7">
         <v>1.5</v>
       </c>
-      <c r="H86" s="7">
-        <v>0.304703</v>
-      </c>
-      <c r="I86" s="8">
-        <v>0.98041800000000001</v>
-      </c>
-      <c r="J86" s="9">
-        <v>0.56383700000000003</v>
-      </c>
-      <c r="K86">
-        <v>0.30340699999999998</v>
-      </c>
-      <c r="L86">
-        <v>0.89649100000000004</v>
-      </c>
-      <c r="M86">
-        <v>0.51120699999999997</v>
+      <c r="H86" s="7"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="15">
+        <v>0.303093</v>
+      </c>
+      <c r="L86" s="16">
+        <v>0.89903299999999997</v>
+      </c>
+      <c r="M86" s="17">
+        <v>0.51208500000000001</v>
       </c>
       <c r="U86" s="2"/>
-    </row>
-    <row r="87" spans="7:21">
+      <c r="Z86" s="14"/>
+    </row>
+    <row r="87" spans="7:26">
       <c r="G87" s="7">
         <v>1.6</v>
       </c>
-      <c r="H87" s="7">
-        <v>0.30474800000000002</v>
-      </c>
-      <c r="I87" s="8">
-        <v>0.94545100000000004</v>
-      </c>
-      <c r="J87" s="9">
-        <v>0.54193899999999995</v>
-      </c>
-      <c r="K87">
-        <v>0.30340699999999998</v>
-      </c>
-      <c r="L87">
-        <v>0.87388100000000002</v>
-      </c>
-      <c r="M87">
-        <v>0.49897399999999997</v>
+      <c r="H87" s="7"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="15">
+        <v>0.30311199999999999</v>
+      </c>
+      <c r="L87" s="16">
+        <v>0.88535299999999995</v>
+      </c>
+      <c r="M87" s="17">
+        <v>0.50462399999999996</v>
       </c>
       <c r="U87" s="2"/>
-    </row>
-    <row r="88" spans="7:21">
+      <c r="Z87" s="14"/>
+    </row>
+    <row r="88" spans="7:26">
       <c r="G88" s="7">
         <v>1.7</v>
       </c>
-      <c r="H88" s="7">
-        <v>0.304703</v>
-      </c>
-      <c r="I88" s="8">
-        <v>0.89340900000000001</v>
-      </c>
-      <c r="J88" s="9">
-        <v>0.51168499999999995</v>
-      </c>
-      <c r="K88">
-        <v>0.30339899999999997</v>
-      </c>
-      <c r="L88">
-        <v>0.84639600000000004</v>
-      </c>
-      <c r="M88">
-        <v>0.48477999999999999</v>
+      <c r="H88" s="7"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="15">
+        <v>0.30312800000000001</v>
+      </c>
+      <c r="L88" s="16">
+        <v>0.86782099999999995</v>
+      </c>
+      <c r="M88" s="17">
+        <v>0.49532599999999999</v>
       </c>
       <c r="U88" s="2"/>
-    </row>
-    <row r="89" spans="7:21">
+      <c r="Z88" s="14"/>
+    </row>
+    <row r="89" spans="7:26">
       <c r="G89" s="7">
         <v>1.8</v>
       </c>
-      <c r="H89" s="7">
-        <v>0.30457800000000002</v>
-      </c>
-      <c r="I89" s="8">
-        <v>0.83884999999999998</v>
-      </c>
-      <c r="J89" s="9">
-        <v>0.48288599999999998</v>
-      </c>
-      <c r="K89">
-        <v>0.30338399999999999</v>
-      </c>
-      <c r="L89">
-        <v>0.81690700000000005</v>
-      </c>
-      <c r="M89">
-        <v>0.47035399999999999</v>
+      <c r="H89" s="7"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="15">
+        <v>0.30314099999999999</v>
+      </c>
+      <c r="L89" s="16">
+        <v>0.84718599999999999</v>
+      </c>
+      <c r="M89" s="17">
+        <v>0.48476399999999997</v>
       </c>
       <c r="U89" s="2"/>
-    </row>
-    <row r="90" spans="7:21">
+      <c r="Z89" s="14"/>
+    </row>
+    <row r="90" spans="7:26">
       <c r="G90" s="7">
         <v>1.9</v>
       </c>
-      <c r="H90" s="7">
-        <v>0.30437700000000001</v>
-      </c>
-      <c r="I90" s="8">
-        <v>0.793354</v>
-      </c>
-      <c r="J90" s="9">
-        <v>0.46093200000000001</v>
-      </c>
-      <c r="K90">
-        <v>0.30336299999999999</v>
-      </c>
-      <c r="L90">
-        <v>0.78891699999999998</v>
-      </c>
-      <c r="M90">
-        <v>0.457395</v>
+      <c r="H90" s="7"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="15">
+        <v>0.30315199999999998</v>
+      </c>
+      <c r="L90" s="16">
+        <v>0.82489199999999996</v>
+      </c>
+      <c r="M90" s="17">
+        <v>0.47381000000000001</v>
       </c>
       <c r="U90" s="2"/>
-    </row>
-    <row r="91" spans="7:21">
+      <c r="Z90" s="14"/>
+    </row>
+    <row r="91" spans="7:26">
       <c r="G91" s="7">
         <v>2</v>
       </c>
-      <c r="H91" s="7">
-        <v>0.304116</v>
-      </c>
-      <c r="I91" s="8">
-        <v>0.76202300000000001</v>
-      </c>
-      <c r="J91" s="9">
-        <v>0.44673299999999999</v>
-      </c>
-      <c r="K91">
-        <v>0.30333700000000002</v>
-      </c>
-      <c r="L91">
-        <v>0.76552699999999996</v>
-      </c>
-      <c r="M91">
-        <v>0.44708700000000001</v>
+      <c r="H91" s="7"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="15">
+        <v>0.30316100000000001</v>
+      </c>
+      <c r="L91" s="16">
+        <v>0.80279599999999995</v>
+      </c>
+      <c r="M91" s="17">
+        <v>0.46340700000000001</v>
       </c>
       <c r="U91" s="2"/>
-    </row>
-    <row r="92" spans="7:21">
+      <c r="Z91" s="14"/>
+    </row>
+    <row r="92" spans="7:26">
       <c r="G92" s="7">
         <v>2.1</v>
       </c>
-      <c r="H92" s="7">
-        <v>0.303817</v>
-      </c>
-      <c r="I92" s="8">
-        <v>0.74405500000000002</v>
-      </c>
-      <c r="J92" s="9">
-        <v>0.43876700000000002</v>
-      </c>
-      <c r="K92">
-        <v>0.30330499999999999</v>
-      </c>
-      <c r="L92">
-        <v>0.74852200000000002</v>
-      </c>
-      <c r="M92">
-        <v>0.43986999999999998</v>
+      <c r="H92" s="7"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="15">
+        <v>0.30317</v>
+      </c>
+      <c r="L92" s="16">
+        <v>0.78273599999999999</v>
+      </c>
+      <c r="M92" s="17">
+        <v>0.454345</v>
       </c>
       <c r="U92" s="2"/>
-    </row>
-    <row r="93" spans="7:21">
+      <c r="Z92" s="14"/>
+    </row>
+    <row r="93" spans="7:26">
       <c r="G93" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H93" s="7">
-        <v>0.30354700000000001</v>
-      </c>
-      <c r="I93" s="8">
-        <v>0.73565000000000003</v>
-      </c>
-      <c r="J93" s="9">
-        <v>0.43495</v>
-      </c>
-      <c r="K93">
-        <v>0.30326599999999998</v>
-      </c>
-      <c r="L93">
-        <v>0.73802000000000001</v>
-      </c>
-      <c r="M93">
-        <v>0.43550699999999998</v>
+      <c r="H93" s="7"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="15">
+        <v>0.30317699999999997</v>
+      </c>
+      <c r="L93" s="16">
+        <v>0.76608200000000004</v>
+      </c>
+      <c r="M93" s="17">
+        <v>0.44708999999999999</v>
       </c>
       <c r="U93" s="2"/>
-    </row>
-    <row r="94" spans="7:21">
+      <c r="Z93" s="14"/>
+    </row>
+    <row r="94" spans="7:26">
       <c r="G94" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H94" s="7">
-        <v>0.30337900000000001</v>
-      </c>
-      <c r="I94" s="8">
-        <v>0.73287800000000003</v>
-      </c>
-      <c r="J94" s="9">
-        <v>0.43359300000000001</v>
-      </c>
-      <c r="K94">
-        <v>0.30321799999999999</v>
-      </c>
-      <c r="L94">
-        <v>0.73280199999999995</v>
-      </c>
-      <c r="M94">
-        <v>0.43333199999999999</v>
+      <c r="H94" s="7"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="15">
+        <v>0.30318499999999998</v>
+      </c>
+      <c r="L94" s="16">
+        <v>0.75346599999999997</v>
+      </c>
+      <c r="M94" s="17">
+        <v>0.44175500000000001</v>
       </c>
       <c r="U94" s="2"/>
-    </row>
-    <row r="95" spans="7:21">
+      <c r="Z94" s="14"/>
+    </row>
+    <row r="95" spans="7:26">
       <c r="G95" s="7">
         <v>2.4</v>
       </c>
-      <c r="H95" s="7">
-        <v>0.30338500000000002</v>
-      </c>
-      <c r="I95" s="8">
-        <v>0.732935</v>
-      </c>
-      <c r="J95" s="9">
-        <v>0.43362299999999998</v>
-      </c>
-      <c r="K95">
-        <v>0.30315799999999998</v>
-      </c>
-      <c r="L95">
-        <v>0.73106499999999996</v>
-      </c>
-      <c r="M95">
-        <v>0.43254999999999999</v>
+      <c r="H95" s="7"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="15">
+        <v>0.30319299999999999</v>
+      </c>
+      <c r="L95" s="16">
+        <v>0.74476500000000001</v>
+      </c>
+      <c r="M95" s="17">
+        <v>0.43815599999999999</v>
       </c>
       <c r="U95" s="2"/>
-    </row>
-    <row r="96" spans="7:21">
+      <c r="Z95" s="14"/>
+    </row>
+    <row r="96" spans="7:26">
       <c r="G96" s="7">
         <v>2.5</v>
       </c>
-      <c r="H96" s="7">
-        <v>0.30360700000000002</v>
-      </c>
-      <c r="I96" s="8">
-        <v>0.73419199999999996</v>
-      </c>
-      <c r="J96" s="9">
-        <v>0.434448</v>
-      </c>
-      <c r="K96">
-        <v>0.30308099999999999</v>
-      </c>
-      <c r="L96">
-        <v>0.73112200000000005</v>
-      </c>
-      <c r="M96">
-        <v>0.43246299999999999</v>
+      <c r="H96" s="7"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="15">
+        <v>0.303201</v>
+      </c>
+      <c r="L96" s="16">
+        <v>0.73932299999999995</v>
+      </c>
+      <c r="M96" s="17">
+        <v>0.435942</v>
       </c>
       <c r="U96" s="2"/>
-    </row>
-    <row r="97" spans="7:21">
+      <c r="Z96" s="14"/>
+    </row>
+    <row r="97" spans="7:26">
       <c r="G97" s="7">
         <v>2.6</v>
       </c>
-      <c r="H97" s="7">
-        <v>0.30399399999999999</v>
-      </c>
-      <c r="I97" s="8">
-        <v>0.73587800000000003</v>
-      </c>
-      <c r="J97" s="9">
-        <v>0.43568299999999999</v>
-      </c>
-      <c r="K97">
-        <v>0.302983</v>
-      </c>
-      <c r="L97">
-        <v>0.73177599999999998</v>
-      </c>
-      <c r="M97">
-        <v>0.43258400000000002</v>
+      <c r="H97" s="7"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="15">
+        <v>0.30320999999999998</v>
+      </c>
+      <c r="L97" s="16">
+        <v>0.73625700000000005</v>
+      </c>
+      <c r="M97" s="17">
+        <v>0.43471199999999999</v>
       </c>
       <c r="U97" s="2"/>
-    </row>
-    <row r="98" spans="7:21">
+      <c r="Z97" s="14"/>
+    </row>
+    <row r="98" spans="7:26">
       <c r="G98" s="7">
         <v>2.7</v>
       </c>
-      <c r="H98" s="7">
-        <v>0.30441099999999999</v>
-      </c>
-      <c r="I98" s="8">
-        <v>0.73748899999999995</v>
-      </c>
-      <c r="J98" s="9">
-        <v>0.43693399999999999</v>
-      </c>
-      <c r="K98">
-        <v>0.30285499999999999</v>
-      </c>
-      <c r="L98">
-        <v>0.73236800000000002</v>
-      </c>
-      <c r="M98">
-        <v>0.432639</v>
+      <c r="H98" s="7"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="15">
+        <v>0.30321900000000002</v>
+      </c>
+      <c r="L98" s="16">
+        <v>0.73472499999999996</v>
+      </c>
+      <c r="M98" s="17">
+        <v>0.43410700000000002</v>
       </c>
       <c r="U98" s="2"/>
-    </row>
-    <row r="99" spans="7:21">
+      <c r="Z98" s="14"/>
+    </row>
+    <row r="99" spans="7:26">
       <c r="G99" s="7">
         <v>2.8</v>
       </c>
-      <c r="H99" s="7">
-        <v>0.30472100000000002</v>
-      </c>
-      <c r="I99" s="8">
-        <v>0.73864300000000005</v>
-      </c>
-      <c r="J99" s="9">
-        <v>0.43785000000000002</v>
-      </c>
-      <c r="K99">
-        <v>0.30268899999999999</v>
-      </c>
-      <c r="L99">
-        <v>0.73263299999999998</v>
-      </c>
-      <c r="M99">
-        <v>0.432508</v>
+      <c r="H99" s="7"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="15">
+        <v>0.30322900000000003</v>
+      </c>
+      <c r="L99" s="16">
+        <v>0.73407</v>
+      </c>
+      <c r="M99" s="17">
+        <v>0.43385800000000002</v>
       </c>
       <c r="U99" s="2"/>
-    </row>
-    <row r="100" spans="7:21">
+      <c r="Z99" s="14"/>
+    </row>
+    <row r="100" spans="7:26">
       <c r="G100" s="7">
         <v>2.9</v>
       </c>
-      <c r="H100" s="7">
-        <v>0.304948</v>
-      </c>
-      <c r="I100" s="8">
-        <v>0.73935300000000004</v>
-      </c>
-      <c r="J100" s="9">
-        <v>0.438467</v>
-      </c>
-      <c r="K100">
-        <v>0.30246899999999999</v>
-      </c>
-      <c r="L100">
-        <v>0.73252600000000001</v>
-      </c>
-      <c r="M100">
-        <v>0.43215100000000001</v>
+      <c r="H100" s="7"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="15">
+        <v>0.30323899999999998</v>
+      </c>
+      <c r="L100" s="16">
+        <v>0.73385500000000004</v>
+      </c>
+      <c r="M100" s="17">
+        <v>0.43378499999999998</v>
       </c>
       <c r="U100" s="2"/>
-    </row>
-    <row r="101" spans="7:21">
+      <c r="Z100" s="14"/>
+    </row>
+    <row r="101" spans="7:26">
       <c r="G101" s="7">
         <v>3</v>
       </c>
-      <c r="H101" s="7">
-        <v>0.30509799999999998</v>
-      </c>
-      <c r="I101" s="8">
-        <v>0.73955700000000002</v>
-      </c>
-      <c r="J101" s="9">
-        <v>0.43876500000000002</v>
-      </c>
-      <c r="K101">
-        <v>0.30217699999999997</v>
-      </c>
-      <c r="L101">
-        <v>0.73207</v>
-      </c>
-      <c r="M101">
-        <v>0.43155199999999999</v>
+      <c r="H101" s="7"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="15">
+        <v>0.30324699999999999</v>
+      </c>
+      <c r="L101" s="16">
+        <v>0.73382599999999998</v>
+      </c>
+      <c r="M101" s="17">
+        <v>0.43378499999999998</v>
       </c>
       <c r="U101" s="2"/>
-    </row>
-    <row r="102" spans="7:21">
+      <c r="Z101" s="14"/>
+    </row>
+    <row r="102" spans="7:26">
       <c r="G102" s="7">
         <v>3.1</v>
       </c>
-      <c r="H102" s="7">
-        <v>0.30479499999999998</v>
-      </c>
-      <c r="I102" s="8">
-        <v>0.73844500000000002</v>
-      </c>
-      <c r="J102" s="9">
-        <v>0.43787599999999999</v>
-      </c>
-      <c r="K102">
-        <v>0.30177799999999999</v>
-      </c>
-      <c r="L102">
-        <v>0.73127299999999995</v>
-      </c>
-      <c r="M102">
-        <v>0.43066399999999999</v>
-      </c>
-    </row>
-    <row r="103" spans="7:21">
+      <c r="H102" s="7"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="15">
+        <v>0.30325000000000002</v>
+      </c>
+      <c r="L102" s="16">
+        <v>0.73385</v>
+      </c>
+      <c r="M102" s="17">
+        <v>0.43379800000000002</v>
+      </c>
+      <c r="Z102" s="14"/>
+    </row>
+    <row r="103" spans="7:26">
       <c r="G103" s="7">
         <v>3.2</v>
       </c>
-      <c r="H103" s="7">
-        <v>0.30551499999999998</v>
-      </c>
-      <c r="I103" s="8">
-        <v>0.73916999999999999</v>
-      </c>
-      <c r="J103" s="9">
-        <v>0.43920700000000001</v>
-      </c>
-      <c r="K103">
-        <v>0.301172</v>
-      </c>
-      <c r="L103">
-        <v>0.72999599999999998</v>
-      </c>
-      <c r="M103">
-        <v>0.42929200000000001</v>
-      </c>
-    </row>
-    <row r="104" spans="7:21">
+      <c r="H103" s="7"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="15">
+        <v>0.30323499999999998</v>
+      </c>
+      <c r="L103" s="16">
+        <v>0.73384799999999994</v>
+      </c>
+      <c r="M103" s="17">
+        <v>0.43377599999999999</v>
+      </c>
+      <c r="Z103" s="14"/>
+    </row>
+    <row r="104" spans="7:26">
       <c r="G104" s="7">
         <v>3.3</v>
       </c>
-      <c r="H104" s="7">
-        <v>0.31262499999999999</v>
-      </c>
-      <c r="I104" s="8">
-        <v>0.75197099999999995</v>
-      </c>
-      <c r="J104" s="9">
-        <v>0.45486500000000002</v>
-      </c>
-      <c r="K104">
-        <v>0.299794</v>
-      </c>
-      <c r="L104">
-        <v>0.72713700000000003</v>
-      </c>
-      <c r="M104">
-        <v>0.426203</v>
-      </c>
-    </row>
-    <row r="105" spans="7:21">
+      <c r="H104" s="7"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="15">
+        <v>0.30311500000000002</v>
+      </c>
+      <c r="L104" s="16">
+        <v>0.73363</v>
+      </c>
+      <c r="M104" s="17">
+        <v>0.43351699999999999</v>
+      </c>
+      <c r="Z104" s="14"/>
+    </row>
+    <row r="105" spans="7:26">
       <c r="G105" s="7">
         <v>3.4</v>
       </c>
-      <c r="H105" s="7">
-        <v>0.31791399999999997</v>
-      </c>
-      <c r="I105" s="8">
-        <v>0.76043400000000005</v>
-      </c>
-      <c r="J105" s="9">
-        <v>0.46629500000000002</v>
-      </c>
-      <c r="K105">
-        <v>0.29335800000000001</v>
-      </c>
-      <c r="L105">
-        <v>0.71364700000000003</v>
-      </c>
-      <c r="M105">
-        <v>0.41194399999999998</v>
-      </c>
-    </row>
-    <row r="106" spans="7:21">
+      <c r="H105" s="7"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="15">
+        <v>0.30207400000000001</v>
+      </c>
+      <c r="L105" s="16">
+        <v>0.731549</v>
+      </c>
+      <c r="M105" s="17">
+        <v>0.43119600000000002</v>
+      </c>
+      <c r="Z105" s="14"/>
+    </row>
+    <row r="106" spans="7:26">
       <c r="G106" s="7">
         <v>3.5</v>
       </c>
-      <c r="H106" s="7">
-        <v>0.25596799999999997</v>
-      </c>
-      <c r="I106" s="8">
-        <v>0.64032299999999998</v>
-      </c>
-      <c r="J106" s="9">
-        <v>0.33727600000000002</v>
-      </c>
-      <c r="K106">
-        <v>0.25681700000000002</v>
-      </c>
-      <c r="L106">
-        <v>0.63600299999999999</v>
-      </c>
-      <c r="M106">
-        <v>0.33718900000000002</v>
-      </c>
-    </row>
-    <row r="107" spans="7:21">
+      <c r="H106" s="7"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="15">
+        <v>0.29281600000000002</v>
+      </c>
+      <c r="L106" s="16">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="M106" s="17">
+        <v>0.41075600000000001</v>
+      </c>
+      <c r="Z106" s="14"/>
+    </row>
+    <row r="107" spans="7:26">
       <c r="G107" s="7">
         <v>3.6</v>
       </c>
-      <c r="H107" s="7">
-        <v>0.12872800000000001</v>
-      </c>
-      <c r="I107" s="8">
-        <v>0.18208099999999999</v>
-      </c>
-      <c r="J107" s="9">
-        <v>0.13174</v>
-      </c>
-      <c r="K107">
-        <v>0.16627400000000001</v>
-      </c>
-      <c r="L107">
-        <v>0.371591</v>
-      </c>
-      <c r="M107">
-        <v>0.18290799999999999</v>
-      </c>
-    </row>
-    <row r="108" spans="7:21">
+      <c r="H107" s="7"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="15">
+        <v>0.24004200000000001</v>
+      </c>
+      <c r="L107" s="16">
+        <v>0.58981399999999995</v>
+      </c>
+      <c r="M107" s="17">
+        <v>0.303759</v>
+      </c>
+      <c r="Z107" s="14"/>
+    </row>
+    <row r="108" spans="7:26">
       <c r="G108" s="7">
         <v>3.7</v>
       </c>
-      <c r="H108" s="7">
-        <v>0.101019</v>
-      </c>
-      <c r="I108" s="8">
-        <v>7.2529999999999999E-3</v>
-      </c>
-      <c r="J108" s="9">
-        <v>0.101022</v>
-      </c>
-      <c r="K108">
-        <v>0.110581</v>
-      </c>
-      <c r="L108">
-        <v>7.4145000000000003E-2</v>
-      </c>
-      <c r="M108">
-        <v>0.11100699999999999</v>
-      </c>
-    </row>
-    <row r="109" spans="7:21">
+      <c r="H108" s="7"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="15">
+        <v>0.14415900000000001</v>
+      </c>
+      <c r="L108" s="16">
+        <v>0.25731799999999999</v>
+      </c>
+      <c r="M108" s="17">
+        <v>0.150952</v>
+      </c>
+      <c r="Z108" s="14"/>
+    </row>
+    <row r="109" spans="7:26">
       <c r="G109" s="7">
         <v>3.8</v>
       </c>
-      <c r="H109" s="7">
-        <v>0.100026</v>
-      </c>
-      <c r="I109" s="8">
-        <v>1.85E-4</v>
-      </c>
-      <c r="J109" s="9">
-        <v>0.100026</v>
-      </c>
-      <c r="K109">
-        <v>0.100966</v>
-      </c>
-      <c r="L109">
-        <v>6.894E-3</v>
-      </c>
-      <c r="M109">
-        <v>0.100969</v>
-      </c>
-    </row>
-    <row r="110" spans="7:21">
+      <c r="H109" s="7"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="15">
+        <v>0.104883</v>
+      </c>
+      <c r="L109" s="16">
+        <v>3.4112000000000003E-2</v>
+      </c>
+      <c r="M109" s="17">
+        <v>0.10496800000000001</v>
+      </c>
+      <c r="Z109" s="14"/>
+    </row>
+    <row r="110" spans="7:26">
       <c r="G110" s="7">
         <v>3.9</v>
       </c>
-      <c r="H110" s="7">
-        <v>0.10000100000000001</v>
-      </c>
-      <c r="I110" s="8">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="J110" s="9">
-        <v>0.10000100000000001</v>
-      </c>
-      <c r="K110">
-        <v>0.100081</v>
-      </c>
-      <c r="L110">
-        <v>5.8E-4</v>
-      </c>
-      <c r="M110">
-        <v>0.100081</v>
-      </c>
-    </row>
-    <row r="111" spans="7:21">
+      <c r="H110" s="7"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="15">
+        <v>0.10036</v>
+      </c>
+      <c r="L110" s="16">
+        <v>2.5690000000000001E-3</v>
+      </c>
+      <c r="M110" s="17">
+        <v>0.10036100000000001</v>
+      </c>
+      <c r="Z110" s="14"/>
+    </row>
+    <row r="111" spans="7:26">
       <c r="G111" s="7">
         <v>4</v>
       </c>
-      <c r="H111" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="I111" s="8">
-        <v>0</v>
-      </c>
-      <c r="J111" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="K111">
-        <v>0.100007</v>
-      </c>
-      <c r="L111">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="M111">
-        <v>0.100007</v>
-      </c>
-    </row>
-    <row r="112" spans="7:21">
+      <c r="H111" s="7"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="15">
+        <v>0.100025</v>
+      </c>
+      <c r="L111" s="16">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="M111" s="17">
+        <v>0.100025</v>
+      </c>
+      <c r="Z111" s="14"/>
+    </row>
+    <row r="112" spans="7:26">
       <c r="G112" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H112" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="I112" s="8">
-        <v>0</v>
-      </c>
-      <c r="J112" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="K112">
-        <v>0.10000100000000001</v>
-      </c>
-      <c r="L112">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="M112">
-        <v>0.10000100000000001</v>
-      </c>
-    </row>
-    <row r="113" spans="7:13">
+      <c r="H112" s="7"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="15">
+        <v>0.10000199999999999</v>
+      </c>
+      <c r="L112" s="16">
+        <v>1.2E-5</v>
+      </c>
+      <c r="M112" s="17">
+        <v>0.10000199999999999</v>
+      </c>
+      <c r="Z112" s="14"/>
+    </row>
+    <row r="113" spans="7:26">
       <c r="G113" s="7">
         <v>4.2</v>
       </c>
-      <c r="H113" s="7">
+      <c r="H113" s="7"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="15">
         <v>0.1</v>
       </c>
-      <c r="I113" s="8">
-        <v>0</v>
-      </c>
-      <c r="J113" s="9">
+      <c r="L113" s="16">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M113" s="17">
         <v>0.1</v>
       </c>
-      <c r="K113">
-        <v>0.1</v>
-      </c>
-      <c r="L113">
-        <v>0</v>
-      </c>
-      <c r="M113">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="114" spans="7:13">
+      <c r="Z113" s="14"/>
+    </row>
+    <row r="114" spans="7:26">
       <c r="G114" s="7">
         <v>4.3</v>
       </c>
-      <c r="H114" s="7">
+      <c r="H114" s="7"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="15">
         <v>0.1</v>
       </c>
-      <c r="I114" s="8">
+      <c r="L114" s="16">
         <v>0</v>
       </c>
-      <c r="J114" s="9">
+      <c r="M114" s="17">
         <v>0.1</v>
       </c>
-      <c r="K114">
-        <v>0.1</v>
-      </c>
-      <c r="L114">
-        <v>0</v>
-      </c>
-      <c r="M114">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="115" spans="7:13">
+      <c r="Z114" s="14"/>
+    </row>
+    <row r="115" spans="7:26">
       <c r="G115" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H115" s="7">
+      <c r="H115" s="7"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="15">
         <v>0.1</v>
       </c>
-      <c r="I115" s="8">
+      <c r="L115" s="16">
         <v>0</v>
       </c>
-      <c r="J115" s="9">
+      <c r="M115" s="17">
         <v>0.1</v>
       </c>
-      <c r="K115">
-        <v>0.1</v>
-      </c>
-      <c r="L115">
-        <v>0</v>
-      </c>
-      <c r="M115">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="116" spans="7:13">
+      <c r="Z115" s="14"/>
+    </row>
+    <row r="116" spans="7:26">
       <c r="G116" s="7">
         <v>4.5</v>
       </c>
-      <c r="H116" s="7">
+      <c r="H116" s="7"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="15">
         <v>0.1</v>
       </c>
-      <c r="I116" s="8">
+      <c r="L116" s="16">
         <v>0</v>
       </c>
-      <c r="J116" s="9">
+      <c r="M116" s="17">
         <v>0.1</v>
       </c>
-      <c r="K116">
-        <v>0.1</v>
-      </c>
-      <c r="L116">
-        <v>0</v>
-      </c>
-      <c r="M116">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="117" spans="7:13">
+      <c r="Z116" s="14"/>
+    </row>
+    <row r="117" spans="7:26">
       <c r="G117" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H117" s="7">
+      <c r="H117" s="7"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="15">
         <v>0.1</v>
       </c>
-      <c r="I117" s="8">
+      <c r="L117" s="16">
         <v>0</v>
       </c>
-      <c r="J117" s="9">
+      <c r="M117" s="17">
         <v>0.1</v>
       </c>
-      <c r="K117">
-        <v>0.1</v>
-      </c>
-      <c r="L117">
-        <v>0</v>
-      </c>
-      <c r="M117">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="118" spans="7:13">
+      <c r="Z117" s="14"/>
+    </row>
+    <row r="118" spans="7:26">
       <c r="G118" s="7">
         <v>4.7</v>
       </c>
-      <c r="H118" s="7">
+      <c r="H118" s="7"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="15">
         <v>0.1</v>
       </c>
-      <c r="I118" s="8">
+      <c r="L118" s="16">
         <v>0</v>
       </c>
-      <c r="J118" s="9">
+      <c r="M118" s="17">
         <v>0.1</v>
       </c>
-      <c r="K118">
-        <v>0.1</v>
-      </c>
-      <c r="L118">
-        <v>0</v>
-      </c>
-      <c r="M118">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="119" spans="7:13">
+      <c r="Z118" s="14"/>
+    </row>
+    <row r="119" spans="7:26">
       <c r="G119" s="7">
         <v>4.8</v>
       </c>
-      <c r="H119" s="7">
+      <c r="H119" s="7"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="15">
         <v>0.1</v>
       </c>
-      <c r="I119" s="8">
+      <c r="L119" s="16">
         <v>0</v>
       </c>
-      <c r="J119" s="9">
+      <c r="M119" s="17">
         <v>0.1</v>
       </c>
-      <c r="K119">
-        <v>0.1</v>
-      </c>
-      <c r="L119">
-        <v>0</v>
-      </c>
-      <c r="M119">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="120" spans="7:13">
+      <c r="Z119" s="14"/>
+    </row>
+    <row r="120" spans="7:26">
       <c r="G120" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H120" s="7">
+      <c r="H120" s="7"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="15">
         <v>0.1</v>
       </c>
-      <c r="I120" s="8">
+      <c r="L120" s="16">
         <v>0</v>
       </c>
-      <c r="J120" s="9">
+      <c r="M120" s="17">
         <v>0.1</v>
       </c>
-      <c r="K120">
-        <v>0.1</v>
-      </c>
-      <c r="L120">
-        <v>0</v>
-      </c>
-      <c r="M120">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="121" spans="7:13" ht="15" thickBot="1">
+      <c r="Z120" s="13"/>
+    </row>
+    <row r="121" spans="7:26" ht="14.65" thickBot="1">
       <c r="G121" s="10">
         <v>5</v>
       </c>
-      <c r="H121" s="10">
+      <c r="H121" s="10"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="18">
         <v>0.1</v>
       </c>
-      <c r="I121" s="11">
+      <c r="L121" s="19">
         <v>0</v>
       </c>
-      <c r="J121" s="12">
+      <c r="M121" s="20">
         <v>0.1</v>
       </c>
-      <c r="K121">
-        <v>0.1</v>
-      </c>
-      <c r="L121">
-        <v>0</v>
-      </c>
-      <c r="M121">
-        <v>0.1</v>
-      </c>
+    </row>
+    <row r="122" spans="7:26">
+      <c r="L122" s="13"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
